--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -439,7 +439,7 @@
         <v>1.048350875990117</v>
       </c>
       <c r="J2">
-        <v>1.027578398379915</v>
+        <v>1.027578398379914</v>
       </c>
       <c r="K2">
         <v>1.033753523247254</v>
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013373249516336</v>
+        <v>1.013373249516335</v>
       </c>
       <c r="D3">
         <v>1.028560529876448</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051309580758169</v>
+        <v>1.051309580758168</v>
       </c>
       <c r="J3">
         <v>1.03350586838517</v>
@@ -486,7 +486,7 @@
         <v>1.033626119097049</v>
       </c>
       <c r="M3">
-        <v>1.040289591749101</v>
+        <v>1.0402895917491</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01826637415382</v>
+        <v>1.018266374153819</v>
       </c>
       <c r="D4">
-        <v>1.03229644031552</v>
+        <v>1.032296440315518</v>
       </c>
       <c r="E4">
-        <v>1.027863851203224</v>
+        <v>1.027863851203223</v>
       </c>
       <c r="F4">
-        <v>1.034624209984207</v>
+        <v>1.034624209984205</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053148751364962</v>
+        <v>1.053148751364961</v>
       </c>
       <c r="J4">
-        <v>1.037214091026631</v>
+        <v>1.03721409102663</v>
       </c>
       <c r="K4">
-        <v>1.042020096081159</v>
+        <v>1.042020096081158</v>
       </c>
       <c r="L4">
-        <v>1.037637224455338</v>
+        <v>1.037637224455337</v>
       </c>
       <c r="M4">
-        <v>1.044321966495766</v>
+        <v>1.044321966495764</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.033839713428719</v>
       </c>
       <c r="E5">
-        <v>1.029757160157405</v>
+        <v>1.029757160157406</v>
       </c>
       <c r="F5">
-        <v>1.036524389138594</v>
+        <v>1.036524389138595</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.053904803339544</v>
       </c>
       <c r="J5">
-        <v>1.038744257835616</v>
+        <v>1.038744257835617</v>
       </c>
       <c r="K5">
-        <v>1.0433313777598</v>
+        <v>1.043331377759801</v>
       </c>
       <c r="L5">
         <v>1.039293293167272</v>
       </c>
       <c r="M5">
-        <v>1.045987045039152</v>
+        <v>1.045987045039153</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -591,7 +591,7 @@
         <v>1.054030767491134</v>
       </c>
       <c r="J6">
-        <v>1.038999538940723</v>
+        <v>1.038999538940722</v>
       </c>
       <c r="K6">
         <v>1.043550098368331</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018293516355746</v>
+        <v>1.018293516355745</v>
       </c>
       <c r="D7">
-        <v>1.032317166875426</v>
+        <v>1.032317166875425</v>
       </c>
       <c r="E7">
-        <v>1.027889275250279</v>
+        <v>1.027889275250277</v>
       </c>
       <c r="F7">
-        <v>1.034649725384778</v>
+        <v>1.034649725384776</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.053158919975095</v>
       </c>
       <c r="J7">
-        <v>1.037234648109219</v>
+        <v>1.037234648109217</v>
       </c>
       <c r="K7">
-        <v>1.04203771545064</v>
+        <v>1.042037715450639</v>
       </c>
       <c r="L7">
-        <v>1.037659469324285</v>
+        <v>1.037659469324284</v>
       </c>
       <c r="M7">
-        <v>1.044344331497469</v>
+        <v>1.044344331497468</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008237100451074</v>
+        <v>1.008237100451077</v>
       </c>
       <c r="D8">
-        <v>1.024640611727907</v>
+        <v>1.024640611727909</v>
       </c>
       <c r="E8">
-        <v>1.018478854981453</v>
+        <v>1.018478854981456</v>
       </c>
       <c r="F8">
-        <v>1.025207155803052</v>
+        <v>1.025207155803055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049366941507914</v>
+        <v>1.049366941507915</v>
       </c>
       <c r="J8">
-        <v>1.02960903058071</v>
+        <v>1.029609030580712</v>
       </c>
       <c r="K8">
-        <v>1.035496842251107</v>
+        <v>1.035496842251109</v>
       </c>
       <c r="L8">
-        <v>1.029414203527381</v>
+        <v>1.029414203527384</v>
       </c>
       <c r="M8">
-        <v>1.036056171435944</v>
+        <v>1.036056171435945</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891710711785019</v>
+        <v>0.9891710711785036</v>
       </c>
       <c r="D9">
-        <v>1.010108348945157</v>
+        <v>1.010108348945158</v>
       </c>
       <c r="E9">
-        <v>1.000688578944486</v>
+        <v>1.000688578944488</v>
       </c>
       <c r="F9">
-        <v>1.007365114710613</v>
+        <v>1.007365114710614</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.042063326419044</v>
       </c>
       <c r="J9">
-        <v>1.015112108712247</v>
+        <v>1.015112108712249</v>
       </c>
       <c r="K9">
-        <v>1.023039526807179</v>
+        <v>1.02303952680718</v>
       </c>
       <c r="L9">
-        <v>1.013770494305782</v>
+        <v>1.013770494305784</v>
       </c>
       <c r="M9">
-        <v>1.020339817658388</v>
+        <v>1.020339817658389</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9753735933899421</v>
       </c>
       <c r="D10">
-        <v>0.9996163568405412</v>
+        <v>0.9996163568405413</v>
       </c>
       <c r="E10">
-        <v>0.9878555683220692</v>
+        <v>0.9878555683220697</v>
       </c>
       <c r="F10">
-        <v>0.9945020580458113</v>
+        <v>0.9945020580458114</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -763,31 +763,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9690925630395026</v>
+        <v>0.969092563039502</v>
       </c>
       <c r="D11">
-        <v>0.9948484454896719</v>
+        <v>0.9948484454896716</v>
       </c>
       <c r="E11">
-        <v>0.9820250865049709</v>
+        <v>0.9820250865049704</v>
       </c>
       <c r="F11">
-        <v>0.9886599643436867</v>
+        <v>0.9886599643436863</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034249320589877</v>
+        <v>1.034249320589876</v>
       </c>
       <c r="J11">
-        <v>0.9998101533410044</v>
+        <v>0.9998101533410038</v>
       </c>
       <c r="K11">
         <v>1.009868170915067</v>
       </c>
       <c r="L11">
-        <v>0.9972941355147822</v>
+        <v>0.9972941355147815</v>
       </c>
       <c r="M11">
         <v>1.003798953297667</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9667085310303665</v>
+        <v>0.9667085310303675</v>
       </c>
       <c r="D12">
-        <v>0.9930402373752741</v>
+        <v>0.9930402373752748</v>
       </c>
       <c r="E12">
-        <v>0.9798139582021375</v>
+        <v>0.9798139582021383</v>
       </c>
       <c r="F12">
-        <v>0.9864447691652186</v>
+        <v>0.9864447691652194</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033315027908249</v>
+        <v>1.03331502790825</v>
       </c>
       <c r="J12">
-        <v>0.9979918701868151</v>
+        <v>0.9979918701868159</v>
       </c>
       <c r="K12">
-        <v>1.008302001280864</v>
+        <v>1.008302001280865</v>
       </c>
       <c r="L12">
-        <v>0.9953383857086638</v>
+        <v>0.9953383857086646</v>
       </c>
       <c r="M12">
-        <v>1.001836356770607</v>
+        <v>1.001836356770608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9672223077670408</v>
+        <v>0.9672223077670409</v>
       </c>
       <c r="D13">
-        <v>0.9934298476358445</v>
+        <v>0.9934298476358444</v>
       </c>
       <c r="E13">
-        <v>0.9802903845903034</v>
+        <v>0.9802903845903033</v>
       </c>
       <c r="F13">
-        <v>0.986922056105164</v>
+        <v>0.9869220561051638</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1.033516476262073</v>
       </c>
       <c r="J13">
-        <v>0.9983837404973462</v>
+        <v>0.9983837404973464</v>
       </c>
       <c r="K13">
         <v>1.008639552168454</v>
@@ -866,7 +866,7 @@
         <v>0.995759847954575</v>
       </c>
       <c r="M13">
-        <v>1.002259279932525</v>
+        <v>1.002259279932524</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9688965691656762</v>
+        <v>0.9688965691656736</v>
       </c>
       <c r="D14">
-        <v>0.9946997587394374</v>
+        <v>0.9946997587394351</v>
       </c>
       <c r="E14">
-        <v>0.9818432678471209</v>
+        <v>0.9818432678471184</v>
       </c>
       <c r="F14">
-        <v>0.9884778042567507</v>
+        <v>0.988477804256748</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034172557058167</v>
+        <v>1.034172557058165</v>
       </c>
       <c r="J14">
-        <v>0.9996606780153261</v>
+        <v>0.9996606780153238</v>
       </c>
       <c r="K14">
-        <v>1.009739427968459</v>
+        <v>1.009739427968456</v>
       </c>
       <c r="L14">
-        <v>0.9971333440355126</v>
+        <v>0.99713334403551</v>
       </c>
       <c r="M14">
-        <v>1.003637592426525</v>
+        <v>1.003637592426523</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9699212224530692</v>
+        <v>0.9699212224530701</v>
       </c>
       <c r="D15">
-        <v>0.9954771536092466</v>
+        <v>0.9954771536092475</v>
       </c>
       <c r="E15">
-        <v>0.9827938911943587</v>
+        <v>0.9827938911943598</v>
       </c>
       <c r="F15">
-        <v>0.9894302266038132</v>
+        <v>0.9894302266038144</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034573783431693</v>
       </c>
       <c r="J15">
-        <v>1.000442116655417</v>
+        <v>1.000442116655418</v>
       </c>
       <c r="K15">
-        <v>1.010412466114691</v>
+        <v>1.010412466114692</v>
       </c>
       <c r="L15">
-        <v>0.9979739730917286</v>
+        <v>0.9979739730917295</v>
       </c>
       <c r="M15">
-        <v>1.004481211148821</v>
+        <v>1.004481211148822</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9757835815607903</v>
+        <v>0.9757835815607879</v>
       </c>
       <c r="D16">
-        <v>0.9999277702561085</v>
+        <v>0.9999277702561058</v>
       </c>
       <c r="E16">
-        <v>0.9882363980870228</v>
+        <v>0.9882363980870202</v>
       </c>
       <c r="F16">
-        <v>0.9948836908447249</v>
+        <v>0.9948836908447225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036864745020429</v>
+        <v>1.036864745020428</v>
       </c>
       <c r="J16">
-        <v>1.00491208868093</v>
+        <v>1.004912088680928</v>
       </c>
       <c r="K16">
-        <v>1.014261647375633</v>
+        <v>1.014261647375631</v>
       </c>
       <c r="L16">
-        <v>1.002784033585653</v>
+        <v>1.002784033585651</v>
       </c>
       <c r="M16">
-        <v>1.009308988992677</v>
+        <v>1.009308988992674</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,31 +991,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9793755451160923</v>
+        <v>0.9793755451160915</v>
       </c>
       <c r="D17">
         <v>1.002657073463525</v>
       </c>
       <c r="E17">
-        <v>0.9915742111415631</v>
+        <v>0.9915742111415619</v>
       </c>
       <c r="F17">
-        <v>0.9982287749232438</v>
+        <v>0.9982287749232434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038264345733776</v>
+        <v>1.038264345733775</v>
       </c>
       <c r="J17">
         <v>1.007650031050669</v>
       </c>
       <c r="K17">
-        <v>1.016618674400567</v>
+        <v>1.016618674400566</v>
       </c>
       <c r="L17">
-        <v>1.005731605636799</v>
+        <v>1.005731605636798</v>
       </c>
       <c r="M17">
         <v>1.012267931567958</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9814414586322756</v>
+        <v>0.9814414586322766</v>
       </c>
       <c r="D18">
-        <v>1.004227594279784</v>
+        <v>1.004227594279786</v>
       </c>
       <c r="E18">
-        <v>0.9934950145202204</v>
+        <v>0.9934950145202215</v>
       </c>
       <c r="F18">
-        <v>1.000153951485527</v>
+        <v>1.000153951485528</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039067808483081</v>
+        <v>1.039067808483082</v>
       </c>
       <c r="J18">
-        <v>1.009224395850363</v>
+        <v>1.009224395850365</v>
       </c>
       <c r="K18">
-        <v>1.017973750781435</v>
+        <v>1.017973750781436</v>
       </c>
       <c r="L18">
-        <v>1.007426985206083</v>
+        <v>1.007426985206084</v>
       </c>
       <c r="M18">
-        <v>1.013970028055349</v>
+        <v>1.01397002805535</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821410634279415</v>
+        <v>0.9821410634279409</v>
       </c>
       <c r="D19">
         <v>1.004759561406905</v>
       </c>
       <c r="E19">
-        <v>0.9941456549154745</v>
+        <v>0.9941456549154739</v>
       </c>
       <c r="F19">
-        <v>1.000806104445553</v>
+        <v>1.000806104445552</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1.018432535966122</v>
       </c>
       <c r="L19">
-        <v>1.008001122348364</v>
+        <v>1.008001122348363</v>
       </c>
       <c r="M19">
         <v>1.01454646916456</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9789932167610642</v>
+        <v>0.9789932167610625</v>
       </c>
       <c r="D20">
-        <v>1.002366485379053</v>
+        <v>1.002366485379051</v>
       </c>
       <c r="E20">
-        <v>0.9912188227719639</v>
+        <v>0.9912188227719622</v>
       </c>
       <c r="F20">
-        <v>0.9978725925367639</v>
+        <v>0.9978725925367623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038115529141012</v>
+        <v>1.038115529141011</v>
       </c>
       <c r="J20">
-        <v>1.007358641117679</v>
+        <v>1.007358641117677</v>
       </c>
       <c r="K20">
-        <v>1.016367850239406</v>
+        <v>1.016367850239404</v>
       </c>
       <c r="L20">
-        <v>1.005417856219434</v>
+        <v>1.005417856219432</v>
       </c>
       <c r="M20">
-        <v>1.011952953273874</v>
+        <v>1.011952953273872</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9684049912849299</v>
+        <v>0.9684049912849282</v>
       </c>
       <c r="D21">
-        <v>0.9943268582703341</v>
+        <v>0.9943268582703326</v>
       </c>
       <c r="E21">
-        <v>0.9813872742576549</v>
+        <v>0.9813872742576529</v>
       </c>
       <c r="F21">
-        <v>0.9880209599007497</v>
+        <v>0.9880209599007481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033979987834351</v>
+        <v>1.03397998783435</v>
       </c>
       <c r="J21">
-        <v>0.9992857683460613</v>
+        <v>0.9992857683460594</v>
       </c>
       <c r="K21">
-        <v>1.009416513098727</v>
+        <v>1.009416513098726</v>
       </c>
       <c r="L21">
-        <v>0.9967300637735127</v>
+        <v>0.9967300637735109</v>
       </c>
       <c r="M21">
-        <v>1.003232889190009</v>
+        <v>1.003232889190007</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9614498094360736</v>
+        <v>0.9614498094360744</v>
       </c>
       <c r="D22">
-        <v>0.9890547539068789</v>
+        <v>0.9890547539068792</v>
       </c>
       <c r="E22">
-        <v>0.9749403312730318</v>
+        <v>0.9749403312730319</v>
       </c>
       <c r="F22">
-        <v>0.9815628378661529</v>
+        <v>0.9815628378661531</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>1.031250072097814</v>
       </c>
       <c r="J22">
-        <v>0.9939804710372051</v>
+        <v>0.9939804710372053</v>
       </c>
       <c r="K22">
         <v>1.00484620186811</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9651669660020524</v>
+        <v>0.9651669660020537</v>
       </c>
       <c r="D23">
-        <v>0.9918714697492534</v>
+        <v>0.9918714697492548</v>
       </c>
       <c r="E23">
-        <v>0.9783847529024425</v>
+        <v>0.9783847529024439</v>
       </c>
       <c r="F23">
-        <v>0.9850130343033263</v>
+        <v>0.9850130343033277</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032710265075929</v>
       </c>
       <c r="J23">
-        <v>0.9968160297800465</v>
+        <v>0.9968160297800478</v>
       </c>
       <c r="K23">
-        <v>1.007289102749137</v>
+        <v>1.007289102749138</v>
       </c>
       <c r="L23">
-        <v>0.9940738640654586</v>
+        <v>0.9940738640654598</v>
       </c>
       <c r="M23">
-        <v>1.000567499903922</v>
+        <v>1.000567499903923</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9791660644172085</v>
+        <v>0.97916606441721</v>
       </c>
       <c r="D24">
-        <v>1.00249785561589</v>
+        <v>1.002497855615891</v>
       </c>
       <c r="E24">
-        <v>0.9913794877755029</v>
+        <v>0.9913794877755046</v>
       </c>
       <c r="F24">
-        <v>0.998033615916748</v>
+        <v>0.9980336159167491</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.038182812678956</v>
       </c>
       <c r="J24">
-        <v>1.007490377352568</v>
+        <v>1.00749037735257</v>
       </c>
       <c r="K24">
-        <v>1.016481247647082</v>
+        <v>1.016481247647083</v>
       </c>
       <c r="L24">
-        <v>1.005559699615049</v>
+        <v>1.00555969961505</v>
       </c>
       <c r="M24">
-        <v>1.012095351686175</v>
+        <v>1.012095351686176</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,10 +1295,10 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.994276886085652</v>
+        <v>0.9942768860856515</v>
       </c>
       <c r="D25">
-        <v>1.013996619902956</v>
+        <v>1.013996619902955</v>
       </c>
       <c r="E25">
         <v>1.005446258080567</v>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -439,7 +439,7 @@
         <v>1.048350875990117</v>
       </c>
       <c r="J2">
-        <v>1.027578398379914</v>
+        <v>1.027578398379915</v>
       </c>
       <c r="K2">
         <v>1.033753523247254</v>
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013373249516335</v>
+        <v>1.013373249516336</v>
       </c>
       <c r="D3">
         <v>1.028560529876448</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051309580758168</v>
+        <v>1.051309580758169</v>
       </c>
       <c r="J3">
         <v>1.03350586838517</v>
@@ -486,7 +486,7 @@
         <v>1.033626119097049</v>
       </c>
       <c r="M3">
-        <v>1.0402895917491</v>
+        <v>1.040289591749101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018266374153819</v>
+        <v>1.01826637415382</v>
       </c>
       <c r="D4">
-        <v>1.032296440315518</v>
+        <v>1.03229644031552</v>
       </c>
       <c r="E4">
-        <v>1.027863851203223</v>
+        <v>1.027863851203224</v>
       </c>
       <c r="F4">
-        <v>1.034624209984205</v>
+        <v>1.034624209984207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053148751364961</v>
+        <v>1.053148751364962</v>
       </c>
       <c r="J4">
-        <v>1.03721409102663</v>
+        <v>1.037214091026631</v>
       </c>
       <c r="K4">
-        <v>1.042020096081158</v>
+        <v>1.042020096081159</v>
       </c>
       <c r="L4">
-        <v>1.037637224455337</v>
+        <v>1.037637224455338</v>
       </c>
       <c r="M4">
-        <v>1.044321966495764</v>
+        <v>1.044321966495766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.033839713428719</v>
       </c>
       <c r="E5">
-        <v>1.029757160157406</v>
+        <v>1.029757160157405</v>
       </c>
       <c r="F5">
-        <v>1.036524389138595</v>
+        <v>1.036524389138594</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.053904803339544</v>
       </c>
       <c r="J5">
-        <v>1.038744257835617</v>
+        <v>1.038744257835616</v>
       </c>
       <c r="K5">
-        <v>1.043331377759801</v>
+        <v>1.0433313777598</v>
       </c>
       <c r="L5">
         <v>1.039293293167272</v>
       </c>
       <c r="M5">
-        <v>1.045987045039153</v>
+        <v>1.045987045039152</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -591,7 +591,7 @@
         <v>1.054030767491134</v>
       </c>
       <c r="J6">
-        <v>1.038999538940722</v>
+        <v>1.038999538940723</v>
       </c>
       <c r="K6">
         <v>1.043550098368331</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018293516355745</v>
+        <v>1.018293516355746</v>
       </c>
       <c r="D7">
-        <v>1.032317166875425</v>
+        <v>1.032317166875426</v>
       </c>
       <c r="E7">
-        <v>1.027889275250277</v>
+        <v>1.027889275250279</v>
       </c>
       <c r="F7">
-        <v>1.034649725384776</v>
+        <v>1.034649725384778</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.053158919975095</v>
       </c>
       <c r="J7">
-        <v>1.037234648109217</v>
+        <v>1.037234648109219</v>
       </c>
       <c r="K7">
-        <v>1.042037715450639</v>
+        <v>1.04203771545064</v>
       </c>
       <c r="L7">
-        <v>1.037659469324284</v>
+        <v>1.037659469324285</v>
       </c>
       <c r="M7">
-        <v>1.044344331497468</v>
+        <v>1.044344331497469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008237100451077</v>
+        <v>1.008237100451074</v>
       </c>
       <c r="D8">
-        <v>1.024640611727909</v>
+        <v>1.024640611727907</v>
       </c>
       <c r="E8">
-        <v>1.018478854981456</v>
+        <v>1.018478854981453</v>
       </c>
       <c r="F8">
-        <v>1.025207155803055</v>
+        <v>1.025207155803052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049366941507915</v>
+        <v>1.049366941507914</v>
       </c>
       <c r="J8">
-        <v>1.029609030580712</v>
+        <v>1.02960903058071</v>
       </c>
       <c r="K8">
-        <v>1.035496842251109</v>
+        <v>1.035496842251107</v>
       </c>
       <c r="L8">
-        <v>1.029414203527384</v>
+        <v>1.029414203527381</v>
       </c>
       <c r="M8">
-        <v>1.036056171435945</v>
+        <v>1.036056171435944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891710711785036</v>
+        <v>0.9891710711785019</v>
       </c>
       <c r="D9">
-        <v>1.010108348945158</v>
+        <v>1.010108348945157</v>
       </c>
       <c r="E9">
-        <v>1.000688578944488</v>
+        <v>1.000688578944486</v>
       </c>
       <c r="F9">
-        <v>1.007365114710614</v>
+        <v>1.007365114710613</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.042063326419044</v>
       </c>
       <c r="J9">
-        <v>1.015112108712249</v>
+        <v>1.015112108712247</v>
       </c>
       <c r="K9">
-        <v>1.02303952680718</v>
+        <v>1.023039526807179</v>
       </c>
       <c r="L9">
-        <v>1.013770494305784</v>
+        <v>1.013770494305782</v>
       </c>
       <c r="M9">
-        <v>1.020339817658389</v>
+        <v>1.020339817658388</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.9753735933899421</v>
       </c>
       <c r="D10">
-        <v>0.9996163568405413</v>
+        <v>0.9996163568405412</v>
       </c>
       <c r="E10">
-        <v>0.9878555683220697</v>
+        <v>0.9878555683220692</v>
       </c>
       <c r="F10">
-        <v>0.9945020580458114</v>
+        <v>0.9945020580458113</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -763,31 +763,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.969092563039502</v>
+        <v>0.9690925630395026</v>
       </c>
       <c r="D11">
-        <v>0.9948484454896716</v>
+        <v>0.9948484454896719</v>
       </c>
       <c r="E11">
-        <v>0.9820250865049704</v>
+        <v>0.9820250865049709</v>
       </c>
       <c r="F11">
-        <v>0.9886599643436863</v>
+        <v>0.9886599643436867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034249320589876</v>
+        <v>1.034249320589877</v>
       </c>
       <c r="J11">
-        <v>0.9998101533410038</v>
+        <v>0.9998101533410044</v>
       </c>
       <c r="K11">
         <v>1.009868170915067</v>
       </c>
       <c r="L11">
-        <v>0.9972941355147815</v>
+        <v>0.9972941355147822</v>
       </c>
       <c r="M11">
         <v>1.003798953297667</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9667085310303675</v>
+        <v>0.9667085310303665</v>
       </c>
       <c r="D12">
-        <v>0.9930402373752748</v>
+        <v>0.9930402373752741</v>
       </c>
       <c r="E12">
-        <v>0.9798139582021383</v>
+        <v>0.9798139582021375</v>
       </c>
       <c r="F12">
-        <v>0.9864447691652194</v>
+        <v>0.9864447691652186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03331502790825</v>
+        <v>1.033315027908249</v>
       </c>
       <c r="J12">
-        <v>0.9979918701868159</v>
+        <v>0.9979918701868151</v>
       </c>
       <c r="K12">
-        <v>1.008302001280865</v>
+        <v>1.008302001280864</v>
       </c>
       <c r="L12">
-        <v>0.9953383857086646</v>
+        <v>0.9953383857086638</v>
       </c>
       <c r="M12">
-        <v>1.001836356770608</v>
+        <v>1.001836356770607</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9672223077670409</v>
+        <v>0.9672223077670408</v>
       </c>
       <c r="D13">
-        <v>0.9934298476358444</v>
+        <v>0.9934298476358445</v>
       </c>
       <c r="E13">
-        <v>0.9802903845903033</v>
+        <v>0.9802903845903034</v>
       </c>
       <c r="F13">
-        <v>0.9869220561051638</v>
+        <v>0.986922056105164</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1.033516476262073</v>
       </c>
       <c r="J13">
-        <v>0.9983837404973464</v>
+        <v>0.9983837404973462</v>
       </c>
       <c r="K13">
         <v>1.008639552168454</v>
@@ -866,7 +866,7 @@
         <v>0.995759847954575</v>
       </c>
       <c r="M13">
-        <v>1.002259279932524</v>
+        <v>1.002259279932525</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9688965691656736</v>
+        <v>0.9688965691656762</v>
       </c>
       <c r="D14">
-        <v>0.9946997587394351</v>
+        <v>0.9946997587394374</v>
       </c>
       <c r="E14">
-        <v>0.9818432678471184</v>
+        <v>0.9818432678471209</v>
       </c>
       <c r="F14">
-        <v>0.988477804256748</v>
+        <v>0.9884778042567507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034172557058165</v>
+        <v>1.034172557058167</v>
       </c>
       <c r="J14">
-        <v>0.9996606780153238</v>
+        <v>0.9996606780153261</v>
       </c>
       <c r="K14">
-        <v>1.009739427968456</v>
+        <v>1.009739427968459</v>
       </c>
       <c r="L14">
-        <v>0.99713334403551</v>
+        <v>0.9971333440355126</v>
       </c>
       <c r="M14">
-        <v>1.003637592426523</v>
+        <v>1.003637592426525</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9699212224530701</v>
+        <v>0.9699212224530692</v>
       </c>
       <c r="D15">
-        <v>0.9954771536092475</v>
+        <v>0.9954771536092466</v>
       </c>
       <c r="E15">
-        <v>0.9827938911943598</v>
+        <v>0.9827938911943587</v>
       </c>
       <c r="F15">
-        <v>0.9894302266038144</v>
+        <v>0.9894302266038132</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034573783431693</v>
       </c>
       <c r="J15">
-        <v>1.000442116655418</v>
+        <v>1.000442116655417</v>
       </c>
       <c r="K15">
-        <v>1.010412466114692</v>
+        <v>1.010412466114691</v>
       </c>
       <c r="L15">
-        <v>0.9979739730917295</v>
+        <v>0.9979739730917286</v>
       </c>
       <c r="M15">
-        <v>1.004481211148822</v>
+        <v>1.004481211148821</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9757835815607879</v>
+        <v>0.9757835815607903</v>
       </c>
       <c r="D16">
-        <v>0.9999277702561058</v>
+        <v>0.9999277702561085</v>
       </c>
       <c r="E16">
-        <v>0.9882363980870202</v>
+        <v>0.9882363980870228</v>
       </c>
       <c r="F16">
-        <v>0.9948836908447225</v>
+        <v>0.9948836908447249</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036864745020428</v>
+        <v>1.036864745020429</v>
       </c>
       <c r="J16">
-        <v>1.004912088680928</v>
+        <v>1.00491208868093</v>
       </c>
       <c r="K16">
-        <v>1.014261647375631</v>
+        <v>1.014261647375633</v>
       </c>
       <c r="L16">
-        <v>1.002784033585651</v>
+        <v>1.002784033585653</v>
       </c>
       <c r="M16">
-        <v>1.009308988992674</v>
+        <v>1.009308988992677</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,31 +991,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9793755451160915</v>
+        <v>0.9793755451160923</v>
       </c>
       <c r="D17">
         <v>1.002657073463525</v>
       </c>
       <c r="E17">
-        <v>0.9915742111415619</v>
+        <v>0.9915742111415631</v>
       </c>
       <c r="F17">
-        <v>0.9982287749232434</v>
+        <v>0.9982287749232438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038264345733775</v>
+        <v>1.038264345733776</v>
       </c>
       <c r="J17">
         <v>1.007650031050669</v>
       </c>
       <c r="K17">
-        <v>1.016618674400566</v>
+        <v>1.016618674400567</v>
       </c>
       <c r="L17">
-        <v>1.005731605636798</v>
+        <v>1.005731605636799</v>
       </c>
       <c r="M17">
         <v>1.012267931567958</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9814414586322766</v>
+        <v>0.9814414586322756</v>
       </c>
       <c r="D18">
-        <v>1.004227594279786</v>
+        <v>1.004227594279784</v>
       </c>
       <c r="E18">
-        <v>0.9934950145202215</v>
+        <v>0.9934950145202204</v>
       </c>
       <c r="F18">
-        <v>1.000153951485528</v>
+        <v>1.000153951485527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039067808483082</v>
+        <v>1.039067808483081</v>
       </c>
       <c r="J18">
-        <v>1.009224395850365</v>
+        <v>1.009224395850363</v>
       </c>
       <c r="K18">
-        <v>1.017973750781436</v>
+        <v>1.017973750781435</v>
       </c>
       <c r="L18">
-        <v>1.007426985206084</v>
+        <v>1.007426985206083</v>
       </c>
       <c r="M18">
-        <v>1.01397002805535</v>
+        <v>1.013970028055349</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821410634279409</v>
+        <v>0.9821410634279415</v>
       </c>
       <c r="D19">
         <v>1.004759561406905</v>
       </c>
       <c r="E19">
-        <v>0.9941456549154739</v>
+        <v>0.9941456549154745</v>
       </c>
       <c r="F19">
-        <v>1.000806104445552</v>
+        <v>1.000806104445553</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1.018432535966122</v>
       </c>
       <c r="L19">
-        <v>1.008001122348363</v>
+        <v>1.008001122348364</v>
       </c>
       <c r="M19">
         <v>1.01454646916456</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9789932167610625</v>
+        <v>0.9789932167610642</v>
       </c>
       <c r="D20">
-        <v>1.002366485379051</v>
+        <v>1.002366485379053</v>
       </c>
       <c r="E20">
-        <v>0.9912188227719622</v>
+        <v>0.9912188227719639</v>
       </c>
       <c r="F20">
-        <v>0.9978725925367623</v>
+        <v>0.9978725925367639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038115529141011</v>
+        <v>1.038115529141012</v>
       </c>
       <c r="J20">
-        <v>1.007358641117677</v>
+        <v>1.007358641117679</v>
       </c>
       <c r="K20">
-        <v>1.016367850239404</v>
+        <v>1.016367850239406</v>
       </c>
       <c r="L20">
-        <v>1.005417856219432</v>
+        <v>1.005417856219434</v>
       </c>
       <c r="M20">
-        <v>1.011952953273872</v>
+        <v>1.011952953273874</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9684049912849282</v>
+        <v>0.9684049912849299</v>
       </c>
       <c r="D21">
-        <v>0.9943268582703326</v>
+        <v>0.9943268582703341</v>
       </c>
       <c r="E21">
-        <v>0.9813872742576529</v>
+        <v>0.9813872742576549</v>
       </c>
       <c r="F21">
-        <v>0.9880209599007481</v>
+        <v>0.9880209599007497</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03397998783435</v>
+        <v>1.033979987834351</v>
       </c>
       <c r="J21">
-        <v>0.9992857683460594</v>
+        <v>0.9992857683460613</v>
       </c>
       <c r="K21">
-        <v>1.009416513098726</v>
+        <v>1.009416513098727</v>
       </c>
       <c r="L21">
-        <v>0.9967300637735109</v>
+        <v>0.9967300637735127</v>
       </c>
       <c r="M21">
-        <v>1.003232889190007</v>
+        <v>1.003232889190009</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9614498094360744</v>
+        <v>0.9614498094360736</v>
       </c>
       <c r="D22">
-        <v>0.9890547539068792</v>
+        <v>0.9890547539068789</v>
       </c>
       <c r="E22">
-        <v>0.9749403312730319</v>
+        <v>0.9749403312730318</v>
       </c>
       <c r="F22">
-        <v>0.9815628378661531</v>
+        <v>0.9815628378661529</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>1.031250072097814</v>
       </c>
       <c r="J22">
-        <v>0.9939804710372053</v>
+        <v>0.9939804710372051</v>
       </c>
       <c r="K22">
         <v>1.00484620186811</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9651669660020537</v>
+        <v>0.9651669660020524</v>
       </c>
       <c r="D23">
-        <v>0.9918714697492548</v>
+        <v>0.9918714697492534</v>
       </c>
       <c r="E23">
-        <v>0.9783847529024439</v>
+        <v>0.9783847529024425</v>
       </c>
       <c r="F23">
-        <v>0.9850130343033277</v>
+        <v>0.9850130343033263</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032710265075929</v>
       </c>
       <c r="J23">
-        <v>0.9968160297800478</v>
+        <v>0.9968160297800465</v>
       </c>
       <c r="K23">
-        <v>1.007289102749138</v>
+        <v>1.007289102749137</v>
       </c>
       <c r="L23">
-        <v>0.9940738640654598</v>
+        <v>0.9940738640654586</v>
       </c>
       <c r="M23">
-        <v>1.000567499903923</v>
+        <v>1.000567499903922</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.97916606441721</v>
+        <v>0.9791660644172085</v>
       </c>
       <c r="D24">
-        <v>1.002497855615891</v>
+        <v>1.00249785561589</v>
       </c>
       <c r="E24">
-        <v>0.9913794877755046</v>
+        <v>0.9913794877755029</v>
       </c>
       <c r="F24">
-        <v>0.9980336159167491</v>
+        <v>0.998033615916748</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.038182812678956</v>
       </c>
       <c r="J24">
-        <v>1.00749037735257</v>
+        <v>1.007490377352568</v>
       </c>
       <c r="K24">
-        <v>1.016481247647083</v>
+        <v>1.016481247647082</v>
       </c>
       <c r="L24">
-        <v>1.00555969961505</v>
+        <v>1.005559699615049</v>
       </c>
       <c r="M24">
-        <v>1.012095351686176</v>
+        <v>1.012095351686175</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,10 +1295,10 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942768860856515</v>
+        <v>0.994276886085652</v>
       </c>
       <c r="D25">
-        <v>1.013996619902955</v>
+        <v>1.013996619902956</v>
       </c>
       <c r="E25">
         <v>1.005446258080567</v>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005562806337199</v>
+        <v>1.005574220005383</v>
       </c>
       <c r="D2">
-        <v>1.022600317641651</v>
+        <v>1.022610672706153</v>
       </c>
       <c r="E2">
-        <v>1.015979499004124</v>
+        <v>1.015990760914515</v>
       </c>
       <c r="F2">
-        <v>1.022699818242541</v>
+        <v>1.022710373660138</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048350875990117</v>
+        <v>1.04835684867574</v>
       </c>
       <c r="J2">
-        <v>1.027578398379915</v>
+        <v>1.02758947583826</v>
       </c>
       <c r="K2">
-        <v>1.033753523247254</v>
+        <v>1.033763741938307</v>
       </c>
       <c r="L2">
-        <v>1.027220613850443</v>
+        <v>1.027231725006641</v>
       </c>
       <c r="M2">
-        <v>1.033851713594869</v>
+        <v>1.033862130034366</v>
+      </c>
+      <c r="N2">
+        <v>1.018912267927876</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013373249516336</v>
+        <v>1.013378757975231</v>
       </c>
       <c r="D3">
-        <v>1.028560529876448</v>
+        <v>1.028566086752072</v>
       </c>
       <c r="E3">
-        <v>1.023282724010553</v>
+        <v>1.023288185666298</v>
       </c>
       <c r="F3">
-        <v>1.030027020792823</v>
+        <v>1.03003235484794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051309580758169</v>
+        <v>1.0513127410212</v>
       </c>
       <c r="J3">
-        <v>1.03350586838517</v>
+        <v>1.033511232004582</v>
       </c>
       <c r="K3">
-        <v>1.038840563548046</v>
+        <v>1.038846054136848</v>
       </c>
       <c r="L3">
-        <v>1.033626119097049</v>
+        <v>1.033631514764772</v>
       </c>
       <c r="M3">
-        <v>1.040289591749101</v>
+        <v>1.040294862399716</v>
+      </c>
+      <c r="N3">
+        <v>1.023161116713179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01826637415382</v>
+        <v>1.018268260531789</v>
       </c>
       <c r="D4">
-        <v>1.03229644031552</v>
+        <v>1.032299049180908</v>
       </c>
       <c r="E4">
-        <v>1.027863851203224</v>
+        <v>1.027865748775451</v>
       </c>
       <c r="F4">
-        <v>1.034624209984207</v>
+        <v>1.034626342748219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053148751364962</v>
+        <v>1.053150180305734</v>
       </c>
       <c r="J4">
-        <v>1.037214091026631</v>
+        <v>1.037215931450312</v>
       </c>
       <c r="K4">
-        <v>1.042020096081159</v>
+        <v>1.042022675839311</v>
       </c>
       <c r="L4">
-        <v>1.037637224455338</v>
+        <v>1.037639100630698</v>
       </c>
       <c r="M4">
-        <v>1.044321966495766</v>
+        <v>1.044324075595918</v>
+      </c>
+      <c r="N4">
+        <v>1.025814946774626</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020287228003683</v>
+        <v>1.020287634914097</v>
       </c>
       <c r="D5">
-        <v>1.033839713428719</v>
+        <v>1.033841117188005</v>
       </c>
       <c r="E5">
-        <v>1.029757160157405</v>
+        <v>1.029757600602418</v>
       </c>
       <c r="F5">
-        <v>1.036524389138594</v>
+        <v>1.036525214666711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053904803339544</v>
+        <v>1.053905523759277</v>
       </c>
       <c r="J5">
-        <v>1.038744257835616</v>
+        <v>1.038744655153625</v>
       </c>
       <c r="K5">
-        <v>1.0433313777598</v>
+        <v>1.043332766302914</v>
       </c>
       <c r="L5">
-        <v>1.039293293167272</v>
+        <v>1.039293728791444</v>
       </c>
       <c r="M5">
-        <v>1.045987045039152</v>
+        <v>1.04598786167561</v>
+      </c>
+      <c r="N5">
+        <v>1.02690897943349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020624476759798</v>
+        <v>1.020624637680196</v>
       </c>
       <c r="D6">
-        <v>1.034097278683037</v>
+        <v>1.034098482019105</v>
       </c>
       <c r="E6">
-        <v>1.030073198661839</v>
+        <v>1.030073396756854</v>
       </c>
       <c r="F6">
-        <v>1.036841587730864</v>
+        <v>1.036842195927698</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054030767491134</v>
+        <v>1.054031370030382</v>
       </c>
       <c r="J6">
-        <v>1.038999538940723</v>
+        <v>1.038999696088668</v>
       </c>
       <c r="K6">
-        <v>1.043550098368331</v>
+        <v>1.043551288724397</v>
       </c>
       <c r="L6">
-        <v>1.039569632957022</v>
+        <v>1.03956982889471</v>
       </c>
       <c r="M6">
-        <v>1.0462649013807</v>
+        <v>1.046265503059582</v>
+      </c>
+      <c r="N6">
+        <v>1.027091436861006</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018293516355746</v>
+        <v>1.01829538280042</v>
       </c>
       <c r="D7">
-        <v>1.032317166875426</v>
+        <v>1.032319759507648</v>
       </c>
       <c r="E7">
-        <v>1.027889275250279</v>
+        <v>1.027891153195346</v>
       </c>
       <c r="F7">
-        <v>1.034649725384778</v>
+        <v>1.034651840534562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053158919975095</v>
+        <v>1.053160339374928</v>
       </c>
       <c r="J7">
-        <v>1.037234648109219</v>
+        <v>1.037236469105019</v>
       </c>
       <c r="K7">
-        <v>1.04203771545064</v>
+        <v>1.042040279167807</v>
       </c>
       <c r="L7">
-        <v>1.037659469324285</v>
+        <v>1.037661326102154</v>
       </c>
       <c r="M7">
-        <v>1.044344331497469</v>
+        <v>1.044346423188068</v>
+      </c>
+      <c r="N7">
+        <v>1.025829648784886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008237100451074</v>
+        <v>1.008246474407089</v>
       </c>
       <c r="D8">
-        <v>1.024640611727907</v>
+        <v>1.024649310659491</v>
       </c>
       <c r="E8">
-        <v>1.018478854981453</v>
+        <v>1.018488114919618</v>
       </c>
       <c r="F8">
-        <v>1.025207155803052</v>
+        <v>1.02521590745324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049366941507914</v>
+        <v>1.049371944203093</v>
       </c>
       <c r="J8">
-        <v>1.02960903058071</v>
+        <v>1.029618138662165</v>
       </c>
       <c r="K8">
-        <v>1.035496842251107</v>
+        <v>1.035505430327202</v>
       </c>
       <c r="L8">
-        <v>1.029414203527381</v>
+        <v>1.029423343667639</v>
       </c>
       <c r="M8">
-        <v>1.036056171435944</v>
+        <v>1.036064811712727</v>
+      </c>
+      <c r="N8">
+        <v>1.02036871875371</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891710711785019</v>
+        <v>0.9891954295634888</v>
       </c>
       <c r="D9">
-        <v>1.010108348945157</v>
+        <v>1.010129180821001</v>
       </c>
       <c r="E9">
-        <v>1.000688578944486</v>
+        <v>1.000712507914084</v>
       </c>
       <c r="F9">
-        <v>1.007365114710613</v>
+        <v>1.007387121436035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042063326419044</v>
+        <v>1.042075418753639</v>
       </c>
       <c r="J9">
-        <v>1.015112108712247</v>
+        <v>1.015135580311625</v>
       </c>
       <c r="K9">
-        <v>1.023039526807179</v>
+        <v>1.023060029315457</v>
       </c>
       <c r="L9">
-        <v>1.013770494305782</v>
+        <v>1.013794035742135</v>
       </c>
       <c r="M9">
-        <v>1.020339817658388</v>
+        <v>1.020361474009018</v>
+      </c>
+      <c r="N9">
+        <v>1.009953746266952</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9753735933899421</v>
+        <v>0.9754095131845701</v>
       </c>
       <c r="D10">
-        <v>0.9996163568405412</v>
+        <v>0.9996464904240905</v>
       </c>
       <c r="E10">
-        <v>0.9878555683220692</v>
+        <v>0.9878907525833122</v>
       </c>
       <c r="F10">
-        <v>0.9945020580458113</v>
+        <v>0.9945342936713134</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0367047888886</v>
+        <v>1.036722293017244</v>
       </c>
       <c r="J10">
-        <v>1.004599532548695</v>
+        <v>1.004633922650604</v>
       </c>
       <c r="K10">
-        <v>1.013992541539633</v>
+        <v>1.014022130530238</v>
       </c>
       <c r="L10">
-        <v>1.002447611734046</v>
+        <v>1.002482140218286</v>
       </c>
       <c r="M10">
-        <v>1.0089712941722</v>
+        <v>1.009002939388131</v>
+      </c>
+      <c r="N10">
+        <v>1.002380728077201</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9690925630395026</v>
+        <v>0.9691339754161423</v>
       </c>
       <c r="D11">
-        <v>0.9948484454896719</v>
+        <v>0.9948829778849515</v>
       </c>
       <c r="E11">
-        <v>0.9820250865049709</v>
+        <v>0.9820655980567297</v>
       </c>
       <c r="F11">
-        <v>0.9886599643436867</v>
+        <v>0.9886970584546685</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034249320589877</v>
+        <v>1.034269377733697</v>
       </c>
       <c r="J11">
-        <v>0.9998101533410044</v>
+        <v>0.9998496813644733</v>
       </c>
       <c r="K11">
-        <v>1.009868170915067</v>
+        <v>1.0099020432541</v>
       </c>
       <c r="L11">
-        <v>0.9972941355147822</v>
+        <v>0.9973338459344568</v>
       </c>
       <c r="M11">
-        <v>1.003798953297667</v>
+        <v>1.003835326704996</v>
+      </c>
+      <c r="N11">
+        <v>0.9989262725662706</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9667085310303665</v>
+        <v>0.9667520688995586</v>
       </c>
       <c r="D12">
-        <v>0.9930402373752741</v>
+        <v>0.9930764683473078</v>
       </c>
       <c r="E12">
-        <v>0.9798139582021375</v>
+        <v>0.9798565278031438</v>
       </c>
       <c r="F12">
-        <v>0.9864447691652186</v>
+        <v>0.9864837430636819</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033315027908249</v>
+        <v>1.033336069885385</v>
       </c>
       <c r="J12">
-        <v>0.9979918701868151</v>
+        <v>0.9980333780638573</v>
       </c>
       <c r="K12">
-        <v>1.008302001280864</v>
+        <v>1.008337525337198</v>
       </c>
       <c r="L12">
-        <v>0.9953383857086638</v>
+        <v>0.9953800949298325</v>
       </c>
       <c r="M12">
-        <v>1.001836356770607</v>
+        <v>1.001874556814304</v>
+      </c>
+      <c r="N12">
+        <v>0.9976142023355493</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9672223077670408</v>
+        <v>0.9672653856260804</v>
       </c>
       <c r="D13">
-        <v>0.9934298476358445</v>
+        <v>0.9934657111682557</v>
       </c>
       <c r="E13">
-        <v>0.9802903845903034</v>
+        <v>0.9803325089428244</v>
       </c>
       <c r="F13">
-        <v>0.986922056105164</v>
+        <v>0.9869606231880049</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033516476262073</v>
+        <v>1.033537305244049</v>
       </c>
       <c r="J13">
-        <v>0.9983837404973462</v>
+        <v>0.9984248202790355</v>
       </c>
       <c r="K13">
-        <v>1.008639552168454</v>
+        <v>1.008674719027915</v>
       </c>
       <c r="L13">
-        <v>0.995759847954575</v>
+        <v>0.9958011248900922</v>
       </c>
       <c r="M13">
-        <v>1.002259279932525</v>
+        <v>1.002297084791585</v>
+      </c>
+      <c r="N13">
+        <v>0.9978970009527599</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9688965691656762</v>
+        <v>0.9689381554160956</v>
       </c>
       <c r="D14">
-        <v>0.9946997587394374</v>
+        <v>0.9947344301624741</v>
       </c>
       <c r="E14">
-        <v>0.9818432678471209</v>
+        <v>0.9818839478286645</v>
       </c>
       <c r="F14">
-        <v>0.9884778042567507</v>
+        <v>0.9885150521495099</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034172557058167</v>
+        <v>1.034192694830663</v>
       </c>
       <c r="J14">
-        <v>0.9996606780153261</v>
+        <v>0.9997003681738331</v>
       </c>
       <c r="K14">
-        <v>1.009739427968459</v>
+        <v>1.009773435546946</v>
       </c>
       <c r="L14">
-        <v>0.9971333440355126</v>
+        <v>0.9971732181004974</v>
       </c>
       <c r="M14">
-        <v>1.003637592426525</v>
+        <v>1.003674115324374</v>
+      </c>
+      <c r="N14">
+        <v>0.998818423006449</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9699212224530692</v>
+        <v>0.9699619013871617</v>
       </c>
       <c r="D15">
-        <v>0.9954771536092466</v>
+        <v>0.9955110994001071</v>
       </c>
       <c r="E15">
-        <v>0.9827938911943587</v>
+        <v>0.9828336921244551</v>
       </c>
       <c r="F15">
-        <v>0.9894302266038132</v>
+        <v>0.9894666720110753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034573783431693</v>
+        <v>1.03459350033562</v>
       </c>
       <c r="J15">
-        <v>1.000442116655417</v>
+        <v>1.000480960409027</v>
       </c>
       <c r="K15">
-        <v>1.010412466114691</v>
+        <v>1.010445767740425</v>
       </c>
       <c r="L15">
-        <v>0.9979739730917286</v>
+        <v>0.9980129929491857</v>
       </c>
       <c r="M15">
-        <v>1.004481211148821</v>
+        <v>1.004516953842287</v>
+      </c>
+      <c r="N15">
+        <v>0.9993822236756496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9757835815607903</v>
+        <v>0.9758191480658472</v>
       </c>
       <c r="D16">
-        <v>0.9999277702561085</v>
+        <v>0.9999576204441127</v>
       </c>
       <c r="E16">
-        <v>0.9882363980870228</v>
+        <v>0.9882712392486711</v>
       </c>
       <c r="F16">
-        <v>0.9948836908447249</v>
+        <v>0.9949156139323013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036864745020429</v>
+        <v>1.036882084538123</v>
       </c>
       <c r="J16">
-        <v>1.00491208868093</v>
+        <v>1.004946147228136</v>
       </c>
       <c r="K16">
-        <v>1.014261647375633</v>
+        <v>1.014290960114002</v>
       </c>
       <c r="L16">
-        <v>1.002784033585653</v>
+        <v>1.002818227931921</v>
       </c>
       <c r="M16">
-        <v>1.009308988992677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.009340329698764</v>
+      </c>
+      <c r="N16">
+        <v>1.00260608260492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9793755451160923</v>
+        <v>0.9794080428261244</v>
       </c>
       <c r="D17">
-        <v>1.002657073463525</v>
+        <v>1.002684459695028</v>
       </c>
       <c r="E17">
-        <v>0.9915742111415631</v>
+        <v>0.9916060697893434</v>
       </c>
       <c r="F17">
-        <v>0.9982287749232438</v>
+        <v>0.9982579830680328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038264345733776</v>
+        <v>1.038280253362511</v>
       </c>
       <c r="J17">
-        <v>1.007650031050669</v>
+        <v>1.007681204086317</v>
       </c>
       <c r="K17">
-        <v>1.016618674400567</v>
+        <v>1.016645583758415</v>
       </c>
       <c r="L17">
-        <v>1.005731605636799</v>
+        <v>1.005762893311356</v>
       </c>
       <c r="M17">
-        <v>1.012267931567958</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.012296625248925</v>
+      </c>
+      <c r="N17">
+        <v>1.004579675606676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9814414586322756</v>
+        <v>0.9814722123516435</v>
       </c>
       <c r="D18">
-        <v>1.004227594279784</v>
+        <v>1.004253578446763</v>
       </c>
       <c r="E18">
-        <v>0.9934950145202204</v>
+        <v>0.9935251764338996</v>
       </c>
       <c r="F18">
-        <v>1.000153951485527</v>
+        <v>1.00018161664979</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039067808483081</v>
+        <v>1.039082900757719</v>
       </c>
       <c r="J18">
-        <v>1.009224395850363</v>
+        <v>1.0092539246338</v>
       </c>
       <c r="K18">
-        <v>1.017973750781435</v>
+        <v>1.017999291307625</v>
       </c>
       <c r="L18">
-        <v>1.007426985206083</v>
+        <v>1.007456617634141</v>
       </c>
       <c r="M18">
-        <v>1.013970028055349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.013997215890038</v>
+      </c>
+      <c r="N18">
+        <v>1.005714120140768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821410634279415</v>
+        <v>0.9821712299600807</v>
       </c>
       <c r="D19">
-        <v>1.004759561406905</v>
+        <v>1.004785073220676</v>
       </c>
       <c r="E19">
-        <v>0.9941456549154745</v>
+        <v>0.9941752452644148</v>
       </c>
       <c r="F19">
-        <v>1.000806104445553</v>
+        <v>1.000833250091081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03933963400876</v>
+        <v>1.03935445149749</v>
       </c>
       <c r="J19">
-        <v>1.009757476918201</v>
+        <v>1.009786451372091</v>
       </c>
       <c r="K19">
-        <v>1.018432535966122</v>
+        <v>1.018457615131354</v>
       </c>
       <c r="L19">
-        <v>1.008001122348364</v>
+        <v>1.008030196914804</v>
       </c>
       <c r="M19">
-        <v>1.01454646916456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.014573149742827</v>
+      </c>
+      <c r="N19">
+        <v>1.006098173475098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9789932167610642</v>
+        <v>0.979026038886894</v>
       </c>
       <c r="D20">
-        <v>1.002366485379053</v>
+        <v>1.002394132278455</v>
       </c>
       <c r="E20">
-        <v>0.9912188227719639</v>
+        <v>0.9912509969031902</v>
       </c>
       <c r="F20">
-        <v>0.9978725925367639</v>
+        <v>0.9979020876998286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038115529141012</v>
+        <v>1.038131588312311</v>
       </c>
       <c r="J20">
-        <v>1.007358641117679</v>
+        <v>1.007390119661782</v>
       </c>
       <c r="K20">
-        <v>1.016367850239406</v>
+        <v>1.016395013987246</v>
       </c>
       <c r="L20">
-        <v>1.005417856219434</v>
+        <v>1.005449451530389</v>
       </c>
       <c r="M20">
-        <v>1.011952953273874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.011981926947988</v>
+      </c>
+      <c r="N20">
+        <v>1.004369674639848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9684049912849299</v>
+        <v>0.968447014310973</v>
       </c>
       <c r="D21">
-        <v>0.9943268582703341</v>
+        <v>0.9943618788741757</v>
       </c>
       <c r="E21">
-        <v>0.9813872742576549</v>
+        <v>0.9814283772819138</v>
       </c>
       <c r="F21">
-        <v>0.9880209599007497</v>
+        <v>0.9880585940916353</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033979987834351</v>
+        <v>1.034000328096861</v>
       </c>
       <c r="J21">
-        <v>0.9992857683460613</v>
+        <v>0.9993258656543457</v>
       </c>
       <c r="K21">
-        <v>1.009416513098727</v>
+        <v>1.009450860306204</v>
       </c>
       <c r="L21">
-        <v>0.9967300637735127</v>
+        <v>0.9967703488134422</v>
       </c>
       <c r="M21">
-        <v>1.003232889190009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.003269787561543</v>
+      </c>
+      <c r="N21">
+        <v>0.9985479086036188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9614498094360736</v>
+        <v>0.961498119063785</v>
       </c>
       <c r="D22">
-        <v>0.9890547539068789</v>
+        <v>0.9890947906160282</v>
       </c>
       <c r="E22">
-        <v>0.9749403312730318</v>
+        <v>0.9749875141085951</v>
       </c>
       <c r="F22">
-        <v>0.9815628378661529</v>
+        <v>0.9816060310785472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031250072097814</v>
+        <v>1.031273318702392</v>
       </c>
       <c r="J22">
-        <v>0.9939804710372051</v>
+        <v>0.9940264068270646</v>
       </c>
       <c r="K22">
-        <v>1.00484620186811</v>
+        <v>1.004885422173277</v>
       </c>
       <c r="L22">
-        <v>0.9910251253595548</v>
+        <v>0.9910713088397733</v>
       </c>
       <c r="M22">
-        <v>0.9975086054587318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9975509000499045</v>
+      </c>
+      <c r="N22">
+        <v>0.9947185622707517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9651669660020524</v>
+        <v>0.965211890636004</v>
       </c>
       <c r="D23">
-        <v>0.9918714697492534</v>
+        <v>0.9919088078301884</v>
       </c>
       <c r="E23">
-        <v>0.9783847529024425</v>
+        <v>0.9784286642139339</v>
       </c>
       <c r="F23">
-        <v>0.9850130343033263</v>
+        <v>0.9850532345411128</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032710265075929</v>
+        <v>1.03273194866349</v>
       </c>
       <c r="J23">
-        <v>0.9968160297800465</v>
+        <v>0.9968588268943274</v>
       </c>
       <c r="K23">
-        <v>1.007289102749137</v>
+        <v>1.007325702700998</v>
       </c>
       <c r="L23">
-        <v>0.9940738640654586</v>
+        <v>0.9941168754533528</v>
       </c>
       <c r="M23">
-        <v>1.000567499903922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.000606890799093</v>
+      </c>
+      <c r="N23">
+        <v>0.9967655591504184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9791660644172085</v>
+        <v>0.9791987398123035</v>
       </c>
       <c r="D24">
-        <v>1.00249785561589</v>
+        <v>1.002525384622823</v>
       </c>
       <c r="E24">
-        <v>0.9913794877755029</v>
+        <v>0.9914115192215444</v>
       </c>
       <c r="F24">
-        <v>0.998033615916748</v>
+        <v>0.998062981263935</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038182812678956</v>
+        <v>1.038198803313749</v>
       </c>
       <c r="J24">
-        <v>1.007490377352568</v>
+        <v>1.007521717731322</v>
       </c>
       <c r="K24">
-        <v>1.016481247647082</v>
+        <v>1.016508296345613</v>
       </c>
       <c r="L24">
-        <v>1.005559699615049</v>
+        <v>1.005591155794996</v>
       </c>
       <c r="M24">
-        <v>1.012095351686175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.012124198726373</v>
+      </c>
+      <c r="N24">
+        <v>1.004464616511674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.994276886085652</v>
+        <v>0.9942971265168956</v>
       </c>
       <c r="D25">
-        <v>1.013996619902956</v>
+        <v>1.014014125585132</v>
       </c>
       <c r="E25">
-        <v>1.005446258080567</v>
+        <v>1.005466164718994</v>
       </c>
       <c r="F25">
-        <v>1.012135488446227</v>
+        <v>1.012153851804587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044031975306106</v>
+        <v>1.044042127720855</v>
       </c>
       <c r="J25">
-        <v>1.018998402919969</v>
+        <v>1.019017951213968</v>
       </c>
       <c r="K25">
-        <v>1.026381473554112</v>
+        <v>1.026398716952977</v>
       </c>
       <c r="L25">
-        <v>1.017960612158332</v>
+        <v>1.017980214035712</v>
       </c>
       <c r="M25">
-        <v>1.024548292866263</v>
+        <v>1.024566379801512</v>
+      </c>
+      <c r="N25">
+        <v>1.012749402465543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005574220005383</v>
+        <v>1.044108175136227</v>
       </c>
       <c r="D2">
-        <v>1.022610672706153</v>
+        <v>1.057846415583403</v>
       </c>
       <c r="E2">
-        <v>1.015990760914515</v>
+        <v>1.061428519079757</v>
       </c>
       <c r="F2">
-        <v>1.022710373660138</v>
+        <v>1.067322014391096</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04835684867574</v>
+        <v>1.060893335282507</v>
       </c>
       <c r="J2">
-        <v>1.02758947583826</v>
+        <v>1.065045155035973</v>
       </c>
       <c r="K2">
-        <v>1.033763741938307</v>
+        <v>1.068554656363725</v>
       </c>
       <c r="L2">
-        <v>1.027231725006641</v>
+        <v>1.072093591074554</v>
       </c>
       <c r="M2">
-        <v>1.033862130034366</v>
+        <v>1.077916843724505</v>
       </c>
       <c r="N2">
-        <v>1.018912267927876</v>
+        <v>1.066557641318511</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013378757975231</v>
+        <v>1.051702394889778</v>
       </c>
       <c r="D3">
-        <v>1.028566086752072</v>
+        <v>1.063905218923311</v>
       </c>
       <c r="E3">
-        <v>1.023288185666298</v>
+        <v>1.068457359999545</v>
       </c>
       <c r="F3">
-        <v>1.03003235484794</v>
+        <v>1.074107948371711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0513127410212</v>
+        <v>1.063448158966833</v>
       </c>
       <c r="J3">
-        <v>1.033511232004582</v>
+        <v>1.070876391559508</v>
       </c>
       <c r="K3">
-        <v>1.038846054136848</v>
+        <v>1.073780851998225</v>
       </c>
       <c r="L3">
-        <v>1.033631514764772</v>
+        <v>1.078283296782527</v>
       </c>
       <c r="M3">
-        <v>1.040294862399716</v>
+        <v>1.083872915009513</v>
       </c>
       <c r="N3">
-        <v>1.023161116713179</v>
+        <v>1.072397158866762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018268260531789</v>
+        <v>1.056475319359926</v>
       </c>
       <c r="D4">
-        <v>1.032299049180908</v>
+        <v>1.067714965738039</v>
       </c>
       <c r="E4">
-        <v>1.027865748775451</v>
+        <v>1.072880060747475</v>
       </c>
       <c r="F4">
-        <v>1.034626342748219</v>
+        <v>1.078377531519149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053150180305734</v>
+        <v>1.06504187185641</v>
       </c>
       <c r="J4">
-        <v>1.037215931450312</v>
+        <v>1.074536961876556</v>
       </c>
       <c r="K4">
-        <v>1.042022675839311</v>
+        <v>1.077059454771433</v>
       </c>
       <c r="L4">
-        <v>1.037639100630698</v>
+        <v>1.082171804595186</v>
       </c>
       <c r="M4">
-        <v>1.044324075595918</v>
+        <v>1.087613811199595</v>
       </c>
       <c r="N4">
-        <v>1.025814946774626</v>
+        <v>1.076062927613533</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020287634914097</v>
+        <v>1.058449948917807</v>
       </c>
       <c r="D5">
-        <v>1.033841117188005</v>
+        <v>1.069291459234701</v>
       </c>
       <c r="E5">
-        <v>1.029757600602418</v>
+        <v>1.07471095463077</v>
       </c>
       <c r="F5">
-        <v>1.036525214666711</v>
+        <v>1.080144956704061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053905523759277</v>
+        <v>1.065698283074526</v>
       </c>
       <c r="J5">
-        <v>1.038744655153625</v>
+        <v>1.076050297912544</v>
       </c>
       <c r="K5">
-        <v>1.043332766302914</v>
+        <v>1.078414343929564</v>
       </c>
       <c r="L5">
-        <v>1.039293728791444</v>
+        <v>1.083780068477657</v>
       </c>
       <c r="M5">
-        <v>1.04598786167561</v>
+        <v>1.089160812659988</v>
       </c>
       <c r="N5">
-        <v>1.02690897943349</v>
+        <v>1.077578412760274</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020624637680196</v>
+        <v>1.058779678049791</v>
       </c>
       <c r="D6">
-        <v>1.034098482019105</v>
+        <v>1.069554724199127</v>
       </c>
       <c r="E6">
-        <v>1.030073396756854</v>
+        <v>1.075016748485984</v>
       </c>
       <c r="F6">
-        <v>1.036842195927698</v>
+        <v>1.080440144854383</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054031370030382</v>
+        <v>1.065807718442462</v>
       </c>
       <c r="J6">
-        <v>1.038999696088668</v>
+        <v>1.076302932903932</v>
       </c>
       <c r="K6">
-        <v>1.043551288724397</v>
+        <v>1.078640495890873</v>
       </c>
       <c r="L6">
-        <v>1.03956982889471</v>
+        <v>1.084048591447544</v>
       </c>
       <c r="M6">
-        <v>1.046265503059582</v>
+        <v>1.089419094277416</v>
       </c>
       <c r="N6">
-        <v>1.027091436861006</v>
+        <v>1.077831406522328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01829538280042</v>
+        <v>1.056501827487504</v>
       </c>
       <c r="D7">
-        <v>1.032319759507648</v>
+        <v>1.067736127899379</v>
       </c>
       <c r="E7">
-        <v>1.027891153195346</v>
+        <v>1.072904634826488</v>
       </c>
       <c r="F7">
-        <v>1.034651840534562</v>
+        <v>1.078401254070218</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053160339374928</v>
+        <v>1.065050695426693</v>
       </c>
       <c r="J7">
-        <v>1.037236469105019</v>
+        <v>1.074557281847047</v>
       </c>
       <c r="K7">
-        <v>1.042040279167807</v>
+        <v>1.077077649378039</v>
       </c>
       <c r="L7">
-        <v>1.037661326102154</v>
+        <v>1.082193396439646</v>
       </c>
       <c r="M7">
-        <v>1.044346423188068</v>
+        <v>1.087634581410314</v>
       </c>
       <c r="N7">
-        <v>1.025829648784886</v>
+        <v>1.076083276440713</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008246474407089</v>
+        <v>1.046705049402017</v>
       </c>
       <c r="D8">
-        <v>1.024649310659491</v>
+        <v>1.059917804492665</v>
       </c>
       <c r="E8">
-        <v>1.018488114919618</v>
+        <v>1.063830936542335</v>
       </c>
       <c r="F8">
-        <v>1.02521590745324</v>
+        <v>1.069641455739974</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049371944203093</v>
+        <v>1.061769458193706</v>
       </c>
       <c r="J8">
-        <v>1.029618138662165</v>
+        <v>1.067040046590383</v>
       </c>
       <c r="K8">
-        <v>1.035505430327202</v>
+        <v>1.070343002834553</v>
       </c>
       <c r="L8">
-        <v>1.029423343667639</v>
+        <v>1.074210500882934</v>
       </c>
       <c r="M8">
-        <v>1.036064811712727</v>
+        <v>1.079954019613456</v>
       </c>
       <c r="N8">
-        <v>1.02036871875371</v>
+        <v>1.068555365847745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891954295634888</v>
+        <v>1.028269292293815</v>
       </c>
       <c r="D9">
-        <v>1.010129180821001</v>
+        <v>1.045224693577179</v>
       </c>
       <c r="E9">
-        <v>1.000712507914084</v>
+        <v>1.046800976161149</v>
       </c>
       <c r="F9">
-        <v>1.007387121436035</v>
+        <v>1.053199213384131</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042075418753639</v>
+        <v>1.055500507809046</v>
       </c>
       <c r="J9">
-        <v>1.015135580311625</v>
+        <v>1.052861817108592</v>
       </c>
       <c r="K9">
-        <v>1.023060029315457</v>
+        <v>1.057624298699369</v>
       </c>
       <c r="L9">
-        <v>1.013794035742135</v>
+        <v>1.059177780409206</v>
       </c>
       <c r="M9">
-        <v>1.020361474009018</v>
+        <v>1.065484353823981</v>
       </c>
       <c r="N9">
-        <v>1.009953746266952</v>
+        <v>1.054357001653825</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9754095131845701</v>
+        <v>1.015045202598503</v>
       </c>
       <c r="D10">
-        <v>0.9996464904240905</v>
+        <v>1.034706091238554</v>
       </c>
       <c r="E10">
-        <v>0.9878907525833122</v>
+        <v>1.034621800368855</v>
       </c>
       <c r="F10">
-        <v>0.9945342936713134</v>
+        <v>1.041440642474982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036722293017244</v>
+        <v>1.050943852083801</v>
       </c>
       <c r="J10">
-        <v>1.004633922650604</v>
+        <v>1.042674353002458</v>
       </c>
       <c r="K10">
-        <v>1.014022130530238</v>
+        <v>1.048475769426129</v>
       </c>
       <c r="L10">
-        <v>1.002482140218286</v>
+        <v>1.048392872032045</v>
       </c>
       <c r="M10">
-        <v>1.009002939388131</v>
+        <v>1.055099923131958</v>
       </c>
       <c r="N10">
-        <v>1.002380728077201</v>
+        <v>1.044155070180142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9691339754161423</v>
+        <v>1.009059563041445</v>
       </c>
       <c r="D11">
-        <v>0.9948829778849515</v>
+        <v>1.029951930538244</v>
       </c>
       <c r="E11">
-        <v>0.9820655980567297</v>
+        <v>1.029119293298849</v>
       </c>
       <c r="F11">
-        <v>0.9886970584546685</v>
+        <v>1.036128557553215</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034269377733697</v>
+        <v>1.048868238670208</v>
       </c>
       <c r="J11">
-        <v>0.9998496813644733</v>
+        <v>1.038060250594717</v>
       </c>
       <c r="K11">
-        <v>1.0099020432541</v>
+        <v>1.044330270906831</v>
       </c>
       <c r="L11">
-        <v>0.9973338459344568</v>
+        <v>1.043512190712782</v>
       </c>
       <c r="M11">
-        <v>1.003835326704996</v>
+        <v>1.050399856029941</v>
       </c>
       <c r="N11">
-        <v>0.9989262725662706</v>
+        <v>1.039534415217737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9667520688995586</v>
+        <v>1.006793488988974</v>
       </c>
       <c r="D12">
-        <v>0.9930764683473078</v>
+        <v>1.02815329724227</v>
       </c>
       <c r="E12">
-        <v>0.9798565278031438</v>
+        <v>1.027037798318954</v>
       </c>
       <c r="F12">
-        <v>0.9864837430636819</v>
+        <v>1.034119186373328</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033336069885385</v>
+        <v>1.048080575569274</v>
       </c>
       <c r="J12">
-        <v>0.9980333780638573</v>
+        <v>1.036313093232662</v>
       </c>
       <c r="K12">
-        <v>1.008337525337198</v>
+        <v>1.042760295649121</v>
       </c>
       <c r="L12">
-        <v>0.9953800949298325</v>
+        <v>1.041664703718465</v>
       </c>
       <c r="M12">
-        <v>1.001874556814304</v>
+        <v>1.04862066337677</v>
       </c>
       <c r="N12">
-        <v>0.9976142023355493</v>
+        <v>1.037784776691825</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9672653856260804</v>
+        <v>1.007281569342951</v>
       </c>
       <c r="D13">
-        <v>0.9934657111682557</v>
+        <v>1.028540639141835</v>
       </c>
       <c r="E13">
-        <v>0.9803325089428244</v>
+        <v>1.027486044990528</v>
       </c>
       <c r="F13">
-        <v>0.9869606231880049</v>
+        <v>1.034551896662375</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033537305244049</v>
+        <v>1.048250309511937</v>
       </c>
       <c r="J13">
-        <v>0.9984248202790355</v>
+        <v>1.036689419039211</v>
       </c>
       <c r="K13">
-        <v>1.008674719027915</v>
+        <v>1.043098468651577</v>
       </c>
       <c r="L13">
-        <v>0.9958011248900922</v>
+        <v>1.042062612069563</v>
       </c>
       <c r="M13">
-        <v>1.002297084791585</v>
+        <v>1.049003865604678</v>
       </c>
       <c r="N13">
-        <v>0.9978970009527599</v>
+        <v>1.038161636924185</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9689381554160956</v>
+        <v>1.00887314401207</v>
       </c>
       <c r="D14">
-        <v>0.9947344301624741</v>
+        <v>1.029803939711937</v>
       </c>
       <c r="E14">
-        <v>0.9818839478286645</v>
+        <v>1.028948023909477</v>
       </c>
       <c r="F14">
-        <v>0.9885150521495099</v>
+        <v>1.035963220615511</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034192694830663</v>
+        <v>1.048803478613515</v>
       </c>
       <c r="J14">
-        <v>0.9997003681738331</v>
+        <v>1.037916526274459</v>
       </c>
       <c r="K14">
-        <v>1.009773435546946</v>
+        <v>1.04420112691173</v>
       </c>
       <c r="L14">
-        <v>0.9971732181004974</v>
+        <v>1.043360200631362</v>
       </c>
       <c r="M14">
-        <v>1.003674115324374</v>
+        <v>1.050253485798268</v>
       </c>
       <c r="N14">
-        <v>0.998818423006449</v>
+        <v>1.039390486792458</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9699619013871617</v>
+        <v>1.009847981502203</v>
       </c>
       <c r="D15">
-        <v>0.9955110994001071</v>
+        <v>1.030577876112371</v>
       </c>
       <c r="E15">
-        <v>0.9828336921244551</v>
+        <v>1.029843708529689</v>
       </c>
       <c r="F15">
-        <v>0.9894666720110753</v>
+        <v>1.036827884276029</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03459350033562</v>
+        <v>1.049142051944945</v>
       </c>
       <c r="J15">
-        <v>1.000480960409027</v>
+        <v>1.038668088561804</v>
       </c>
       <c r="K15">
-        <v>1.010445767740425</v>
+        <v>1.044876435611369</v>
       </c>
       <c r="L15">
-        <v>0.9980129929491857</v>
+        <v>1.044155011109547</v>
       </c>
       <c r="M15">
-        <v>1.004516953842287</v>
+        <v>1.051018905201448</v>
       </c>
       <c r="N15">
-        <v>0.9993822236756496</v>
+        <v>1.040143116384457</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9758191480658472</v>
+        <v>1.01543667279649</v>
       </c>
       <c r="D16">
-        <v>0.9999576204441127</v>
+        <v>1.035017178517122</v>
       </c>
       <c r="E16">
-        <v>0.9882712392486711</v>
+        <v>1.034981895151739</v>
       </c>
       <c r="F16">
-        <v>0.9949156139323013</v>
+        <v>1.04178828638819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036882084538123</v>
+        <v>1.051079337420212</v>
       </c>
       <c r="J16">
-        <v>1.004946147228136</v>
+        <v>1.042976071075915</v>
       </c>
       <c r="K16">
-        <v>1.014290960114002</v>
+        <v>1.048746807844977</v>
       </c>
       <c r="L16">
-        <v>1.002818227931921</v>
+        <v>1.048712105592385</v>
       </c>
       <c r="M16">
-        <v>1.009340329698764</v>
+        <v>1.05540733190347</v>
       </c>
       <c r="N16">
-        <v>1.00260608260492</v>
+        <v>1.04445721672787</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9794080428261244</v>
+        <v>1.018870330901615</v>
       </c>
       <c r="D17">
-        <v>1.002684459695028</v>
+        <v>1.037746580620003</v>
       </c>
       <c r="E17">
-        <v>0.9916060697893434</v>
+        <v>1.038141516832102</v>
       </c>
       <c r="F17">
-        <v>0.9982579830680328</v>
+        <v>1.044838706895417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038280253362511</v>
+        <v>1.052266235049122</v>
       </c>
       <c r="J17">
-        <v>1.007681204086317</v>
+        <v>1.045622177765617</v>
       </c>
       <c r="K17">
-        <v>1.016645583758415</v>
+        <v>1.051123633919285</v>
       </c>
       <c r="L17">
-        <v>1.005762893311356</v>
+        <v>1.051512279187536</v>
       </c>
       <c r="M17">
-        <v>1.012296625248925</v>
+        <v>1.058103715833885</v>
       </c>
       <c r="N17">
-        <v>1.004579675606676</v>
+        <v>1.047107081192584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9814722123516435</v>
+        <v>1.020848363244172</v>
       </c>
       <c r="D18">
-        <v>1.004253578446763</v>
+        <v>1.03931954541698</v>
       </c>
       <c r="E18">
-        <v>0.9935251764338996</v>
+        <v>1.039962630025915</v>
       </c>
       <c r="F18">
-        <v>1.00018161664979</v>
+        <v>1.046596914617263</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039082900757719</v>
+        <v>1.052948732270674</v>
       </c>
       <c r="J18">
-        <v>1.0092539246338</v>
+        <v>1.047146240472243</v>
       </c>
       <c r="K18">
-        <v>1.017999291307625</v>
+        <v>1.052492415032303</v>
       </c>
       <c r="L18">
-        <v>1.007456617634141</v>
+        <v>1.053125455364595</v>
       </c>
       <c r="M18">
-        <v>1.013997215890038</v>
+        <v>1.059657039216774</v>
       </c>
       <c r="N18">
-        <v>1.005714120140768</v>
+        <v>1.048633308243066</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821712299600807</v>
+        <v>1.021518727152726</v>
       </c>
       <c r="D19">
-        <v>1.004785073220676</v>
+        <v>1.039852732554469</v>
       </c>
       <c r="E19">
-        <v>0.9941752452644148</v>
+        <v>1.040579969709237</v>
       </c>
       <c r="F19">
-        <v>1.000833250091081</v>
+        <v>1.047192935000354</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03935445149749</v>
+        <v>1.053179820215722</v>
       </c>
       <c r="J19">
-        <v>1.009786451372091</v>
+        <v>1.047662700762669</v>
       </c>
       <c r="K19">
-        <v>1.018457615131354</v>
+        <v>1.052956222458823</v>
       </c>
       <c r="L19">
-        <v>1.008030196914804</v>
+        <v>1.053672177220468</v>
       </c>
       <c r="M19">
-        <v>1.014573149742827</v>
+        <v>1.060183465675943</v>
       </c>
       <c r="N19">
-        <v>1.006098173475098</v>
+        <v>1.049150501966343</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979026038886894</v>
+        <v>1.018504518724096</v>
       </c>
       <c r="D20">
-        <v>1.002394132278455</v>
+        <v>1.037455730711476</v>
       </c>
       <c r="E20">
-        <v>0.9912509969031902</v>
+        <v>1.037804800492897</v>
       </c>
       <c r="F20">
-        <v>0.9979020876998286</v>
+        <v>1.04451362413299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038131588312311</v>
+        <v>1.052139914573638</v>
       </c>
       <c r="J20">
-        <v>1.007390119661782</v>
+        <v>1.045340297804215</v>
       </c>
       <c r="K20">
-        <v>1.016395013987246</v>
+        <v>1.050870458478386</v>
       </c>
       <c r="L20">
-        <v>1.005449451530389</v>
+        <v>1.051213947862509</v>
       </c>
       <c r="M20">
-        <v>1.011981926947988</v>
+        <v>1.057816448364221</v>
       </c>
       <c r="N20">
-        <v>1.004369674639848</v>
+        <v>1.046824800929304</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.968447014310973</v>
+        <v>1.008405677412422</v>
       </c>
       <c r="D21">
-        <v>0.9943618788741757</v>
+        <v>1.029432856440188</v>
       </c>
       <c r="E21">
-        <v>0.9814283772819138</v>
+        <v>1.028518574136228</v>
       </c>
       <c r="F21">
-        <v>0.9880585940916353</v>
+        <v>1.035548647751648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034000328096861</v>
+        <v>1.048641055880983</v>
       </c>
       <c r="J21">
-        <v>0.9993258656543457</v>
+        <v>1.037556116596618</v>
       </c>
       <c r="K21">
-        <v>1.009450860306204</v>
+        <v>1.043877275510086</v>
       </c>
       <c r="L21">
-        <v>0.9967703488134422</v>
+        <v>1.042979073225525</v>
       </c>
       <c r="M21">
-        <v>1.003269787561543</v>
+        <v>1.049886449505795</v>
       </c>
       <c r="N21">
-        <v>0.9985479086036188</v>
+        <v>1.039029565291535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.961498119063785</v>
+        <v>1.001806610795165</v>
       </c>
       <c r="D22">
-        <v>0.9890947906160282</v>
+        <v>1.024197579332701</v>
       </c>
       <c r="E22">
-        <v>0.9749875141085951</v>
+        <v>1.022460377596238</v>
       </c>
       <c r="F22">
-        <v>0.9816060310785472</v>
+        <v>1.029700578621623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031273318702392</v>
+        <v>1.046343872906183</v>
       </c>
       <c r="J22">
-        <v>0.9940264068270646</v>
+        <v>1.032467714040713</v>
       </c>
       <c r="K22">
-        <v>1.004885422173277</v>
+        <v>1.039304450044134</v>
       </c>
       <c r="L22">
-        <v>0.9910713088397733</v>
+        <v>1.037599645785471</v>
       </c>
       <c r="M22">
-        <v>0.9975509000499045</v>
+        <v>1.044705762489104</v>
       </c>
       <c r="N22">
-        <v>0.9947185622707517</v>
+        <v>1.033933936620353</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.965211890636004</v>
+        <v>1.005329940057893</v>
       </c>
       <c r="D23">
-        <v>0.9919088078301884</v>
+        <v>1.026992015326183</v>
       </c>
       <c r="E23">
-        <v>0.9784286642139339</v>
+        <v>1.025693951111505</v>
       </c>
       <c r="F23">
-        <v>0.9850532345411128</v>
+        <v>1.032821933285942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03273194866349</v>
+        <v>1.047571349562959</v>
       </c>
       <c r="J23">
-        <v>0.9968588268943274</v>
+        <v>1.035184611089597</v>
       </c>
       <c r="K23">
-        <v>1.007325702700998</v>
+        <v>1.041746186888463</v>
       </c>
       <c r="L23">
-        <v>0.9941168754533528</v>
+        <v>1.040471592813194</v>
       </c>
       <c r="M23">
-        <v>1.000606890799093</v>
+        <v>1.047471638979834</v>
       </c>
       <c r="N23">
-        <v>0.9967655591504184</v>
+        <v>1.036654691974678</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9791987398123035</v>
+        <v>1.018669889746151</v>
       </c>
       <c r="D24">
-        <v>1.002525384622823</v>
+        <v>1.037587211930181</v>
       </c>
       <c r="E24">
-        <v>0.9914115192215444</v>
+        <v>1.037957015367366</v>
       </c>
       <c r="F24">
-        <v>0.998062981263935</v>
+        <v>1.044660579865203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038198803313749</v>
+        <v>1.052197023549357</v>
       </c>
       <c r="J24">
-        <v>1.007521717731322</v>
+        <v>1.045467726866736</v>
       </c>
       <c r="K24">
-        <v>1.016508296345613</v>
+        <v>1.050984911709453</v>
       </c>
       <c r="L24">
-        <v>1.005591155794996</v>
+        <v>1.05134881290008</v>
       </c>
       <c r="M24">
-        <v>1.012124198726373</v>
+        <v>1.057946312011128</v>
       </c>
       <c r="N24">
-        <v>1.004464616511674</v>
+        <v>1.046952410955711</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942971265168956</v>
+        <v>1.03318828298292</v>
       </c>
       <c r="D25">
-        <v>1.014014125585132</v>
+        <v>1.04914210404713</v>
       </c>
       <c r="E25">
-        <v>1.005466164718994</v>
+        <v>1.05133910328935</v>
       </c>
       <c r="F25">
-        <v>1.012153851804587</v>
+        <v>1.057580772869729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044042127720855</v>
+        <v>1.057183695963518</v>
       </c>
       <c r="J25">
-        <v>1.019017951213968</v>
+        <v>1.056648121265402</v>
       </c>
       <c r="K25">
-        <v>1.026398716952977</v>
+        <v>1.06102260926596</v>
       </c>
       <c r="L25">
-        <v>1.017980214035712</v>
+        <v>1.063189491503857</v>
       </c>
       <c r="M25">
-        <v>1.024566379801512</v>
+        <v>1.069346457109592</v>
       </c>
       <c r="N25">
-        <v>1.012749402465543</v>
+        <v>1.058148682796832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044108175136227</v>
+        <v>1.004342016062055</v>
       </c>
       <c r="D2">
-        <v>1.057846415583403</v>
+        <v>1.020656776511914</v>
       </c>
       <c r="E2">
-        <v>1.061428519079757</v>
+        <v>1.02141230095509</v>
       </c>
       <c r="F2">
-        <v>1.067322014391096</v>
+        <v>1.026908166230489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060893335282507</v>
+        <v>1.04382518082298</v>
       </c>
       <c r="J2">
-        <v>1.065045155035973</v>
+        <v>1.026393629254503</v>
       </c>
       <c r="K2">
-        <v>1.068554656363725</v>
+        <v>1.031835639507913</v>
       </c>
       <c r="L2">
-        <v>1.072093591074554</v>
+        <v>1.032581175448424</v>
       </c>
       <c r="M2">
-        <v>1.077916843724505</v>
+        <v>1.038004935979729</v>
       </c>
       <c r="N2">
-        <v>1.066557641318511</v>
+        <v>1.01153885600636</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051702394889778</v>
+        <v>1.011518794948508</v>
       </c>
       <c r="D3">
-        <v>1.063905218923311</v>
+        <v>1.026047859668808</v>
       </c>
       <c r="E3">
-        <v>1.068457359999545</v>
+        <v>1.028202238333102</v>
       </c>
       <c r="F3">
-        <v>1.074107948371711</v>
+        <v>1.033907733808612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063448158966833</v>
+        <v>1.045851526461148</v>
       </c>
       <c r="J3">
-        <v>1.070876391559508</v>
+        <v>1.031700296555514</v>
       </c>
       <c r="K3">
-        <v>1.073780851998225</v>
+        <v>1.036357957729313</v>
       </c>
       <c r="L3">
-        <v>1.078283296782527</v>
+        <v>1.038486547865937</v>
       </c>
       <c r="M3">
-        <v>1.083872915009513</v>
+        <v>1.044124389846306</v>
       </c>
       <c r="N3">
-        <v>1.072397158866762</v>
+        <v>1.013418840170127</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056475319359926</v>
+        <v>1.016028384281026</v>
       </c>
       <c r="D4">
-        <v>1.067714965738039</v>
+        <v>1.029437217709167</v>
       </c>
       <c r="E4">
-        <v>1.072880060747475</v>
+        <v>1.032474745258445</v>
       </c>
       <c r="F4">
-        <v>1.078377531519149</v>
+        <v>1.038312490908089</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06504187185641</v>
+        <v>1.047112325876577</v>
       </c>
       <c r="J4">
-        <v>1.074536961876556</v>
+        <v>1.035030782872664</v>
       </c>
       <c r="K4">
-        <v>1.077059454771433</v>
+        <v>1.039192883164615</v>
       </c>
       <c r="L4">
-        <v>1.082171804595186</v>
+        <v>1.042196412083833</v>
       </c>
       <c r="M4">
-        <v>1.087613811199595</v>
+        <v>1.047969502998095</v>
       </c>
       <c r="N4">
-        <v>1.076062927613533</v>
+        <v>1.014597295175526</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058449948917807</v>
+        <v>1.01789382159758</v>
       </c>
       <c r="D5">
-        <v>1.069291459234701</v>
+        <v>1.030839587822833</v>
       </c>
       <c r="E5">
-        <v>1.07471095463077</v>
+        <v>1.034243483258309</v>
       </c>
       <c r="F5">
-        <v>1.080144956704061</v>
+        <v>1.040136062837012</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065698283074526</v>
+        <v>1.047630813660935</v>
       </c>
       <c r="J5">
-        <v>1.076050297912544</v>
+        <v>1.036407450942481</v>
       </c>
       <c r="K5">
-        <v>1.078414343929564</v>
+        <v>1.040363888508494</v>
       </c>
       <c r="L5">
-        <v>1.083780068477657</v>
+        <v>1.043730772979278</v>
       </c>
       <c r="M5">
-        <v>1.089160812659988</v>
+        <v>1.049559983247578</v>
       </c>
       <c r="N5">
-        <v>1.077578412760274</v>
+        <v>1.015084048324891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058779678049791</v>
+        <v>1.018205302658977</v>
       </c>
       <c r="D6">
-        <v>1.069554724199127</v>
+        <v>1.03107376452373</v>
       </c>
       <c r="E6">
-        <v>1.075016748485984</v>
+        <v>1.034538896848795</v>
       </c>
       <c r="F6">
-        <v>1.080440144854383</v>
+        <v>1.040440639823617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065807718442462</v>
+        <v>1.047717206661488</v>
       </c>
       <c r="J6">
-        <v>1.076302932903932</v>
+        <v>1.03663725807583</v>
       </c>
       <c r="K6">
-        <v>1.078640495890873</v>
+        <v>1.040559315265054</v>
       </c>
       <c r="L6">
-        <v>1.084048591447544</v>
+        <v>1.043986955425829</v>
       </c>
       <c r="M6">
-        <v>1.089419094277416</v>
+        <v>1.049825546271693</v>
       </c>
       <c r="N6">
-        <v>1.077831406522328</v>
+        <v>1.015165279892608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056501827487504</v>
+        <v>1.016053427564786</v>
       </c>
       <c r="D7">
-        <v>1.067736127899379</v>
+        <v>1.029456043211701</v>
       </c>
       <c r="E7">
-        <v>1.072904634826488</v>
+        <v>1.032498485017828</v>
       </c>
       <c r="F7">
-        <v>1.078401254070218</v>
+        <v>1.03833696630187</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065050695426693</v>
+        <v>1.047119298684605</v>
       </c>
       <c r="J7">
-        <v>1.074557281847047</v>
+        <v>1.035049268604562</v>
       </c>
       <c r="K7">
-        <v>1.077077649378039</v>
+        <v>1.039208610569638</v>
       </c>
       <c r="L7">
-        <v>1.082193396439646</v>
+        <v>1.042217011822528</v>
       </c>
       <c r="M7">
-        <v>1.087634581410314</v>
+        <v>1.047990855454355</v>
       </c>
       <c r="N7">
-        <v>1.076083276440713</v>
+        <v>1.014603832712412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046705049402017</v>
+        <v>1.006796342590872</v>
       </c>
       <c r="D8">
-        <v>1.059917804492665</v>
+        <v>1.022499972674988</v>
       </c>
       <c r="E8">
-        <v>1.063830936542335</v>
+        <v>1.023733028669822</v>
       </c>
       <c r="F8">
-        <v>1.069641455739974</v>
+        <v>1.029300472867716</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061769458193706</v>
+        <v>1.044520745542304</v>
       </c>
       <c r="J8">
-        <v>1.067040046590383</v>
+        <v>1.028209217631417</v>
       </c>
       <c r="K8">
-        <v>1.070343002834553</v>
+        <v>1.033383554263083</v>
       </c>
       <c r="L8">
-        <v>1.074210500882934</v>
+        <v>1.034600837980335</v>
       </c>
       <c r="M8">
-        <v>1.079954019613456</v>
+        <v>1.040097654908611</v>
       </c>
       <c r="N8">
-        <v>1.068555365847745</v>
+        <v>1.01218234972185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028269292293815</v>
+        <v>0.9893689282540771</v>
       </c>
       <c r="D9">
-        <v>1.045224693577179</v>
+        <v>1.009424922532104</v>
       </c>
       <c r="E9">
-        <v>1.046800976161149</v>
+        <v>1.007283180990406</v>
       </c>
       <c r="F9">
-        <v>1.053199213384131</v>
+        <v>1.012344612698751</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055500507809046</v>
+        <v>1.039530645645718</v>
       </c>
       <c r="J9">
-        <v>1.052861817108592</v>
+        <v>1.015302764421473</v>
       </c>
       <c r="K9">
-        <v>1.057624298699369</v>
+        <v>1.022366915532174</v>
       </c>
       <c r="L9">
-        <v>1.059177780409206</v>
+        <v>1.020259188598308</v>
       </c>
       <c r="M9">
-        <v>1.065484353823981</v>
+        <v>1.02524053256498</v>
       </c>
       <c r="N9">
-        <v>1.054357001653825</v>
+        <v>1.007602730907139</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015045202598503</v>
+        <v>0.9768642293664617</v>
       </c>
       <c r="D10">
-        <v>1.034706091238554</v>
+        <v>1.000066017758239</v>
       </c>
       <c r="E10">
-        <v>1.034621800368855</v>
+        <v>0.9955208486768383</v>
       </c>
       <c r="F10">
-        <v>1.041440642474982</v>
+        <v>1.000222053306647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050943852083801</v>
+        <v>1.035887919301603</v>
       </c>
       <c r="J10">
-        <v>1.042674353002458</v>
+        <v>1.006026822478533</v>
       </c>
       <c r="K10">
-        <v>1.048475769426129</v>
+        <v>1.01443408033635</v>
       </c>
       <c r="L10">
-        <v>1.048392872032045</v>
+        <v>1.009971449280082</v>
       </c>
       <c r="M10">
-        <v>1.055099923131958</v>
+        <v>1.014587299669509</v>
       </c>
       <c r="N10">
-        <v>1.044155070180142</v>
+        <v>1.00430579223812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009059563041445</v>
+        <v>0.9712035664227392</v>
       </c>
       <c r="D11">
-        <v>1.029951930538244</v>
+        <v>0.9958370950344221</v>
       </c>
       <c r="E11">
-        <v>1.029119293298849</v>
+        <v>0.990207379064963</v>
       </c>
       <c r="F11">
-        <v>1.036128557553215</v>
+        <v>0.9947461852530585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048868238670208</v>
+        <v>1.034225312785154</v>
       </c>
       <c r="J11">
-        <v>1.038060250594717</v>
+        <v>1.001825394861825</v>
       </c>
       <c r="K11">
-        <v>1.044330270906831</v>
+        <v>1.01083794698219</v>
       </c>
       <c r="L11">
-        <v>1.043512190712782</v>
+        <v>1.005316363298759</v>
       </c>
       <c r="M11">
-        <v>1.050399856029941</v>
+        <v>1.009767865644338</v>
       </c>
       <c r="N11">
-        <v>1.039534415217737</v>
+        <v>1.002811568099311</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.006793488988974</v>
+        <v>0.9690604560293954</v>
       </c>
       <c r="D12">
-        <v>1.02815329724227</v>
+        <v>0.9942374100388633</v>
       </c>
       <c r="E12">
-        <v>1.027037798318954</v>
+        <v>0.9881975244941802</v>
       </c>
       <c r="F12">
-        <v>1.034119186373328</v>
+        <v>0.9926749472734486</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048080575569274</v>
+        <v>1.033593920919335</v>
       </c>
       <c r="J12">
-        <v>1.036313093232662</v>
+        <v>1.000234509787754</v>
       </c>
       <c r="K12">
-        <v>1.042760295649121</v>
+        <v>1.009475851234949</v>
       </c>
       <c r="L12">
-        <v>1.041664703718465</v>
+        <v>1.003554389164479</v>
       </c>
       <c r="M12">
-        <v>1.04862066337677</v>
+        <v>1.007943842269176</v>
       </c>
       <c r="N12">
-        <v>1.037784776691825</v>
+        <v>1.002245674709982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007281569342951</v>
+        <v>0.9695220542879002</v>
       </c>
       <c r="D13">
-        <v>1.028540639141835</v>
+        <v>0.9945818958184889</v>
       </c>
       <c r="E13">
-        <v>1.027486044990528</v>
+        <v>0.9886303371626333</v>
       </c>
       <c r="F13">
-        <v>1.034551896662375</v>
+        <v>0.9931209766211152</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048250309511937</v>
+        <v>1.033729999950557</v>
       </c>
       <c r="J13">
-        <v>1.036689419039211</v>
+        <v>1.000577174500525</v>
       </c>
       <c r="K13">
-        <v>1.043098468651577</v>
+        <v>1.009769253964665</v>
       </c>
       <c r="L13">
-        <v>1.042062612069563</v>
+        <v>1.00393387409632</v>
       </c>
       <c r="M13">
-        <v>1.049003865604678</v>
+        <v>1.008336683909201</v>
       </c>
       <c r="N13">
-        <v>1.038161636924185</v>
+        <v>1.00236756779718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00887314401207</v>
+        <v>0.9710272642124673</v>
       </c>
       <c r="D14">
-        <v>1.029803939711937</v>
+        <v>0.9957054683580239</v>
       </c>
       <c r="E14">
-        <v>1.028948023909477</v>
+        <v>0.9900420015714535</v>
       </c>
       <c r="F14">
-        <v>1.035963220615511</v>
+        <v>0.994575756047088</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048803478613515</v>
+        <v>1.034173410098012</v>
       </c>
       <c r="J14">
-        <v>1.037916526274459</v>
+        <v>1.001694525343982</v>
       </c>
       <c r="K14">
-        <v>1.04420112691173</v>
+        <v>1.010725906102793</v>
       </c>
       <c r="L14">
-        <v>1.043360200631362</v>
+        <v>1.005171405668486</v>
       </c>
       <c r="M14">
-        <v>1.050253485798268</v>
+        <v>1.009617800018594</v>
       </c>
       <c r="N14">
-        <v>1.039390486792458</v>
+        <v>1.002765018339338</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009847981502203</v>
+        <v>0.9719491954467984</v>
       </c>
       <c r="D15">
-        <v>1.030577876112371</v>
+        <v>0.9963938364525304</v>
       </c>
       <c r="E15">
-        <v>1.029843708529689</v>
+        <v>0.9909068789289107</v>
       </c>
       <c r="F15">
-        <v>1.036827884276029</v>
+        <v>0.995467054222566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049142051944945</v>
+        <v>1.034444745174861</v>
       </c>
       <c r="J15">
-        <v>1.038668088561804</v>
+        <v>1.002378868036363</v>
       </c>
       <c r="K15">
-        <v>1.044876435611369</v>
+        <v>1.011311773864133</v>
       </c>
       <c r="L15">
-        <v>1.044155011109547</v>
+        <v>1.005929445920134</v>
       </c>
       <c r="M15">
-        <v>1.051018905201448</v>
+        <v>1.010402558387975</v>
       </c>
       <c r="N15">
-        <v>1.040143116384457</v>
+        <v>1.003008432431096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01543667279649</v>
+        <v>0.9772344346145481</v>
       </c>
       <c r="D16">
-        <v>1.035017178517122</v>
+        <v>1.000342764605017</v>
       </c>
       <c r="E16">
-        <v>1.034981895151739</v>
+        <v>0.9958685891395425</v>
       </c>
       <c r="F16">
-        <v>1.04178828638819</v>
+        <v>1.000580428388003</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051079337420212</v>
+        <v>1.035996380625923</v>
       </c>
       <c r="J16">
-        <v>1.042976071075915</v>
+        <v>1.006301554971211</v>
       </c>
       <c r="K16">
-        <v>1.048746807844977</v>
+        <v>1.014669173531383</v>
       </c>
       <c r="L16">
-        <v>1.048712105592385</v>
+        <v>1.010275941895826</v>
       </c>
       <c r="M16">
-        <v>1.05540733190347</v>
+        <v>1.014902563967855</v>
       </c>
       <c r="N16">
-        <v>1.04445721672787</v>
+        <v>1.004403484085402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018870330901615</v>
+        <v>0.9804815043821425</v>
       </c>
       <c r="D17">
-        <v>1.037746580620003</v>
+        <v>1.002771002464278</v>
       </c>
       <c r="E17">
-        <v>1.038141516832102</v>
+        <v>0.9989198914713272</v>
       </c>
       <c r="F17">
-        <v>1.044838706895417</v>
+        <v>1.003725082477188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052266235049122</v>
+        <v>1.036946171898663</v>
       </c>
       <c r="J17">
-        <v>1.045622177765617</v>
+        <v>1.008710979149638</v>
       </c>
       <c r="K17">
-        <v>1.051123633919285</v>
+        <v>1.016730619788912</v>
       </c>
       <c r="L17">
-        <v>1.051512279187536</v>
+        <v>1.012946885443697</v>
       </c>
       <c r="M17">
-        <v>1.058103715833885</v>
+        <v>1.017668111236968</v>
       </c>
       <c r="N17">
-        <v>1.047107081192584</v>
+        <v>1.005260149760169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020848363244172</v>
+        <v>0.9823519860882456</v>
       </c>
       <c r="D18">
-        <v>1.03931954541698</v>
+        <v>1.004170501738871</v>
       </c>
       <c r="E18">
-        <v>1.039962630025915</v>
+        <v>1.000678637481247</v>
       </c>
       <c r="F18">
-        <v>1.046596914617263</v>
+        <v>1.005537666956652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052948732270674</v>
+        <v>1.037492015427864</v>
       </c>
       <c r="J18">
-        <v>1.047146240472243</v>
+        <v>1.010098702534324</v>
       </c>
       <c r="K18">
-        <v>1.052492415032303</v>
+        <v>1.017917633114441</v>
       </c>
       <c r="L18">
-        <v>1.053125455364595</v>
+        <v>1.014485667031353</v>
       </c>
       <c r="M18">
-        <v>1.059657039216774</v>
+        <v>1.01926149281021</v>
       </c>
       <c r="N18">
-        <v>1.048633308243066</v>
+        <v>1.005753463400111</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021518727152726</v>
+        <v>0.9829858892398975</v>
       </c>
       <c r="D19">
-        <v>1.039852732554469</v>
+        <v>1.0046449036931</v>
       </c>
       <c r="E19">
-        <v>1.040579969709237</v>
+        <v>1.00127484564046</v>
       </c>
       <c r="F19">
-        <v>1.047192935000354</v>
+        <v>1.006152131584824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053179820215722</v>
+        <v>1.03767677969269</v>
       </c>
       <c r="J19">
-        <v>1.047662700762669</v>
+        <v>1.010568957248185</v>
       </c>
       <c r="K19">
-        <v>1.052956222458823</v>
+        <v>1.018319823054367</v>
       </c>
       <c r="L19">
-        <v>1.053672177220468</v>
+        <v>1.015007184322444</v>
       </c>
       <c r="M19">
-        <v>1.060183465675943</v>
+        <v>1.019801531291207</v>
       </c>
       <c r="N19">
-        <v>1.049150501966343</v>
+        <v>1.005920615429454</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018504518724096</v>
+        <v>0.9801355770941647</v>
       </c>
       <c r="D20">
-        <v>1.037455730711476</v>
+        <v>1.002512234621176</v>
       </c>
       <c r="E20">
-        <v>1.037804800492897</v>
+        <v>0.998594711663234</v>
       </c>
       <c r="F20">
-        <v>1.04451362413299</v>
+        <v>1.003389950877192</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052139914573638</v>
+        <v>1.03684511857062</v>
       </c>
       <c r="J20">
-        <v>1.045340297804215</v>
+        <v>1.008454313799589</v>
       </c>
       <c r="K20">
-        <v>1.050870458478386</v>
+        <v>1.016511052786202</v>
       </c>
       <c r="L20">
-        <v>1.051213947862509</v>
+        <v>1.012662316462663</v>
       </c>
       <c r="M20">
-        <v>1.057816448364221</v>
+        <v>1.017373452848194</v>
       </c>
       <c r="N20">
-        <v>1.046824800929304</v>
+        <v>1.005168901880378</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008405677412422</v>
+        <v>0.9705851656887204</v>
       </c>
       <c r="D21">
-        <v>1.029432856440188</v>
+        <v>0.9953754218387846</v>
       </c>
       <c r="E21">
-        <v>1.028518574136228</v>
+        <v>0.9896273276431066</v>
       </c>
       <c r="F21">
-        <v>1.035548647751648</v>
+        <v>0.9941484159646027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048641055880983</v>
+        <v>1.034043227307073</v>
       </c>
       <c r="J21">
-        <v>1.037556116596618</v>
+        <v>1.001366351257247</v>
       </c>
       <c r="K21">
-        <v>1.043877275510086</v>
+        <v>1.010444941157865</v>
       </c>
       <c r="L21">
-        <v>1.042979073225525</v>
+        <v>1.004807914702296</v>
       </c>
       <c r="M21">
-        <v>1.049886449505795</v>
+        <v>1.009241502949357</v>
       </c>
       <c r="N21">
-        <v>1.039029565291535</v>
+        <v>1.002648286659361</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001806610795165</v>
+        <v>0.9643440915749169</v>
       </c>
       <c r="D22">
-        <v>1.024197579332701</v>
+        <v>0.9907197614309774</v>
       </c>
       <c r="E22">
-        <v>1.022460377596238</v>
+        <v>0.983777921075266</v>
       </c>
       <c r="F22">
-        <v>1.029700578621623</v>
+        <v>0.9881204411072634</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046343872906183</v>
+        <v>1.032200974378858</v>
       </c>
       <c r="J22">
-        <v>1.032467714040713</v>
+        <v>0.996733139576899</v>
       </c>
       <c r="K22">
-        <v>1.039304450044134</v>
+        <v>1.006477330955017</v>
       </c>
       <c r="L22">
-        <v>1.037599645785471</v>
+        <v>0.9996777388910124</v>
       </c>
       <c r="M22">
-        <v>1.044705762489104</v>
+        <v>1.003930965774434</v>
       </c>
       <c r="N22">
-        <v>1.033933936620353</v>
+        <v>1.001000062005982</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005329940057893</v>
+        <v>0.9676763084062715</v>
       </c>
       <c r="D23">
-        <v>1.026992015326183</v>
+        <v>0.9932046549016068</v>
       </c>
       <c r="E23">
-        <v>1.025693951111505</v>
+        <v>0.986899969893796</v>
       </c>
       <c r="F23">
-        <v>1.032821933285942</v>
+        <v>0.9913377758136783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047571349562959</v>
+        <v>1.033185600234214</v>
       </c>
       <c r="J23">
-        <v>1.035184611089597</v>
+        <v>0.9992069712279568</v>
       </c>
       <c r="K23">
-        <v>1.041746186888463</v>
+        <v>1.008595977582594</v>
       </c>
       <c r="L23">
-        <v>1.040471592813194</v>
+        <v>1.002416539753746</v>
       </c>
       <c r="M23">
-        <v>1.047471638979834</v>
+        <v>1.006765967287226</v>
       </c>
       <c r="N23">
-        <v>1.036654691974678</v>
+        <v>1.001880145844875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018669889746151</v>
+        <v>0.9802919590420303</v>
       </c>
       <c r="D24">
-        <v>1.037587211930181</v>
+        <v>1.002629212569943</v>
       </c>
       <c r="E24">
-        <v>1.037957015367366</v>
+        <v>0.9987417111718008</v>
       </c>
       <c r="F24">
-        <v>1.044660579865203</v>
+        <v>1.003541449056313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052197023549357</v>
+        <v>1.036890805341871</v>
       </c>
       <c r="J24">
-        <v>1.045467726866736</v>
+        <v>1.008570344190233</v>
       </c>
       <c r="K24">
-        <v>1.050984911709453</v>
+        <v>1.01661031307686</v>
       </c>
       <c r="L24">
-        <v>1.05134881290008</v>
+        <v>1.012790959863604</v>
       </c>
       <c r="M24">
-        <v>1.057946312011128</v>
+        <v>1.017506657006384</v>
       </c>
       <c r="N24">
-        <v>1.046952410955711</v>
+        <v>1.005210152475334</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03318828298292</v>
+        <v>0.994019620426471</v>
       </c>
       <c r="D25">
-        <v>1.04914210404713</v>
+        <v>1.01291092970848</v>
       </c>
       <c r="E25">
-        <v>1.05133910328935</v>
+        <v>1.011666454240324</v>
       </c>
       <c r="F25">
-        <v>1.057580772869729</v>
+        <v>1.016862432994414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057183695963518</v>
+        <v>1.040873234738573</v>
       </c>
       <c r="J25">
-        <v>1.056648121265402</v>
+        <v>1.018749938086047</v>
       </c>
       <c r="K25">
-        <v>1.06102260926596</v>
+        <v>1.025312072539017</v>
       </c>
       <c r="L25">
-        <v>1.063189491503857</v>
+        <v>1.024086323350372</v>
       </c>
       <c r="M25">
-        <v>1.069346457109592</v>
+        <v>1.029204501803746</v>
       </c>
       <c r="N25">
-        <v>1.058148682796832</v>
+        <v>1.008826961196879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004342016062055</v>
+        <v>1.050322759995683</v>
       </c>
       <c r="D2">
-        <v>1.020656776511914</v>
+        <v>1.049411262395481</v>
       </c>
       <c r="E2">
-        <v>1.02141230095509</v>
+        <v>1.063582166126474</v>
       </c>
       <c r="F2">
-        <v>1.026908166230489</v>
+        <v>1.070183829371126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04382518082298</v>
+        <v>1.03941775864605</v>
       </c>
       <c r="J2">
-        <v>1.026393629254503</v>
+        <v>1.055356524378297</v>
       </c>
       <c r="K2">
-        <v>1.031835639507913</v>
+        <v>1.052168395498476</v>
       </c>
       <c r="L2">
-        <v>1.032581175448424</v>
+        <v>1.066300415962667</v>
       </c>
       <c r="M2">
-        <v>1.038004935979729</v>
+        <v>1.072884345364755</v>
       </c>
       <c r="N2">
-        <v>1.01153885600636</v>
+        <v>1.022102396198667</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011518794948508</v>
+        <v>1.05176301652193</v>
       </c>
       <c r="D3">
-        <v>1.026047859668808</v>
+        <v>1.050497871104509</v>
       </c>
       <c r="E3">
-        <v>1.028202238333102</v>
+        <v>1.065001567912547</v>
       </c>
       <c r="F3">
-        <v>1.033907733808612</v>
+        <v>1.071651138091094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045851526461148</v>
+        <v>1.039739019837312</v>
       </c>
       <c r="J3">
-        <v>1.031700296555514</v>
+        <v>1.056444019774661</v>
       </c>
       <c r="K3">
-        <v>1.036357957729313</v>
+        <v>1.053066536422366</v>
       </c>
       <c r="L3">
-        <v>1.038486547865937</v>
+        <v>1.06753334085137</v>
       </c>
       <c r="M3">
-        <v>1.044124389846306</v>
+        <v>1.074166356283882</v>
       </c>
       <c r="N3">
-        <v>1.013418840170127</v>
+        <v>1.022478027086057</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016028384281026</v>
+        <v>1.052693844550915</v>
       </c>
       <c r="D4">
-        <v>1.029437217709167</v>
+        <v>1.051199771170514</v>
       </c>
       <c r="E4">
-        <v>1.032474745258445</v>
+        <v>1.065919256169349</v>
       </c>
       <c r="F4">
-        <v>1.038312490908089</v>
+        <v>1.072599851997329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047112325876577</v>
+        <v>1.039945024042573</v>
       </c>
       <c r="J4">
-        <v>1.035030782872664</v>
+        <v>1.057146162242889</v>
       </c>
       <c r="K4">
-        <v>1.039192883164615</v>
+        <v>1.053645895310644</v>
       </c>
       <c r="L4">
-        <v>1.042196412083833</v>
+        <v>1.068329840609129</v>
       </c>
       <c r="M4">
-        <v>1.047969502998095</v>
+        <v>1.074994651775184</v>
       </c>
       <c r="N4">
-        <v>1.014597295175526</v>
+        <v>1.022720220084916</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01789382159758</v>
+        <v>1.053084904096581</v>
       </c>
       <c r="D5">
-        <v>1.030839587822833</v>
+        <v>1.051494564410726</v>
       </c>
       <c r="E5">
-        <v>1.034243483258309</v>
+        <v>1.066304875915054</v>
       </c>
       <c r="F5">
-        <v>1.040136062837012</v>
+        <v>1.072998521525962</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047630813660935</v>
+        <v>1.040031181231499</v>
       </c>
       <c r="J5">
-        <v>1.036407450942481</v>
+        <v>1.057440978775224</v>
       </c>
       <c r="K5">
-        <v>1.040363888508494</v>
+        <v>1.053889030822444</v>
       </c>
       <c r="L5">
-        <v>1.043730772979278</v>
+        <v>1.06866438639577</v>
       </c>
       <c r="M5">
-        <v>1.049559983247578</v>
+        <v>1.07534257275961</v>
       </c>
       <c r="N5">
-        <v>1.015084048324891</v>
+        <v>1.022821832257814</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018205302658977</v>
+        <v>1.053150549615361</v>
       </c>
       <c r="D6">
-        <v>1.03107376452373</v>
+        <v>1.051544044856895</v>
       </c>
       <c r="E6">
-        <v>1.034538896848795</v>
+        <v>1.066369612981181</v>
       </c>
       <c r="F6">
-        <v>1.040440639823617</v>
+        <v>1.073065450101396</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047717206661488</v>
+        <v>1.040045621234542</v>
       </c>
       <c r="J6">
-        <v>1.03663725807583</v>
+        <v>1.057490458542933</v>
       </c>
       <c r="K6">
-        <v>1.040559315265054</v>
+        <v>1.053929829410448</v>
       </c>
       <c r="L6">
-        <v>1.043986955425829</v>
+        <v>1.068720540497408</v>
       </c>
       <c r="M6">
-        <v>1.049825546271693</v>
+        <v>1.075400973106131</v>
       </c>
       <c r="N6">
-        <v>1.015165279892608</v>
+        <v>1.022838881362934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016053427564786</v>
+        <v>1.052699070923833</v>
       </c>
       <c r="D7">
-        <v>1.029456043211701</v>
+        <v>1.051203711329584</v>
       </c>
       <c r="E7">
-        <v>1.032498485017828</v>
+        <v>1.065924409525621</v>
       </c>
       <c r="F7">
-        <v>1.03833696630187</v>
+        <v>1.072605179699235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047119298684605</v>
+        <v>1.039946177033638</v>
       </c>
       <c r="J7">
-        <v>1.035049268604562</v>
+        <v>1.057150103021205</v>
       </c>
       <c r="K7">
-        <v>1.039208610569638</v>
+        <v>1.053649145772532</v>
       </c>
       <c r="L7">
-        <v>1.042217011822528</v>
+        <v>1.068334312009633</v>
       </c>
       <c r="M7">
-        <v>1.047990855454355</v>
+        <v>1.074999301863008</v>
       </c>
       <c r="N7">
-        <v>1.014603832712412</v>
+        <v>1.022721578638533</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006796342590872</v>
+        <v>1.050809735882487</v>
       </c>
       <c r="D8">
-        <v>1.022499972674988</v>
+        <v>1.049778739374728</v>
       </c>
       <c r="E8">
-        <v>1.023733028669822</v>
+        <v>1.064062020179339</v>
       </c>
       <c r="F8">
-        <v>1.029300472867716</v>
+        <v>1.070679868407583</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044520745542304</v>
+        <v>1.039526719139045</v>
       </c>
       <c r="J8">
-        <v>1.028209217631417</v>
+        <v>1.055724370052312</v>
       </c>
       <c r="K8">
-        <v>1.033383554263083</v>
+        <v>1.052472300939046</v>
       </c>
       <c r="L8">
-        <v>1.034600837980335</v>
+        <v>1.066717357768817</v>
       </c>
       <c r="M8">
-        <v>1.040097654908611</v>
+        <v>1.073317869138118</v>
       </c>
       <c r="N8">
-        <v>1.01218234972185</v>
+        <v>1.022229522422784</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9893689282540771</v>
+        <v>1.047471674065325</v>
       </c>
       <c r="D9">
-        <v>1.009424922532104</v>
+        <v>1.0472583325996</v>
       </c>
       <c r="E9">
-        <v>1.007283180990406</v>
+        <v>1.060774189349334</v>
       </c>
       <c r="F9">
-        <v>1.012344612698751</v>
+        <v>1.067281355515391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039530645645718</v>
+        <v>1.038773166764646</v>
       </c>
       <c r="J9">
-        <v>1.015302764421473</v>
+        <v>1.053200052899261</v>
       </c>
       <c r="K9">
-        <v>1.022366915532174</v>
+        <v>1.050384616394462</v>
       </c>
       <c r="L9">
-        <v>1.020259188598308</v>
+        <v>1.063858013445727</v>
       </c>
       <c r="M9">
-        <v>1.02524053256498</v>
+        <v>1.070345156113667</v>
       </c>
       <c r="N9">
-        <v>1.007602730907139</v>
+        <v>1.021355766580713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9768642293664617</v>
+        <v>1.045239983890099</v>
       </c>
       <c r="D10">
-        <v>1.000066017758239</v>
+        <v>1.045571486368116</v>
       </c>
       <c r="E10">
-        <v>0.9955208486768383</v>
+        <v>1.058577880917069</v>
       </c>
       <c r="F10">
-        <v>1.000222053306647</v>
+        <v>1.065011376165843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035887919301603</v>
+        <v>1.038261012456692</v>
       </c>
       <c r="J10">
-        <v>1.006026822478533</v>
+        <v>1.051508828420443</v>
       </c>
       <c r="K10">
-        <v>1.01443408033635</v>
+        <v>1.048983232135064</v>
       </c>
       <c r="L10">
-        <v>1.009971449280082</v>
+        <v>1.061944704540719</v>
       </c>
       <c r="M10">
-        <v>1.014587299669509</v>
+        <v>1.068356425141417</v>
       </c>
       <c r="N10">
-        <v>1.00430579223812</v>
+        <v>1.020768675971242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9712035664227392</v>
+        <v>1.044272051897722</v>
       </c>
       <c r="D11">
-        <v>0.9958370950344221</v>
+        <v>1.044839449921481</v>
       </c>
       <c r="E11">
-        <v>0.990207379064963</v>
+        <v>1.057625729078412</v>
       </c>
       <c r="F11">
-        <v>0.9947461852530585</v>
+        <v>1.06402734876061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034225312785154</v>
+        <v>1.03803690134257</v>
       </c>
       <c r="J11">
-        <v>1.001825394861825</v>
+        <v>1.050774466397818</v>
       </c>
       <c r="K11">
-        <v>1.01083794698219</v>
+        <v>1.048374090544281</v>
       </c>
       <c r="L11">
-        <v>1.005316363298759</v>
+        <v>1.061114471332078</v>
       </c>
       <c r="M11">
-        <v>1.009767865644338</v>
+        <v>1.067493568045802</v>
       </c>
       <c r="N11">
-        <v>1.002811568099311</v>
+        <v>1.020513351260738</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9690604560293954</v>
+        <v>1.043912271545931</v>
       </c>
       <c r="D12">
-        <v>0.9942374100388633</v>
+        <v>1.044567290731848</v>
       </c>
       <c r="E12">
-        <v>0.9881975244941802</v>
+        <v>1.05727188010039</v>
       </c>
       <c r="F12">
-        <v>0.9926749472734486</v>
+        <v>1.063661663186908</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033593920919335</v>
+        <v>1.037953302281098</v>
       </c>
       <c r="J12">
-        <v>1.000234509787754</v>
+        <v>1.050501377999173</v>
       </c>
       <c r="K12">
-        <v>1.009475851234949</v>
+        <v>1.048147473247338</v>
       </c>
       <c r="L12">
-        <v>1.003554389164479</v>
+        <v>1.060805815524362</v>
       </c>
       <c r="M12">
-        <v>1.007943842269176</v>
+        <v>1.067172799216022</v>
       </c>
       <c r="N12">
-        <v>1.002245674709982</v>
+        <v>1.020418343664389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9695220542879002</v>
+        <v>1.043989456966979</v>
       </c>
       <c r="D13">
-        <v>0.9945818958184889</v>
+        <v>1.044625681112624</v>
       </c>
       <c r="E13">
-        <v>0.9886303371626333</v>
+        <v>1.057347790043525</v>
       </c>
       <c r="F13">
-        <v>0.9931209766211152</v>
+        <v>1.063740111969935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033729999950557</v>
+        <v>1.037971250623497</v>
       </c>
       <c r="J13">
-        <v>1.000577174500525</v>
+        <v>1.050559970670487</v>
       </c>
       <c r="K13">
-        <v>1.009769253964665</v>
+        <v>1.048196099563173</v>
       </c>
       <c r="L13">
-        <v>1.00393387409632</v>
+        <v>1.060872035570203</v>
       </c>
       <c r="M13">
-        <v>1.008336683909201</v>
+        <v>1.067241617326134</v>
       </c>
       <c r="N13">
-        <v>1.00236756779718</v>
+        <v>1.020438730775861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9710272642124673</v>
+        <v>1.044242317430961</v>
       </c>
       <c r="D14">
-        <v>0.9957054683580239</v>
+        <v>1.044816958249923</v>
       </c>
       <c r="E14">
-        <v>0.9900420015714535</v>
+        <v>1.057596483469432</v>
       </c>
       <c r="F14">
-        <v>0.994575756047088</v>
+        <v>1.06399712466691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034173410098012</v>
+        <v>1.038029998255098</v>
       </c>
       <c r="J14">
-        <v>1.001694525343982</v>
+        <v>1.050751899256163</v>
       </c>
       <c r="K14">
-        <v>1.010725906102793</v>
+        <v>1.04835536555555</v>
       </c>
       <c r="L14">
-        <v>1.005171405668486</v>
+        <v>1.061088963294929</v>
       </c>
       <c r="M14">
-        <v>1.009617800018594</v>
+        <v>1.067467058642935</v>
       </c>
       <c r="N14">
-        <v>1.002765018339338</v>
+        <v>1.020505501353517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9719491954467984</v>
+        <v>1.044398080108169</v>
       </c>
       <c r="D15">
-        <v>0.9963938364525304</v>
+        <v>1.044934777368</v>
       </c>
       <c r="E15">
-        <v>0.9909068789289107</v>
+        <v>1.057749687988349</v>
       </c>
       <c r="F15">
-        <v>0.995467054222566</v>
+        <v>1.064155455407204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034444745174861</v>
+        <v>1.03806614761528</v>
       </c>
       <c r="J15">
-        <v>1.002378868036363</v>
+        <v>1.050870111064197</v>
       </c>
       <c r="K15">
-        <v>1.011311773864133</v>
+        <v>1.048453447415707</v>
       </c>
       <c r="L15">
-        <v>1.005929445920134</v>
+        <v>1.061222583633599</v>
       </c>
       <c r="M15">
-        <v>1.010402558387975</v>
+        <v>1.067605925134917</v>
       </c>
       <c r="N15">
-        <v>1.003008432431096</v>
+        <v>1.020546618511586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9772344346145481</v>
+        <v>1.045304188085801</v>
       </c>
       <c r="D16">
-        <v>1.000342764605017</v>
+        <v>1.045620034662176</v>
       </c>
       <c r="E16">
-        <v>0.9958685891395425</v>
+        <v>1.05864104759377</v>
       </c>
       <c r="F16">
-        <v>1.000580428388003</v>
+        <v>1.065076658811328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035996380625923</v>
+        <v>1.038275836405164</v>
       </c>
       <c r="J16">
-        <v>1.006301554971211</v>
+        <v>1.051557521930782</v>
       </c>
       <c r="K16">
-        <v>1.014669173531383</v>
+        <v>1.049023609321273</v>
       </c>
       <c r="L16">
-        <v>1.010275941895826</v>
+        <v>1.061999766826458</v>
       </c>
       <c r="M16">
-        <v>1.014902563967855</v>
+        <v>1.068413653272309</v>
       </c>
       <c r="N16">
-        <v>1.004403484085402</v>
+        <v>1.020785597481092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9804815043821425</v>
+        <v>1.045872133178482</v>
       </c>
       <c r="D17">
-        <v>1.002771002464278</v>
+        <v>1.04604944116474</v>
       </c>
       <c r="E17">
-        <v>0.9989198914713272</v>
+        <v>1.059199865088992</v>
       </c>
       <c r="F17">
-        <v>1.003725082477188</v>
+        <v>1.065654202889008</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036946171898663</v>
+        <v>1.038406739492509</v>
       </c>
       <c r="J17">
-        <v>1.008710979149638</v>
+        <v>1.051988163674292</v>
       </c>
       <c r="K17">
-        <v>1.016730619788912</v>
+        <v>1.049380629064092</v>
       </c>
       <c r="L17">
-        <v>1.012946885443697</v>
+        <v>1.062486798372541</v>
       </c>
       <c r="M17">
-        <v>1.017668111236968</v>
+        <v>1.068919853900213</v>
       </c>
       <c r="N17">
-        <v>1.005260149760169</v>
+        <v>1.020935204086383</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9823519860882456</v>
+        <v>1.046203252525181</v>
       </c>
       <c r="D18">
-        <v>1.004170501738871</v>
+        <v>1.04629975064242</v>
       </c>
       <c r="E18">
-        <v>1.000678637481247</v>
+        <v>1.059525704750975</v>
       </c>
       <c r="F18">
-        <v>1.005537666956652</v>
+        <v>1.065990967824232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037492015427864</v>
+        <v>1.03848286692864</v>
       </c>
       <c r="J18">
-        <v>1.010098702534324</v>
+        <v>1.052239152236214</v>
       </c>
       <c r="K18">
-        <v>1.017917633114441</v>
+        <v>1.049588647848624</v>
       </c>
       <c r="L18">
-        <v>1.014485667031353</v>
+        <v>1.062770706445907</v>
       </c>
       <c r="M18">
-        <v>1.01926149281021</v>
+        <v>1.069214946305501</v>
       </c>
       <c r="N18">
-        <v>1.005753463400111</v>
+        <v>1.021022360052063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9829858892398975</v>
+        <v>1.046316129872769</v>
       </c>
       <c r="D19">
-        <v>1.0046449036931</v>
+        <v>1.046385073375948</v>
       </c>
       <c r="E19">
-        <v>1.00127484564046</v>
+        <v>1.059636789348352</v>
       </c>
       <c r="F19">
-        <v>1.006152131584824</v>
+        <v>1.066105778068075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03767677969269</v>
+        <v>1.038508786120806</v>
       </c>
       <c r="J19">
-        <v>1.010568957248185</v>
+        <v>1.052324699520705</v>
       </c>
       <c r="K19">
-        <v>1.018319823054367</v>
+        <v>1.049659538884947</v>
       </c>
       <c r="L19">
-        <v>1.015007184322444</v>
+        <v>1.062867483249567</v>
       </c>
       <c r="M19">
-        <v>1.019801531291207</v>
+        <v>1.069315537248938</v>
       </c>
       <c r="N19">
-        <v>1.005920615429454</v>
+        <v>1.021052059882227</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9801355770941647</v>
+        <v>1.04581121396894</v>
       </c>
       <c r="D20">
-        <v>1.002512234621176</v>
+        <v>1.046003386088382</v>
       </c>
       <c r="E20">
-        <v>0.998594711663234</v>
+        <v>1.059139920597034</v>
       </c>
       <c r="F20">
-        <v>1.003389950877192</v>
+        <v>1.065592248968263</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03684511857062</v>
+        <v>1.03839271823268</v>
       </c>
       <c r="J20">
-        <v>1.008454313799589</v>
+        <v>1.051941980357514</v>
       </c>
       <c r="K20">
-        <v>1.016511052786202</v>
+        <v>1.049342347508283</v>
       </c>
       <c r="L20">
-        <v>1.012662316462663</v>
+        <v>1.062434562041261</v>
       </c>
       <c r="M20">
-        <v>1.017373452848194</v>
+        <v>1.068865560564951</v>
       </c>
       <c r="N20">
-        <v>1.005168901880378</v>
+        <v>1.020919163797635</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9705851656887204</v>
+        <v>1.044167863215177</v>
       </c>
       <c r="D21">
-        <v>0.9953754218387846</v>
+        <v>1.044760638791857</v>
       </c>
       <c r="E21">
-        <v>0.9896273276431066</v>
+        <v>1.057523254405315</v>
       </c>
       <c r="F21">
-        <v>0.9941484159646027</v>
+        <v>1.063921445692812</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034043227307073</v>
+        <v>1.038012708335383</v>
       </c>
       <c r="J21">
-        <v>1.001366351257247</v>
+        <v>1.050695389774364</v>
       </c>
       <c r="K21">
-        <v>1.010444941157865</v>
+        <v>1.048308475526011</v>
       </c>
       <c r="L21">
-        <v>1.004807914702296</v>
+        <v>1.061025090995868</v>
       </c>
       <c r="M21">
-        <v>1.009241502949357</v>
+        <v>1.067400679168557</v>
       </c>
       <c r="N21">
-        <v>1.002648286659361</v>
+        <v>1.020485843751967</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9643440915749169</v>
+        <v>1.04313318868702</v>
       </c>
       <c r="D22">
-        <v>0.9907197614309774</v>
+        <v>1.043977835515686</v>
       </c>
       <c r="E22">
-        <v>0.983777921075266</v>
+        <v>1.056505762500771</v>
       </c>
       <c r="F22">
-        <v>0.9881204411072634</v>
+        <v>1.062869935248321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032200974378858</v>
+        <v>1.037771730690113</v>
       </c>
       <c r="J22">
-        <v>0.996733139576899</v>
+        <v>1.049909791357848</v>
       </c>
       <c r="K22">
-        <v>1.006477330955017</v>
+        <v>1.047656383077555</v>
       </c>
       <c r="L22">
-        <v>0.9996777388910124</v>
+        <v>1.060137334083248</v>
       </c>
       <c r="M22">
-        <v>1.003930965774434</v>
+        <v>1.066478112052382</v>
       </c>
       <c r="N22">
-        <v>1.001000062005982</v>
+        <v>1.020212421706706</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9676763084062715</v>
+        <v>1.043681827778527</v>
       </c>
       <c r="D23">
-        <v>0.9932046549016068</v>
+        <v>1.044392952308979</v>
       </c>
       <c r="E23">
-        <v>0.986899969893796</v>
+        <v>1.057045254080017</v>
       </c>
       <c r="F23">
-        <v>0.9913377758136783</v>
+        <v>1.063427458929436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033185600234214</v>
+        <v>1.037899672491702</v>
       </c>
       <c r="J23">
-        <v>0.9992069712279568</v>
+        <v>1.050326426079573</v>
       </c>
       <c r="K23">
-        <v>1.008595977582594</v>
+        <v>1.048002266023287</v>
       </c>
       <c r="L23">
-        <v>1.002416539753746</v>
+        <v>1.060608101366344</v>
       </c>
       <c r="M23">
-        <v>1.006765967287226</v>
+        <v>1.066967330257182</v>
       </c>
       <c r="N23">
-        <v>1.001880145844875</v>
+        <v>1.020357461066543</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9802919590420303</v>
+        <v>1.045838741211841</v>
       </c>
       <c r="D24">
-        <v>1.002629212569943</v>
+        <v>1.046024196877535</v>
       </c>
       <c r="E24">
-        <v>0.9987417111718008</v>
+        <v>1.059167007270205</v>
       </c>
       <c r="F24">
-        <v>1.003541449056313</v>
+        <v>1.065620243608477</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036890805341871</v>
+        <v>1.038399054535277</v>
       </c>
       <c r="J24">
-        <v>1.008570344190233</v>
+        <v>1.051962849220903</v>
       </c>
       <c r="K24">
-        <v>1.01661031307686</v>
+        <v>1.049359645990387</v>
       </c>
       <c r="L24">
-        <v>1.012790959863604</v>
+        <v>1.062458165913957</v>
       </c>
       <c r="M24">
-        <v>1.017506657006384</v>
+        <v>1.068890093898921</v>
       </c>
       <c r="N24">
-        <v>1.005210152475334</v>
+        <v>1.020926412044527</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.994019620426471</v>
+        <v>1.048335727432832</v>
       </c>
       <c r="D25">
-        <v>1.01291092970848</v>
+        <v>1.047911059444123</v>
       </c>
       <c r="E25">
-        <v>1.011666454240324</v>
+        <v>1.061624926279094</v>
       </c>
       <c r="F25">
-        <v>1.016862432994414</v>
+        <v>1.068160684766334</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040873234738573</v>
+        <v>1.038969695970889</v>
       </c>
       <c r="J25">
-        <v>1.018749938086047</v>
+        <v>1.053854099662696</v>
       </c>
       <c r="K25">
-        <v>1.025312072539017</v>
+        <v>1.050926007298675</v>
       </c>
       <c r="L25">
-        <v>1.024086323350372</v>
+        <v>1.06459844723202</v>
       </c>
       <c r="M25">
-        <v>1.029204501803746</v>
+        <v>1.071114869900749</v>
       </c>
       <c r="N25">
-        <v>1.008826961196879</v>
+        <v>1.021582455295699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050322759995683</v>
+        <v>1.004342016062056</v>
       </c>
       <c r="D2">
-        <v>1.049411262395481</v>
+        <v>1.020656776511914</v>
       </c>
       <c r="E2">
-        <v>1.063582166126474</v>
+        <v>1.021412300955091</v>
       </c>
       <c r="F2">
-        <v>1.070183829371126</v>
+        <v>1.02690816623049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03941775864605</v>
+        <v>1.04382518082298</v>
       </c>
       <c r="J2">
-        <v>1.055356524378297</v>
+        <v>1.026393629254503</v>
       </c>
       <c r="K2">
-        <v>1.052168395498476</v>
+        <v>1.031835639507913</v>
       </c>
       <c r="L2">
-        <v>1.066300415962667</v>
+        <v>1.032581175448425</v>
       </c>
       <c r="M2">
-        <v>1.072884345364755</v>
+        <v>1.038004935979729</v>
       </c>
       <c r="N2">
-        <v>1.022102396198667</v>
+        <v>1.011538856006361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05176301652193</v>
+        <v>1.011518794948509</v>
       </c>
       <c r="D3">
-        <v>1.050497871104509</v>
+        <v>1.026047859668808</v>
       </c>
       <c r="E3">
-        <v>1.065001567912547</v>
+        <v>1.028202238333102</v>
       </c>
       <c r="F3">
-        <v>1.071651138091094</v>
+        <v>1.033907733808612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039739019837312</v>
+        <v>1.045851526461149</v>
       </c>
       <c r="J3">
-        <v>1.056444019774661</v>
+        <v>1.031700296555514</v>
       </c>
       <c r="K3">
-        <v>1.053066536422366</v>
+        <v>1.036357957729313</v>
       </c>
       <c r="L3">
-        <v>1.06753334085137</v>
+        <v>1.038486547865938</v>
       </c>
       <c r="M3">
-        <v>1.074166356283882</v>
+        <v>1.044124389846306</v>
       </c>
       <c r="N3">
-        <v>1.022478027086057</v>
+        <v>1.013418840170127</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052693844550915</v>
+        <v>1.016028384281024</v>
       </c>
       <c r="D4">
-        <v>1.051199771170514</v>
+        <v>1.029437217709166</v>
       </c>
       <c r="E4">
-        <v>1.065919256169349</v>
+        <v>1.032474745258443</v>
       </c>
       <c r="F4">
-        <v>1.072599851997329</v>
+        <v>1.038312490908088</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039945024042573</v>
+        <v>1.047112325876576</v>
       </c>
       <c r="J4">
-        <v>1.057146162242889</v>
+        <v>1.035030782872663</v>
       </c>
       <c r="K4">
-        <v>1.053645895310644</v>
+        <v>1.039192883164614</v>
       </c>
       <c r="L4">
-        <v>1.068329840609129</v>
+        <v>1.042196412083831</v>
       </c>
       <c r="M4">
-        <v>1.074994651775184</v>
+        <v>1.047969502998093</v>
       </c>
       <c r="N4">
-        <v>1.022720220084916</v>
+        <v>1.014597295175526</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053084904096581</v>
+        <v>1.017893821597579</v>
       </c>
       <c r="D5">
-        <v>1.051494564410726</v>
+        <v>1.030839587822832</v>
       </c>
       <c r="E5">
-        <v>1.066304875915054</v>
+        <v>1.034243483258308</v>
       </c>
       <c r="F5">
-        <v>1.072998521525962</v>
+        <v>1.04013606283701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040031181231499</v>
+        <v>1.047630813660934</v>
       </c>
       <c r="J5">
-        <v>1.057440978775224</v>
+        <v>1.03640745094248</v>
       </c>
       <c r="K5">
-        <v>1.053889030822444</v>
+        <v>1.040363888508494</v>
       </c>
       <c r="L5">
-        <v>1.06866438639577</v>
+        <v>1.043730772979277</v>
       </c>
       <c r="M5">
-        <v>1.07534257275961</v>
+        <v>1.049559983247577</v>
       </c>
       <c r="N5">
-        <v>1.022821832257814</v>
+        <v>1.015084048324891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053150549615361</v>
+        <v>1.018205302658976</v>
       </c>
       <c r="D6">
-        <v>1.051544044856895</v>
+        <v>1.031073764523729</v>
       </c>
       <c r="E6">
-        <v>1.066369612981181</v>
+        <v>1.034538896848794</v>
       </c>
       <c r="F6">
-        <v>1.073065450101396</v>
+        <v>1.040440639823616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040045621234542</v>
+        <v>1.047717206661488</v>
       </c>
       <c r="J6">
-        <v>1.057490458542933</v>
+        <v>1.036637258075828</v>
       </c>
       <c r="K6">
-        <v>1.053929829410448</v>
+        <v>1.040559315265053</v>
       </c>
       <c r="L6">
-        <v>1.068720540497408</v>
+        <v>1.043986955425828</v>
       </c>
       <c r="M6">
-        <v>1.075400973106131</v>
+        <v>1.049825546271692</v>
       </c>
       <c r="N6">
-        <v>1.022838881362934</v>
+        <v>1.015165279892607</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052699070923833</v>
+        <v>1.016053427564785</v>
       </c>
       <c r="D7">
-        <v>1.051203711329584</v>
+        <v>1.0294560432117</v>
       </c>
       <c r="E7">
-        <v>1.065924409525621</v>
+        <v>1.032498485017827</v>
       </c>
       <c r="F7">
-        <v>1.072605179699235</v>
+        <v>1.038336966301868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039946177033638</v>
+        <v>1.047119298684605</v>
       </c>
       <c r="J7">
-        <v>1.057150103021205</v>
+        <v>1.035049268604562</v>
       </c>
       <c r="K7">
-        <v>1.053649145772532</v>
+        <v>1.039208610569637</v>
       </c>
       <c r="L7">
-        <v>1.068334312009633</v>
+        <v>1.042217011822527</v>
       </c>
       <c r="M7">
-        <v>1.074999301863008</v>
+        <v>1.047990855454354</v>
       </c>
       <c r="N7">
-        <v>1.022721578638533</v>
+        <v>1.014603832712411</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050809735882487</v>
+        <v>1.006796342590871</v>
       </c>
       <c r="D8">
-        <v>1.049778739374728</v>
+        <v>1.022499972674988</v>
       </c>
       <c r="E8">
-        <v>1.064062020179339</v>
+        <v>1.023733028669822</v>
       </c>
       <c r="F8">
-        <v>1.070679868407583</v>
+        <v>1.029300472867715</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039526719139045</v>
+        <v>1.044520745542304</v>
       </c>
       <c r="J8">
-        <v>1.055724370052312</v>
+        <v>1.028209217631416</v>
       </c>
       <c r="K8">
-        <v>1.052472300939046</v>
+        <v>1.033383554263083</v>
       </c>
       <c r="L8">
-        <v>1.066717357768817</v>
+        <v>1.034600837980334</v>
       </c>
       <c r="M8">
-        <v>1.073317869138118</v>
+        <v>1.04009765490861</v>
       </c>
       <c r="N8">
-        <v>1.022229522422784</v>
+        <v>1.01218234972185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047471674065325</v>
+        <v>0.9893689282540759</v>
       </c>
       <c r="D9">
-        <v>1.0472583325996</v>
+        <v>1.009424922532103</v>
       </c>
       <c r="E9">
-        <v>1.060774189349334</v>
+        <v>1.007283180990404</v>
       </c>
       <c r="F9">
-        <v>1.067281355515391</v>
+        <v>1.01234461269875</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038773166764646</v>
+        <v>1.039530645645718</v>
       </c>
       <c r="J9">
-        <v>1.053200052899261</v>
+        <v>1.015302764421472</v>
       </c>
       <c r="K9">
-        <v>1.050384616394462</v>
+        <v>1.022366915532172</v>
       </c>
       <c r="L9">
-        <v>1.063858013445727</v>
+        <v>1.020259188598307</v>
       </c>
       <c r="M9">
-        <v>1.070345156113667</v>
+        <v>1.02524053256498</v>
       </c>
       <c r="N9">
-        <v>1.021355766580713</v>
+        <v>1.007602730907138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045239983890099</v>
+        <v>0.9768642293664623</v>
       </c>
       <c r="D10">
-        <v>1.045571486368116</v>
+        <v>1.00006601775824</v>
       </c>
       <c r="E10">
-        <v>1.058577880917069</v>
+        <v>0.9955208486768384</v>
       </c>
       <c r="F10">
-        <v>1.065011376165843</v>
+        <v>1.000222053306647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038261012456692</v>
+        <v>1.035887919301604</v>
       </c>
       <c r="J10">
-        <v>1.051508828420443</v>
+        <v>1.006026822478534</v>
       </c>
       <c r="K10">
-        <v>1.048983232135064</v>
+        <v>1.014434080336351</v>
       </c>
       <c r="L10">
-        <v>1.061944704540719</v>
+        <v>1.009971449280082</v>
       </c>
       <c r="M10">
-        <v>1.068356425141417</v>
+        <v>1.01458729966951</v>
       </c>
       <c r="N10">
-        <v>1.020768675971242</v>
+        <v>1.00430579223812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044272051897722</v>
+        <v>0.9712035664227388</v>
       </c>
       <c r="D11">
-        <v>1.044839449921481</v>
+        <v>0.9958370950344214</v>
       </c>
       <c r="E11">
-        <v>1.057625729078412</v>
+        <v>0.9902073790649619</v>
       </c>
       <c r="F11">
-        <v>1.06402734876061</v>
+        <v>0.9947461852530576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03803690134257</v>
+        <v>1.034225312785153</v>
       </c>
       <c r="J11">
-        <v>1.050774466397818</v>
+        <v>1.001825394861824</v>
       </c>
       <c r="K11">
-        <v>1.048374090544281</v>
+        <v>1.01083794698219</v>
       </c>
       <c r="L11">
-        <v>1.061114471332078</v>
+        <v>1.005316363298758</v>
       </c>
       <c r="M11">
-        <v>1.067493568045802</v>
+        <v>1.009767865644337</v>
       </c>
       <c r="N11">
-        <v>1.020513351260738</v>
+        <v>1.002811568099311</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.043912271545931</v>
+        <v>0.9690604560293973</v>
       </c>
       <c r="D12">
-        <v>1.044567290731848</v>
+        <v>0.9942374100388649</v>
       </c>
       <c r="E12">
-        <v>1.05727188010039</v>
+        <v>0.9881975244941819</v>
       </c>
       <c r="F12">
-        <v>1.063661663186908</v>
+        <v>0.9926749472734505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037953302281098</v>
+        <v>1.033593920919336</v>
       </c>
       <c r="J12">
-        <v>1.050501377999173</v>
+        <v>1.000234509787756</v>
       </c>
       <c r="K12">
-        <v>1.048147473247338</v>
+        <v>1.00947585123495</v>
       </c>
       <c r="L12">
-        <v>1.060805815524362</v>
+        <v>1.00355438916448</v>
       </c>
       <c r="M12">
-        <v>1.067172799216022</v>
+        <v>1.007943842269178</v>
       </c>
       <c r="N12">
-        <v>1.020418343664389</v>
+        <v>1.002245674709983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043989456966979</v>
+        <v>0.9695220542878993</v>
       </c>
       <c r="D13">
-        <v>1.044625681112624</v>
+        <v>0.9945818958184884</v>
       </c>
       <c r="E13">
-        <v>1.057347790043525</v>
+        <v>0.9886303371626325</v>
       </c>
       <c r="F13">
-        <v>1.063740111969935</v>
+        <v>0.9931209766211144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037971250623497</v>
+        <v>1.033729999950557</v>
       </c>
       <c r="J13">
-        <v>1.050559970670487</v>
+        <v>1.000577174500524</v>
       </c>
       <c r="K13">
-        <v>1.048196099563173</v>
+        <v>1.009769253964665</v>
       </c>
       <c r="L13">
-        <v>1.060872035570203</v>
+        <v>1.00393387409632</v>
       </c>
       <c r="M13">
-        <v>1.067241617326134</v>
+        <v>1.008336683909201</v>
       </c>
       <c r="N13">
-        <v>1.020438730775861</v>
+        <v>1.00236756779718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044242317430961</v>
+        <v>0.9710272642124664</v>
       </c>
       <c r="D14">
-        <v>1.044816958249923</v>
+        <v>0.9957054683580231</v>
       </c>
       <c r="E14">
-        <v>1.057596483469432</v>
+        <v>0.9900420015714528</v>
       </c>
       <c r="F14">
-        <v>1.06399712466691</v>
+        <v>0.9945757560470875</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038029998255098</v>
+        <v>1.034173410098011</v>
       </c>
       <c r="J14">
-        <v>1.050751899256163</v>
+        <v>1.001694525343981</v>
       </c>
       <c r="K14">
-        <v>1.04835536555555</v>
+        <v>1.010725906102792</v>
       </c>
       <c r="L14">
-        <v>1.061088963294929</v>
+        <v>1.005171405668485</v>
       </c>
       <c r="M14">
-        <v>1.067467058642935</v>
+        <v>1.009617800018593</v>
       </c>
       <c r="N14">
-        <v>1.020505501353517</v>
+        <v>1.002765018339337</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044398080108169</v>
+        <v>0.9719491954467963</v>
       </c>
       <c r="D15">
-        <v>1.044934777368</v>
+        <v>0.9963938364525289</v>
       </c>
       <c r="E15">
-        <v>1.057749687988349</v>
+        <v>0.9909068789289093</v>
       </c>
       <c r="F15">
-        <v>1.064155455407204</v>
+        <v>0.995467054222565</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03806614761528</v>
+        <v>1.03444474517486</v>
       </c>
       <c r="J15">
-        <v>1.050870111064197</v>
+        <v>1.002378868036361</v>
       </c>
       <c r="K15">
-        <v>1.048453447415707</v>
+        <v>1.011311773864132</v>
       </c>
       <c r="L15">
-        <v>1.061222583633599</v>
+        <v>1.005929445920132</v>
       </c>
       <c r="M15">
-        <v>1.067605925134917</v>
+        <v>1.010402558387973</v>
       </c>
       <c r="N15">
-        <v>1.020546618511586</v>
+        <v>1.003008432431096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045304188085801</v>
+        <v>0.9772344346145491</v>
       </c>
       <c r="D16">
-        <v>1.045620034662176</v>
+        <v>1.000342764605018</v>
       </c>
       <c r="E16">
-        <v>1.05864104759377</v>
+        <v>0.9958685891395433</v>
       </c>
       <c r="F16">
-        <v>1.065076658811328</v>
+        <v>1.000580428388003</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038275836405164</v>
+        <v>1.035996380625924</v>
       </c>
       <c r="J16">
-        <v>1.051557521930782</v>
+        <v>1.006301554971212</v>
       </c>
       <c r="K16">
-        <v>1.049023609321273</v>
+        <v>1.014669173531384</v>
       </c>
       <c r="L16">
-        <v>1.061999766826458</v>
+        <v>1.010275941895827</v>
       </c>
       <c r="M16">
-        <v>1.068413653272309</v>
+        <v>1.014902563967856</v>
       </c>
       <c r="N16">
-        <v>1.020785597481092</v>
+        <v>1.004403484085402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045872133178482</v>
+        <v>0.9804815043821414</v>
       </c>
       <c r="D17">
-        <v>1.04604944116474</v>
+        <v>1.002771002464277</v>
       </c>
       <c r="E17">
-        <v>1.059199865088992</v>
+        <v>0.9989198914713259</v>
       </c>
       <c r="F17">
-        <v>1.065654202889008</v>
+        <v>1.003725082477187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038406739492509</v>
+        <v>1.036946171898663</v>
       </c>
       <c r="J17">
-        <v>1.051988163674292</v>
+        <v>1.008710979149637</v>
       </c>
       <c r="K17">
-        <v>1.049380629064092</v>
+        <v>1.016730619788911</v>
       </c>
       <c r="L17">
-        <v>1.062486798372541</v>
+        <v>1.012946885443696</v>
       </c>
       <c r="M17">
-        <v>1.068919853900213</v>
+        <v>1.017668111236967</v>
       </c>
       <c r="N17">
-        <v>1.020935204086383</v>
+        <v>1.005260149760169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046203252525181</v>
+        <v>0.982351986088247</v>
       </c>
       <c r="D18">
-        <v>1.04629975064242</v>
+        <v>1.004170501738872</v>
       </c>
       <c r="E18">
-        <v>1.059525704750975</v>
+        <v>1.00067863748125</v>
       </c>
       <c r="F18">
-        <v>1.065990967824232</v>
+        <v>1.005537666956654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03848286692864</v>
+        <v>1.037492015427865</v>
       </c>
       <c r="J18">
-        <v>1.052239152236214</v>
+        <v>1.010098702534326</v>
       </c>
       <c r="K18">
-        <v>1.049588647848624</v>
+        <v>1.017917633114443</v>
       </c>
       <c r="L18">
-        <v>1.062770706445907</v>
+        <v>1.014485667031355</v>
       </c>
       <c r="M18">
-        <v>1.069214946305501</v>
+        <v>1.019261492810212</v>
       </c>
       <c r="N18">
-        <v>1.021022360052063</v>
+        <v>1.005753463400112</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046316129872769</v>
+        <v>0.982985889239897</v>
       </c>
       <c r="D19">
-        <v>1.046385073375948</v>
+        <v>1.004644903693099</v>
       </c>
       <c r="E19">
-        <v>1.059636789348352</v>
+        <v>1.00127484564046</v>
       </c>
       <c r="F19">
-        <v>1.066105778068075</v>
+        <v>1.006152131584824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038508786120806</v>
+        <v>1.03767677969269</v>
       </c>
       <c r="J19">
-        <v>1.052324699520705</v>
+        <v>1.010568957248184</v>
       </c>
       <c r="K19">
-        <v>1.049659538884947</v>
+        <v>1.018319823054367</v>
       </c>
       <c r="L19">
-        <v>1.062867483249567</v>
+        <v>1.015007184322444</v>
       </c>
       <c r="M19">
-        <v>1.069315537248938</v>
+        <v>1.019801531291207</v>
       </c>
       <c r="N19">
-        <v>1.021052059882227</v>
+        <v>1.005920615429454</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04581121396894</v>
+        <v>0.9801355770941639</v>
       </c>
       <c r="D20">
-        <v>1.046003386088382</v>
+        <v>1.002512234621175</v>
       </c>
       <c r="E20">
-        <v>1.059139920597034</v>
+        <v>0.9985947116632333</v>
       </c>
       <c r="F20">
-        <v>1.065592248968263</v>
+        <v>1.003389950877192</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03839271823268</v>
+        <v>1.03684511857062</v>
       </c>
       <c r="J20">
-        <v>1.051941980357514</v>
+        <v>1.008454313799588</v>
       </c>
       <c r="K20">
-        <v>1.049342347508283</v>
+        <v>1.016511052786202</v>
       </c>
       <c r="L20">
-        <v>1.062434562041261</v>
+        <v>1.012662316462662</v>
       </c>
       <c r="M20">
-        <v>1.068865560564951</v>
+        <v>1.017373452848194</v>
       </c>
       <c r="N20">
-        <v>1.020919163797635</v>
+        <v>1.005168901880378</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044167863215177</v>
+        <v>0.9705851656887197</v>
       </c>
       <c r="D21">
-        <v>1.044760638791857</v>
+        <v>0.9953754218387841</v>
       </c>
       <c r="E21">
-        <v>1.057523254405315</v>
+        <v>0.9896273276431057</v>
       </c>
       <c r="F21">
-        <v>1.063921445692812</v>
+        <v>0.994148415964602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038012708335383</v>
+        <v>1.034043227307073</v>
       </c>
       <c r="J21">
-        <v>1.050695389774364</v>
+        <v>1.001366351257247</v>
       </c>
       <c r="K21">
-        <v>1.048308475526011</v>
+        <v>1.010444941157864</v>
       </c>
       <c r="L21">
-        <v>1.061025090995868</v>
+        <v>1.004807914702295</v>
       </c>
       <c r="M21">
-        <v>1.067400679168557</v>
+        <v>1.009241502949356</v>
       </c>
       <c r="N21">
-        <v>1.020485843751967</v>
+        <v>1.00264828665936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04313318868702</v>
+        <v>0.9643440915749185</v>
       </c>
       <c r="D22">
-        <v>1.043977835515686</v>
+        <v>0.9907197614309782</v>
       </c>
       <c r="E22">
-        <v>1.056505762500771</v>
+        <v>0.9837779210752673</v>
       </c>
       <c r="F22">
-        <v>1.062869935248321</v>
+        <v>0.9881204411072648</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037771730690113</v>
+        <v>1.032200974378859</v>
       </c>
       <c r="J22">
-        <v>1.049909791357848</v>
+        <v>0.9967331395769004</v>
       </c>
       <c r="K22">
-        <v>1.047656383077555</v>
+        <v>1.006477330955018</v>
       </c>
       <c r="L22">
-        <v>1.060137334083248</v>
+        <v>0.9996777388910136</v>
       </c>
       <c r="M22">
-        <v>1.066478112052382</v>
+        <v>1.003930965774436</v>
       </c>
       <c r="N22">
-        <v>1.020212421706706</v>
+        <v>1.001000062005982</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043681827778527</v>
+        <v>0.9676763084062693</v>
       </c>
       <c r="D23">
-        <v>1.044392952308979</v>
+        <v>0.9932046549016054</v>
       </c>
       <c r="E23">
-        <v>1.057045254080017</v>
+        <v>0.9868999698937938</v>
       </c>
       <c r="F23">
-        <v>1.063427458929436</v>
+        <v>0.9913377758136761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037899672491702</v>
+        <v>1.033185600234213</v>
       </c>
       <c r="J23">
-        <v>1.050326426079573</v>
+        <v>0.9992069712279548</v>
       </c>
       <c r="K23">
-        <v>1.048002266023287</v>
+        <v>1.008595977582592</v>
       </c>
       <c r="L23">
-        <v>1.060608101366344</v>
+        <v>1.002416539753744</v>
       </c>
       <c r="M23">
-        <v>1.066967330257182</v>
+        <v>1.006765967287224</v>
       </c>
       <c r="N23">
-        <v>1.020357461066543</v>
+        <v>1.001880145844874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045838741211841</v>
+        <v>0.9802919590420307</v>
       </c>
       <c r="D24">
-        <v>1.046024196877535</v>
+        <v>1.002629212569943</v>
       </c>
       <c r="E24">
-        <v>1.059167007270205</v>
+        <v>0.9987417111718007</v>
       </c>
       <c r="F24">
-        <v>1.065620243608477</v>
+        <v>1.003541449056313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038399054535277</v>
+        <v>1.036890805341871</v>
       </c>
       <c r="J24">
-        <v>1.051962849220903</v>
+        <v>1.008570344190233</v>
       </c>
       <c r="K24">
-        <v>1.049359645990387</v>
+        <v>1.01661031307686</v>
       </c>
       <c r="L24">
-        <v>1.062458165913957</v>
+        <v>1.012790959863604</v>
       </c>
       <c r="M24">
-        <v>1.068890093898921</v>
+        <v>1.017506657006384</v>
       </c>
       <c r="N24">
-        <v>1.020926412044527</v>
+        <v>1.005210152475334</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048335727432832</v>
+        <v>0.9940196204264701</v>
       </c>
       <c r="D25">
-        <v>1.047911059444123</v>
+        <v>1.012910929708479</v>
       </c>
       <c r="E25">
-        <v>1.061624926279094</v>
+        <v>1.011666454240324</v>
       </c>
       <c r="F25">
-        <v>1.068160684766334</v>
+        <v>1.016862432994414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038969695970889</v>
+        <v>1.040873234738572</v>
       </c>
       <c r="J25">
-        <v>1.053854099662696</v>
+        <v>1.018749938086046</v>
       </c>
       <c r="K25">
-        <v>1.050926007298675</v>
+        <v>1.025312072539017</v>
       </c>
       <c r="L25">
-        <v>1.06459844723202</v>
+        <v>1.024086323350371</v>
       </c>
       <c r="M25">
-        <v>1.071114869900749</v>
+        <v>1.029204501803745</v>
       </c>
       <c r="N25">
-        <v>1.021582455295699</v>
+        <v>1.008826961196879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004342016062056</v>
+        <v>1.021090358658314</v>
       </c>
       <c r="D2">
-        <v>1.020656776511914</v>
+        <v>1.039444059500112</v>
       </c>
       <c r="E2">
-        <v>1.021412300955091</v>
+        <v>1.039259328883721</v>
       </c>
       <c r="F2">
-        <v>1.02690816623049</v>
+        <v>1.046975177176253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04382518082298</v>
+        <v>1.053384559747385</v>
       </c>
       <c r="J2">
-        <v>1.026393629254503</v>
+        <v>1.042658053055877</v>
       </c>
       <c r="K2">
-        <v>1.031835639507913</v>
+        <v>1.050379922665774</v>
       </c>
       <c r="L2">
-        <v>1.032581175448425</v>
+        <v>1.050197528013898</v>
       </c>
       <c r="M2">
-        <v>1.038004935979729</v>
+        <v>1.057816681778437</v>
       </c>
       <c r="N2">
-        <v>1.011538856006361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017956443304381</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054330285961961</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046693209800977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011518794948509</v>
+        <v>1.024355011251599</v>
       </c>
       <c r="D3">
-        <v>1.026047859668808</v>
+        <v>1.041621931111313</v>
       </c>
       <c r="E3">
-        <v>1.028202238333102</v>
+        <v>1.041931174314645</v>
       </c>
       <c r="F3">
-        <v>1.033907733808612</v>
+        <v>1.049403320586021</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045851526461149</v>
+        <v>1.054110454130806</v>
       </c>
       <c r="J3">
-        <v>1.031700296555514</v>
+        <v>1.044203057123245</v>
       </c>
       <c r="K3">
-        <v>1.036357957729313</v>
+        <v>1.051748571691718</v>
       </c>
       <c r="L3">
-        <v>1.038486547865938</v>
+        <v>1.05205424072926</v>
       </c>
       <c r="M3">
-        <v>1.044124389846306</v>
+        <v>1.059440815279288</v>
       </c>
       <c r="N3">
-        <v>1.013418840170127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018483016705278</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05561565358927</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.0476583054682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016028384281024</v>
+        <v>1.026435636392817</v>
       </c>
       <c r="D4">
-        <v>1.029437217709166</v>
+        <v>1.04301413129387</v>
       </c>
       <c r="E4">
-        <v>1.032474745258443</v>
+        <v>1.043639531109251</v>
       </c>
       <c r="F4">
-        <v>1.038312490908088</v>
+        <v>1.050956624072097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047112325876576</v>
+        <v>1.054566456558004</v>
       </c>
       <c r="J4">
-        <v>1.035030782872663</v>
+        <v>1.045186465079009</v>
       </c>
       <c r="K4">
-        <v>1.039192883164614</v>
+        <v>1.05261971715394</v>
       </c>
       <c r="L4">
-        <v>1.042196412083831</v>
+        <v>1.053238319229929</v>
       </c>
       <c r="M4">
-        <v>1.047969502998093</v>
+        <v>1.060476615760991</v>
       </c>
       <c r="N4">
-        <v>1.014597295175526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018818138418658</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056435403052561</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.0482751517743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017893821597579</v>
+        <v>1.027305671736509</v>
       </c>
       <c r="D5">
-        <v>1.030839587822832</v>
+        <v>1.043599137151236</v>
       </c>
       <c r="E5">
-        <v>1.034243483258308</v>
+        <v>1.04435568436782</v>
       </c>
       <c r="F5">
-        <v>1.04013606283701</v>
+        <v>1.051608121936057</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047630813660934</v>
+        <v>1.054756897527305</v>
       </c>
       <c r="J5">
-        <v>1.03640745094248</v>
+        <v>1.045598761756527</v>
       </c>
       <c r="K5">
-        <v>1.040363888508494</v>
+        <v>1.052986223921597</v>
       </c>
       <c r="L5">
-        <v>1.043730772979277</v>
+        <v>1.053734764191448</v>
       </c>
       <c r="M5">
-        <v>1.049559983247577</v>
+        <v>1.060911159205209</v>
       </c>
       <c r="N5">
-        <v>1.015084048324891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018958882020554</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056779307588087</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048541385857123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018205302658976</v>
+        <v>1.02745469155507</v>
       </c>
       <c r="D6">
-        <v>1.031073764523729</v>
+        <v>1.043701652948805</v>
       </c>
       <c r="E6">
-        <v>1.034538896848794</v>
+        <v>1.044479004121083</v>
       </c>
       <c r="F6">
-        <v>1.040440639823616</v>
+        <v>1.05172051848223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047717206661488</v>
+        <v>1.054791093034742</v>
       </c>
       <c r="J6">
-        <v>1.036637258075828</v>
+        <v>1.045671055567539</v>
       </c>
       <c r="K6">
-        <v>1.040559315265053</v>
+        <v>1.053052039323047</v>
       </c>
       <c r="L6">
-        <v>1.043986955425828</v>
+        <v>1.053821200598179</v>
       </c>
       <c r="M6">
-        <v>1.049825546271692</v>
+        <v>1.060987130967088</v>
       </c>
       <c r="N6">
-        <v>1.015165279892607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018983870668586</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056839432822796</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048596566819852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016053427564785</v>
+        <v>1.026456351460926</v>
       </c>
       <c r="D7">
-        <v>1.0294560432117</v>
+        <v>1.043034099932037</v>
       </c>
       <c r="E7">
-        <v>1.032498485017827</v>
+        <v>1.043658134157736</v>
       </c>
       <c r="F7">
-        <v>1.038336966301868</v>
+        <v>1.050974076203813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047119298684605</v>
+        <v>1.054575487120171</v>
       </c>
       <c r="J7">
-        <v>1.035049268604562</v>
+        <v>1.045200833867721</v>
       </c>
       <c r="K7">
-        <v>1.039208610569637</v>
+        <v>1.052636631925344</v>
       </c>
       <c r="L7">
-        <v>1.042217011822527</v>
+        <v>1.053253885816067</v>
       </c>
       <c r="M7">
-        <v>1.047990855454354</v>
+        <v>1.060491073297606</v>
       </c>
       <c r="N7">
-        <v>1.014603832712411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018823888888802</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056446844977557</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048306995245997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.006796342590871</v>
+        <v>1.022211722183524</v>
       </c>
       <c r="D8">
-        <v>1.022499972674988</v>
+        <v>1.04019871674281</v>
       </c>
       <c r="E8">
-        <v>1.023733028669822</v>
+        <v>1.040177874505922</v>
       </c>
       <c r="F8">
-        <v>1.029300472867715</v>
+        <v>1.047810412610944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044520745542304</v>
+        <v>1.053640810845502</v>
       </c>
       <c r="J8">
-        <v>1.028209217631416</v>
+        <v>1.04319465949766</v>
       </c>
       <c r="K8">
-        <v>1.033383554263083</v>
+        <v>1.05086036928456</v>
       </c>
       <c r="L8">
-        <v>1.034600837980334</v>
+        <v>1.050839782867818</v>
       </c>
       <c r="M8">
-        <v>1.04009765490861</v>
+        <v>1.058379483208764</v>
       </c>
       <c r="N8">
-        <v>1.01218234972185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018140443971671</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054775697092809</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047055571583909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9893689282540759</v>
+        <v>1.014464756789202</v>
       </c>
       <c r="D9">
-        <v>1.009424922532103</v>
+        <v>1.03504863401404</v>
       </c>
       <c r="E9">
-        <v>1.007283180990404</v>
+        <v>1.033868279139644</v>
       </c>
       <c r="F9">
-        <v>1.01234461269875</v>
+        <v>1.04208028883673</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039530645645718</v>
+        <v>1.051876657072828</v>
       </c>
       <c r="J9">
-        <v>1.015302764421472</v>
+        <v>1.039516867384051</v>
       </c>
       <c r="K9">
-        <v>1.022366915532172</v>
+        <v>1.047597559899905</v>
       </c>
       <c r="L9">
-        <v>1.020259188598307</v>
+        <v>1.046434767160465</v>
       </c>
       <c r="M9">
-        <v>1.02524053256498</v>
+        <v>1.054525639076286</v>
       </c>
       <c r="N9">
-        <v>1.007602730907138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016885805583279</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.051725690574682</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044745460447902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9768642293664623</v>
+        <v>1.009168638638958</v>
       </c>
       <c r="D10">
-        <v>1.00006601775824</v>
+        <v>1.031571449318099</v>
       </c>
       <c r="E10">
-        <v>0.9955208486768384</v>
+        <v>1.029610248595751</v>
       </c>
       <c r="F10">
-        <v>1.000222053306647</v>
+        <v>1.038248707377245</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035887919301604</v>
+        <v>1.050658718544802</v>
       </c>
       <c r="J10">
-        <v>1.006026822478534</v>
+        <v>1.037023149725949</v>
       </c>
       <c r="K10">
-        <v>1.014434080336351</v>
+        <v>1.045393146005481</v>
       </c>
       <c r="L10">
-        <v>1.009971449280082</v>
+        <v>1.043464698457517</v>
       </c>
       <c r="M10">
-        <v>1.01458729966951</v>
+        <v>1.051960082954961</v>
       </c>
       <c r="N10">
-        <v>1.00430579223812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016039289165275</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049745997751057</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043203470953359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,81 +910,105 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9712035664227388</v>
+        <v>1.00723620613422</v>
       </c>
       <c r="D11">
-        <v>0.9958370950344214</v>
+        <v>1.030450340487382</v>
       </c>
       <c r="E11">
-        <v>0.9902073790649619</v>
+        <v>1.028252046505977</v>
       </c>
       <c r="F11">
-        <v>0.9947461852530576</v>
+        <v>1.037274240455251</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034225312785153</v>
+        <v>1.050369030057888</v>
       </c>
       <c r="J11">
-        <v>1.001825394861824</v>
+        <v>1.036311018451817</v>
       </c>
       <c r="K11">
-        <v>1.01083794698219</v>
+        <v>1.044819981701182</v>
       </c>
       <c r="L11">
-        <v>1.005316363298758</v>
+        <v>1.042660138525182</v>
       </c>
       <c r="M11">
-        <v>1.009767865644337</v>
+        <v>1.051525865215505</v>
       </c>
       <c r="N11">
-        <v>1.002811568099311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015832715138536</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049832933767645</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042830729543413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9690604560293973</v>
+        <v>1.006660935280888</v>
       </c>
       <c r="D12">
-        <v>0.9942374100388649</v>
+        <v>1.030175935273942</v>
       </c>
       <c r="E12">
-        <v>0.9881975244941819</v>
+        <v>1.027930984807228</v>
       </c>
       <c r="F12">
-        <v>0.9926749472734505</v>
+        <v>1.037167895157562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033593920919336</v>
+        <v>1.050351860239989</v>
       </c>
       <c r="J12">
-        <v>1.000234509787756</v>
+        <v>1.036186043372624</v>
       </c>
       <c r="K12">
-        <v>1.00947585123495</v>
+        <v>1.044746980699193</v>
       </c>
       <c r="L12">
-        <v>1.00355438916448</v>
+        <v>1.042541946086399</v>
       </c>
       <c r="M12">
-        <v>1.007943842269178</v>
+        <v>1.05161605509213</v>
       </c>
       <c r="N12">
-        <v>1.002245674709983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015818347340598</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.0502268316587</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042779116481205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9695220542878993</v>
+        <v>1.007103609384238</v>
       </c>
       <c r="D13">
-        <v>0.9945818958184884</v>
+        <v>1.030550334786797</v>
       </c>
       <c r="E13">
-        <v>0.9886303371626325</v>
+        <v>1.028399720038826</v>
       </c>
       <c r="F13">
-        <v>0.9931209766211144</v>
+        <v>1.03774149350716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033729999950557</v>
+        <v>1.05055583076688</v>
       </c>
       <c r="J13">
-        <v>1.000577174500524</v>
+        <v>1.036518811622646</v>
       </c>
       <c r="K13">
-        <v>1.009769253964665</v>
+        <v>1.045072594579465</v>
       </c>
       <c r="L13">
-        <v>1.00393387409632</v>
+        <v>1.042960050451486</v>
       </c>
       <c r="M13">
-        <v>1.008336683909201</v>
+        <v>1.052137936881216</v>
       </c>
       <c r="N13">
-        <v>1.00236756779718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015956909144509</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.050913268417434</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043006865262037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710272642124664</v>
+        <v>1.007876245453701</v>
       </c>
       <c r="D14">
-        <v>0.9957054683580231</v>
+        <v>1.031108413257494</v>
       </c>
       <c r="E14">
-        <v>0.9900420015714528</v>
+        <v>1.029086903133594</v>
       </c>
       <c r="F14">
-        <v>0.9945757560470875</v>
+        <v>1.038452447968251</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034173410098011</v>
+        <v>1.050799465536863</v>
       </c>
       <c r="J14">
-        <v>1.001694525343981</v>
+        <v>1.036960186384009</v>
       </c>
       <c r="K14">
-        <v>1.010725906102792</v>
+        <v>1.04548281739234</v>
       </c>
       <c r="L14">
-        <v>1.005171405668485</v>
+        <v>1.043496645489267</v>
       </c>
       <c r="M14">
-        <v>1.009617800018593</v>
+        <v>1.052699966443542</v>
       </c>
       <c r="N14">
-        <v>1.002765018339337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016123664939058</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.051529294967678</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043298309981944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9719491954467963</v>
+        <v>1.00829036694685</v>
       </c>
       <c r="D15">
-        <v>0.9963938364525289</v>
+        <v>1.031392411142289</v>
       </c>
       <c r="E15">
-        <v>0.9909068789289093</v>
+        <v>1.029433566408019</v>
       </c>
       <c r="F15">
-        <v>0.995467054222565</v>
+        <v>1.038784968661581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03444474517486</v>
+        <v>1.050911066699858</v>
       </c>
       <c r="J15">
-        <v>1.002378868036361</v>
+        <v>1.037173250247635</v>
       </c>
       <c r="K15">
-        <v>1.011311773864132</v>
+        <v>1.045676860073461</v>
       </c>
       <c r="L15">
-        <v>1.005929445920132</v>
+        <v>1.043751998143179</v>
       </c>
       <c r="M15">
-        <v>1.010402558387973</v>
+        <v>1.052942659178189</v>
       </c>
       <c r="N15">
-        <v>1.003008432431096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016199888672217</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.051758346557777</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.043441309967149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9772344346145491</v>
+        <v>1.010445114361707</v>
       </c>
       <c r="D16">
-        <v>1.000342764605018</v>
+        <v>1.032795313175279</v>
       </c>
       <c r="E16">
-        <v>0.9958685891395433</v>
+        <v>1.031149058142299</v>
       </c>
       <c r="F16">
-        <v>1.000580428388003</v>
+        <v>1.040317907778775</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035996380625924</v>
+        <v>1.051402037060485</v>
       </c>
       <c r="J16">
-        <v>1.006301554971212</v>
+        <v>1.038174879597091</v>
       </c>
       <c r="K16">
-        <v>1.014669173531384</v>
+        <v>1.046561636085613</v>
       </c>
       <c r="L16">
-        <v>1.010275941895827</v>
+        <v>1.044942699909041</v>
       </c>
       <c r="M16">
-        <v>1.014902563967856</v>
+        <v>1.053960809932585</v>
       </c>
       <c r="N16">
-        <v>1.004403484085402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016535301175865</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.052524707106529</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044069999882357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9804815043821414</v>
+        <v>1.011695274473716</v>
       </c>
       <c r="D17">
-        <v>1.002771002464277</v>
+        <v>1.033580591580846</v>
       </c>
       <c r="E17">
-        <v>0.9989198914713259</v>
+        <v>1.032106212420145</v>
       </c>
       <c r="F17">
-        <v>1.003725082477187</v>
+        <v>1.041118806836905</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036946171898663</v>
+        <v>1.05164887051831</v>
       </c>
       <c r="J17">
-        <v>1.008710979149637</v>
+        <v>1.038711322477648</v>
       </c>
       <c r="K17">
-        <v>1.016730619788911</v>
+        <v>1.047024380686106</v>
       </c>
       <c r="L17">
-        <v>1.012946885443696</v>
+        <v>1.045573785574843</v>
       </c>
       <c r="M17">
-        <v>1.017668111236967</v>
+        <v>1.05444234058542</v>
       </c>
       <c r="N17">
-        <v>1.005260149760169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016704888928889</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052777450738264</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044399732754663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.982351986088247</v>
+        <v>1.012273382015439</v>
       </c>
       <c r="D18">
-        <v>1.004170501738872</v>
+        <v>1.033888141091446</v>
       </c>
       <c r="E18">
-        <v>1.00067863748125</v>
+        <v>1.032477876271546</v>
       </c>
       <c r="F18">
-        <v>1.005537666956654</v>
+        <v>1.041329481008679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037492015427865</v>
+        <v>1.051698013431728</v>
       </c>
       <c r="J18">
-        <v>1.010098702534326</v>
+        <v>1.038880602057902</v>
       </c>
       <c r="K18">
-        <v>1.017917633114443</v>
+        <v>1.047146481583841</v>
       </c>
       <c r="L18">
-        <v>1.014485667031355</v>
+        <v>1.045758597692989</v>
       </c>
       <c r="M18">
-        <v>1.019261492810212</v>
+        <v>1.054471010296028</v>
       </c>
       <c r="N18">
-        <v>1.005753463400112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016740689385834</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.052564857797338</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04447454997149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.982985889239897</v>
+        <v>1.012256874406598</v>
       </c>
       <c r="D19">
-        <v>1.004644903693099</v>
+        <v>1.033781570450309</v>
       </c>
       <c r="E19">
-        <v>1.00127484564046</v>
+        <v>1.03233120198151</v>
       </c>
       <c r="F19">
-        <v>1.006152131584824</v>
+        <v>1.041016820745684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03767677969269</v>
+        <v>1.051580585108599</v>
       </c>
       <c r="J19">
-        <v>1.010568957248184</v>
+        <v>1.038732727320702</v>
       </c>
       <c r="K19">
-        <v>1.018319823054367</v>
+        <v>1.046980041421608</v>
       </c>
       <c r="L19">
-        <v>1.015007184322444</v>
+        <v>1.045552575109091</v>
       </c>
       <c r="M19">
-        <v>1.019801531291207</v>
+        <v>1.054102260609004</v>
       </c>
       <c r="N19">
-        <v>1.005920615429454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016663890082882</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051951580284611</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044363200310945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9801355770941639</v>
+        <v>1.010563013079755</v>
       </c>
       <c r="D20">
-        <v>1.002512234621175</v>
+        <v>1.032500874733804</v>
       </c>
       <c r="E20">
-        <v>0.9985947116632333</v>
+        <v>1.030734327663426</v>
       </c>
       <c r="F20">
-        <v>1.003389950877192</v>
+        <v>1.039262769982525</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03684511857062</v>
+        <v>1.050993759733946</v>
       </c>
       <c r="J20">
-        <v>1.008454313799588</v>
+        <v>1.037692734350322</v>
       </c>
       <c r="K20">
-        <v>1.016511052786202</v>
+        <v>1.045995335614075</v>
       </c>
       <c r="L20">
-        <v>1.012662316462662</v>
+        <v>1.044257453780234</v>
       </c>
       <c r="M20">
-        <v>1.017373452848194</v>
+        <v>1.052648661484481</v>
       </c>
       <c r="N20">
-        <v>1.005168901880378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016269264740365</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.050280520038955</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043670867824291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9705851656887197</v>
+        <v>1.006521061582278</v>
       </c>
       <c r="D21">
-        <v>0.9953754218387841</v>
+        <v>1.029826695617284</v>
       </c>
       <c r="E21">
-        <v>0.9896273276431057</v>
+        <v>1.027459174870013</v>
       </c>
       <c r="F21">
-        <v>0.994148415964602</v>
+        <v>1.036269110960623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034043227307073</v>
+        <v>1.050020764194729</v>
       </c>
       <c r="J21">
-        <v>1.001366351257247</v>
+        <v>1.035748647550491</v>
       </c>
       <c r="K21">
-        <v>1.010444941157864</v>
+        <v>1.044264199407998</v>
       </c>
       <c r="L21">
-        <v>1.004807914702295</v>
+        <v>1.041938352647782</v>
       </c>
       <c r="M21">
-        <v>1.009241502949356</v>
+        <v>1.050594459966932</v>
       </c>
       <c r="N21">
-        <v>1.00264828665936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015602710295787</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048614466896931</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042450104001249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9643440915749185</v>
+        <v>1.00395201462641</v>
       </c>
       <c r="D22">
-        <v>0.9907197614309782</v>
+        <v>1.028135411375699</v>
       </c>
       <c r="E22">
-        <v>0.9837779210752673</v>
+        <v>1.025394754196339</v>
       </c>
       <c r="F22">
-        <v>0.9881204411072648</v>
+        <v>1.034398138285879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032200974378859</v>
+        <v>1.049401198913998</v>
       </c>
       <c r="J22">
-        <v>0.9967331395769004</v>
+        <v>1.034519724368163</v>
       </c>
       <c r="K22">
-        <v>1.006477330955018</v>
+        <v>1.043169372747455</v>
       </c>
       <c r="L22">
-        <v>0.9996777388910136</v>
+        <v>1.040479381837855</v>
       </c>
       <c r="M22">
-        <v>1.003930965774436</v>
+        <v>1.049317631976733</v>
       </c>
       <c r="N22">
-        <v>1.001000062005982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015182275216349</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047603953672834</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041662658126154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9676763084062693</v>
+        <v>1.005309441032447</v>
       </c>
       <c r="D23">
-        <v>0.9932046549016054</v>
+        <v>1.029023134758257</v>
       </c>
       <c r="E23">
-        <v>0.9868999698937938</v>
+        <v>1.02648331202287</v>
       </c>
       <c r="F23">
-        <v>0.9913377758136761</v>
+        <v>1.035384183295728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033185600234213</v>
+        <v>1.049725227119652</v>
       </c>
       <c r="J23">
-        <v>0.9992069712279548</v>
+        <v>1.035164975945495</v>
       </c>
       <c r="K23">
-        <v>1.008595977582592</v>
+        <v>1.043740736271609</v>
       </c>
       <c r="L23">
-        <v>1.002416539753744</v>
+        <v>1.041246672190374</v>
       </c>
       <c r="M23">
-        <v>1.006765967287224</v>
+        <v>1.049988458846914</v>
       </c>
       <c r="N23">
-        <v>1.001880145844874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015402104278561</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.048134862807014</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042057091395045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9802919590420307</v>
+        <v>1.010577497593826</v>
       </c>
       <c r="D24">
-        <v>1.002629212569943</v>
+        <v>1.03248870234783</v>
       </c>
       <c r="E24">
-        <v>0.9987417111718007</v>
+        <v>1.030725266655653</v>
       </c>
       <c r="F24">
-        <v>1.003541449056313</v>
+        <v>1.039229557471664</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036890805341871</v>
+        <v>1.050975746759218</v>
       </c>
       <c r="J24">
-        <v>1.008570344190233</v>
+        <v>1.03767436852918</v>
       </c>
       <c r="K24">
-        <v>1.01661031307686</v>
+        <v>1.04596833010863</v>
       </c>
       <c r="L24">
-        <v>1.012790959863604</v>
+        <v>1.044233473361576</v>
       </c>
       <c r="M24">
-        <v>1.017506657006384</v>
+        <v>1.052601085726123</v>
       </c>
       <c r="N24">
-        <v>1.005210152475334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016258530850259</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.05020255733227</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043624652647191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940196204264701</v>
+        <v>1.016513406567153</v>
       </c>
       <c r="D25">
-        <v>1.012910929708479</v>
+        <v>1.036415678987698</v>
       </c>
       <c r="E25">
-        <v>1.011666454240324</v>
+        <v>1.035533934604372</v>
       </c>
       <c r="F25">
-        <v>1.016862432994414</v>
+        <v>1.043592947075153</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040873234738572</v>
+        <v>1.052355962571395</v>
       </c>
       <c r="J25">
-        <v>1.018749938086046</v>
+        <v>1.040497528323229</v>
       </c>
       <c r="K25">
-        <v>1.025312072539017</v>
+        <v>1.048473816730766</v>
       </c>
       <c r="L25">
-        <v>1.024086323350371</v>
+        <v>1.047604584060066</v>
       </c>
       <c r="M25">
-        <v>1.029204501803745</v>
+        <v>1.055550233936313</v>
       </c>
       <c r="N25">
-        <v>1.008826961196879</v>
+        <v>1.017221842554961</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.052536575896752</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045393293675273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021090358658314</v>
+        <v>1.019969360024243</v>
       </c>
       <c r="D2">
-        <v>1.039444059500112</v>
+        <v>1.037628507822106</v>
       </c>
       <c r="E2">
-        <v>1.039259328883721</v>
+        <v>1.038108735472362</v>
       </c>
       <c r="F2">
-        <v>1.046975177176253</v>
+        <v>1.045758600934392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053384559747385</v>
+        <v>1.052558700244802</v>
       </c>
       <c r="J2">
-        <v>1.042658053055877</v>
+        <v>1.041568765677552</v>
       </c>
       <c r="K2">
-        <v>1.050379922665774</v>
+        <v>1.04858737414326</v>
       </c>
       <c r="L2">
-        <v>1.050197528013898</v>
+        <v>1.049061507507203</v>
       </c>
       <c r="M2">
-        <v>1.057816681778437</v>
+        <v>1.056615233533419</v>
       </c>
       <c r="N2">
-        <v>1.017956443304381</v>
+        <v>1.018105809342578</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054330285961961</v>
+        <v>1.053379437428247</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046693209800977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04543443136025</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02488408457326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024355011251599</v>
+        <v>1.023129464006402</v>
       </c>
       <c r="D3">
-        <v>1.041621931111313</v>
+        <v>1.039668786376274</v>
       </c>
       <c r="E3">
-        <v>1.041931174314645</v>
+        <v>1.04067651316058</v>
       </c>
       <c r="F3">
-        <v>1.049403320586021</v>
+        <v>1.048086949062917</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054110454130806</v>
+        <v>1.053213665670948</v>
       </c>
       <c r="J3">
-        <v>1.044203057123245</v>
+        <v>1.043008858259243</v>
       </c>
       <c r="K3">
-        <v>1.051748571691718</v>
+        <v>1.049818061698869</v>
       </c>
       <c r="L3">
-        <v>1.05205424072926</v>
+        <v>1.050814096956223</v>
       </c>
       <c r="M3">
-        <v>1.059440815279288</v>
+        <v>1.058139409752775</v>
       </c>
       <c r="N3">
-        <v>1.018483016705278</v>
+        <v>1.018495270952599</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05561565358927</v>
+        <v>1.054585698692397</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.0476583054682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046301705236035</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025118266584918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026435636392817</v>
+        <v>1.025144059727028</v>
       </c>
       <c r="D4">
-        <v>1.04301413129387</v>
+        <v>1.040973663935283</v>
       </c>
       <c r="E4">
-        <v>1.043639531109251</v>
+        <v>1.04231902855819</v>
       </c>
       <c r="F4">
-        <v>1.050956624072097</v>
+        <v>1.049577045240437</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054566456558004</v>
+        <v>1.053624639809125</v>
       </c>
       <c r="J4">
-        <v>1.045186465079009</v>
+        <v>1.043925736534835</v>
       </c>
       <c r="K4">
-        <v>1.05261971715394</v>
+        <v>1.050601498241134</v>
       </c>
       <c r="L4">
-        <v>1.053238319229929</v>
+        <v>1.051932181535912</v>
       </c>
       <c r="M4">
-        <v>1.060476615760991</v>
+        <v>1.059111790401077</v>
       </c>
       <c r="N4">
-        <v>1.018818138418658</v>
+        <v>1.018743243476469</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056435403052561</v>
+        <v>1.055355257727989</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0482751517743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046856619048851</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025265148890134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027305671736509</v>
+        <v>1.025986623130001</v>
       </c>
       <c r="D5">
-        <v>1.043599137151236</v>
+        <v>1.041522294101644</v>
       </c>
       <c r="E5">
-        <v>1.04435568436782</v>
+        <v>1.043007769753987</v>
       </c>
       <c r="F5">
-        <v>1.051608121936057</v>
+        <v>1.050202224490006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054756897527305</v>
+        <v>1.053796305844565</v>
       </c>
       <c r="J5">
-        <v>1.045598761756527</v>
+        <v>1.044310295092147</v>
       </c>
       <c r="K5">
-        <v>1.052986223921597</v>
+        <v>1.050931434413845</v>
       </c>
       <c r="L5">
-        <v>1.053734764191448</v>
+        <v>1.052401125181271</v>
       </c>
       <c r="M5">
-        <v>1.060911159205209</v>
+        <v>1.059519902500024</v>
       </c>
       <c r="N5">
-        <v>1.018958882020554</v>
+        <v>1.018847450805919</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056779307588087</v>
+        <v>1.055678244541972</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048541385857123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047097706060266</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025326930252628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02745469155507</v>
+        <v>1.026130946184479</v>
       </c>
       <c r="D6">
-        <v>1.043701652948805</v>
+        <v>1.041618648626682</v>
       </c>
       <c r="E6">
-        <v>1.044479004121083</v>
+        <v>1.043126410099949</v>
       </c>
       <c r="F6">
-        <v>1.05172051848223</v>
+        <v>1.05031014324042</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054791093034742</v>
+        <v>1.053827302778567</v>
       </c>
       <c r="J6">
-        <v>1.045671055567539</v>
+        <v>1.044377846391611</v>
       </c>
       <c r="K6">
-        <v>1.053052039323047</v>
+        <v>1.050991054527834</v>
       </c>
       <c r="L6">
-        <v>1.053821200598179</v>
+        <v>1.05248286664058</v>
       </c>
       <c r="M6">
-        <v>1.060987130967088</v>
+        <v>1.059591376872115</v>
       </c>
       <c r="N6">
-        <v>1.018983870668586</v>
+        <v>1.018865999822085</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056839432822796</v>
+        <v>1.055734810554171</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048596566819852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047149374377924</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025338617608663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,105 +749,123 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026456351460926</v>
+        <v>1.025170730150328</v>
       </c>
       <c r="D7">
-        <v>1.043034099932037</v>
+        <v>1.040997724053297</v>
       </c>
       <c r="E7">
-        <v>1.043658134157736</v>
+        <v>1.042342985871346</v>
       </c>
       <c r="F7">
-        <v>1.050974076203813</v>
+        <v>1.049598639885739</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054575487120171</v>
+        <v>1.053636521254036</v>
       </c>
       <c r="J7">
-        <v>1.045200833867721</v>
+        <v>1.043945905379322</v>
       </c>
       <c r="K7">
-        <v>1.052636631925344</v>
+        <v>1.050622451349299</v>
       </c>
       <c r="L7">
-        <v>1.053253885816067</v>
+        <v>1.051953038671203</v>
       </c>
       <c r="M7">
-        <v>1.060491073297606</v>
+        <v>1.059130340602507</v>
       </c>
       <c r="N7">
-        <v>1.018823888888802</v>
+        <v>1.018775095006837</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056446844977557</v>
+        <v>1.055369938673954</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048306995245997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04689331432523</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025271160170813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022211722183524</v>
+        <v>1.021075006505272</v>
       </c>
       <c r="D8">
-        <v>1.04019871674281</v>
+        <v>1.038350798275649</v>
       </c>
       <c r="E8">
-        <v>1.040177874505922</v>
+        <v>1.039009845584601</v>
       </c>
       <c r="F8">
-        <v>1.047810412610944</v>
+        <v>1.04657404611839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053640810845502</v>
+        <v>1.052800650704382</v>
       </c>
       <c r="J8">
-        <v>1.04319465949766</v>
+        <v>1.042089043161275</v>
       </c>
       <c r="K8">
-        <v>1.05086036928456</v>
+        <v>1.049035182058878</v>
       </c>
       <c r="L8">
-        <v>1.050839782867818</v>
+        <v>1.049686110886106</v>
       </c>
       <c r="M8">
-        <v>1.058379483208764</v>
+        <v>1.057158041028484</v>
       </c>
       <c r="N8">
-        <v>1.018140443971671</v>
+        <v>1.018325577874788</v>
       </c>
       <c r="O8">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P8">
-        <v>1.054775697092809</v>
+        <v>1.053809025544711</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047055571583909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045775980841701</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024973403555115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014464756789202</v>
+        <v>1.013582881424377</v>
       </c>
       <c r="D9">
-        <v>1.03504863401404</v>
+        <v>1.033531516936969</v>
       </c>
       <c r="E9">
-        <v>1.033868279139644</v>
+        <v>1.03295280013485</v>
       </c>
       <c r="F9">
-        <v>1.04208028883673</v>
+        <v>1.041085259912083</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051876657072828</v>
+        <v>1.051207350559286</v>
       </c>
       <c r="J9">
-        <v>1.039516867384051</v>
+        <v>1.038664945121824</v>
       </c>
       <c r="K9">
-        <v>1.047597559899905</v>
+        <v>1.046103024892615</v>
       </c>
       <c r="L9">
-        <v>1.046434767160465</v>
+        <v>1.045532944439022</v>
       </c>
       <c r="M9">
-        <v>1.054525639076286</v>
+        <v>1.053545158977315</v>
       </c>
       <c r="N9">
-        <v>1.016885805583279</v>
+        <v>1.017408349572697</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051725690574682</v>
+        <v>1.050949717756415</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044745460447902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043699372446143</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024401841645971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009168638638958</v>
+        <v>1.008491575537038</v>
       </c>
       <c r="D10">
-        <v>1.031571449318099</v>
+        <v>1.030301398258956</v>
       </c>
       <c r="E10">
-        <v>1.029610248595751</v>
+        <v>1.028894325448852</v>
       </c>
       <c r="F10">
-        <v>1.038248707377245</v>
+        <v>1.037439953940568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050658718544802</v>
+        <v>1.050120097690262</v>
       </c>
       <c r="J10">
-        <v>1.037023149725949</v>
+        <v>1.036372289770268</v>
       </c>
       <c r="K10">
-        <v>1.045393146005481</v>
+        <v>1.044144287191078</v>
       </c>
       <c r="L10">
-        <v>1.043464698457517</v>
+        <v>1.042760771740436</v>
       </c>
       <c r="M10">
-        <v>1.051960082954961</v>
+        <v>1.051164594474095</v>
       </c>
       <c r="N10">
-        <v>1.016039289165275</v>
+        <v>1.016907571455599</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049745997751057</v>
+        <v>1.049116467854762</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043203470953359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042332761175266</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024016882028006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00723620613422</v>
+        <v>1.006658798706554</v>
       </c>
       <c r="D11">
-        <v>1.030450340487382</v>
+        <v>1.029280960584385</v>
       </c>
       <c r="E11">
-        <v>1.028252046505977</v>
+        <v>1.02762992533455</v>
       </c>
       <c r="F11">
-        <v>1.037274240455251</v>
+        <v>1.036548590274419</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050369030057888</v>
+        <v>1.049886189230502</v>
       </c>
       <c r="J11">
-        <v>1.036311018451817</v>
+        <v>1.035757163810145</v>
       </c>
       <c r="K11">
-        <v>1.044819981701182</v>
+        <v>1.043671029173017</v>
       </c>
       <c r="L11">
-        <v>1.042660138525182</v>
+        <v>1.042048937706731</v>
       </c>
       <c r="M11">
-        <v>1.051525865215505</v>
+        <v>1.050812669403799</v>
       </c>
       <c r="N11">
-        <v>1.015832715138536</v>
+        <v>1.01699437735198</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049832933767645</v>
+        <v>1.049268804899448</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042830729543413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042033867779758</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023966873479696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006660935280888</v>
+        <v>1.006109548239891</v>
       </c>
       <c r="D12">
-        <v>1.030175935273942</v>
+        <v>1.029030027347946</v>
       </c>
       <c r="E12">
-        <v>1.027930984807228</v>
+        <v>1.027332832489385</v>
       </c>
       <c r="F12">
-        <v>1.037167895157562</v>
+        <v>1.036462994909526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050351860239989</v>
+        <v>1.049881523601436</v>
       </c>
       <c r="J12">
-        <v>1.036186043372624</v>
+        <v>1.035657572967028</v>
       </c>
       <c r="K12">
-        <v>1.044746980699193</v>
+        <v>1.043621419098964</v>
       </c>
       <c r="L12">
-        <v>1.042541946086399</v>
+        <v>1.041954467302471</v>
       </c>
       <c r="M12">
-        <v>1.05161605509213</v>
+        <v>1.050923446327234</v>
       </c>
       <c r="N12">
-        <v>1.015818347340598</v>
+        <v>1.017088447240554</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.0502268316587</v>
+        <v>1.04967916805603</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042779116481205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04199879318922</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023988081780781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007103609384238</v>
+        <v>1.006513440561527</v>
       </c>
       <c r="D13">
-        <v>1.030550334786797</v>
+        <v>1.029362732579452</v>
       </c>
       <c r="E13">
-        <v>1.028399720038826</v>
+        <v>1.027764539338893</v>
       </c>
       <c r="F13">
-        <v>1.03774149350716</v>
+        <v>1.0370036805098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05055583076688</v>
+        <v>1.050060780765578</v>
       </c>
       <c r="J13">
-        <v>1.036518811622646</v>
+        <v>1.035953052500926</v>
       </c>
       <c r="K13">
-        <v>1.045072594579465</v>
+        <v>1.043905990035184</v>
       </c>
       <c r="L13">
-        <v>1.042960050451486</v>
+        <v>1.042336153402595</v>
       </c>
       <c r="M13">
-        <v>1.052137936881216</v>
+        <v>1.051412928674083</v>
       </c>
       <c r="N13">
-        <v>1.015956909144509</v>
+        <v>1.017163205040522</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050913268417434</v>
+        <v>1.050340127007486</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043006865262037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042197277802288</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024070046237614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007876245453701</v>
+        <v>1.007230132632551</v>
       </c>
       <c r="D14">
-        <v>1.031108413257494</v>
+        <v>1.029862617808471</v>
       </c>
       <c r="E14">
-        <v>1.029086903133594</v>
+        <v>1.02839867187028</v>
       </c>
       <c r="F14">
-        <v>1.038452447968251</v>
+        <v>1.03766775449569</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050799465536863</v>
+        <v>1.050270688832778</v>
       </c>
       <c r="J14">
-        <v>1.036960186384009</v>
+        <v>1.036340421452557</v>
       </c>
       <c r="K14">
-        <v>1.04548281739234</v>
+        <v>1.044258778569905</v>
       </c>
       <c r="L14">
-        <v>1.043496645489267</v>
+        <v>1.042820486346436</v>
       </c>
       <c r="M14">
-        <v>1.052699966443542</v>
+        <v>1.051928719652981</v>
       </c>
       <c r="N14">
-        <v>1.016123664939058</v>
+        <v>1.017208405351875</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051529294967678</v>
+        <v>1.050919681619406</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043298309981944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042448249325031</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024155650065832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00829036694685</v>
+        <v>1.007617002755083</v>
       </c>
       <c r="D15">
-        <v>1.031392411142289</v>
+        <v>1.030118513548716</v>
       </c>
       <c r="E15">
-        <v>1.029433566408019</v>
+        <v>1.028719536935879</v>
       </c>
       <c r="F15">
-        <v>1.038784968661581</v>
+        <v>1.037977499079445</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050911066699858</v>
+        <v>1.050366234091572</v>
       </c>
       <c r="J15">
-        <v>1.037173250247635</v>
+        <v>1.03652710977654</v>
       </c>
       <c r="K15">
-        <v>1.045676860073461</v>
+        <v>1.044425043534669</v>
       </c>
       <c r="L15">
-        <v>1.043751998143179</v>
+        <v>1.043050397605545</v>
       </c>
       <c r="M15">
-        <v>1.052942659178189</v>
+        <v>1.052148921655713</v>
       </c>
       <c r="N15">
-        <v>1.016199888672217</v>
+        <v>1.017219883690353</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051758346557777</v>
+        <v>1.051130972289057</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043441309967149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042572178604484</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024192089586137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010445114361707</v>
+        <v>1.0096485716163</v>
       </c>
       <c r="D16">
-        <v>1.032795313175279</v>
+        <v>1.031392836998753</v>
       </c>
       <c r="E16">
-        <v>1.031149058142299</v>
+        <v>1.030318188697796</v>
       </c>
       <c r="F16">
-        <v>1.040317907778775</v>
+        <v>1.039406695532117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051402037060485</v>
+        <v>1.050785489123979</v>
       </c>
       <c r="J16">
-        <v>1.038174879597091</v>
+        <v>1.03740896113619</v>
       </c>
       <c r="K16">
-        <v>1.046561636085613</v>
+        <v>1.045182426282042</v>
       </c>
       <c r="L16">
-        <v>1.044942699909041</v>
+        <v>1.044125661067565</v>
       </c>
       <c r="M16">
-        <v>1.053960809932585</v>
+        <v>1.053064425469687</v>
       </c>
       <c r="N16">
-        <v>1.016535301175865</v>
+        <v>1.01724850524027</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052524707106529</v>
+        <v>1.051816180282358</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044069999882357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043111098706952</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024336683176831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011695274473716</v>
+        <v>1.010840931925135</v>
       </c>
       <c r="D17">
-        <v>1.033580591580846</v>
+        <v>1.032115275188411</v>
       </c>
       <c r="E17">
-        <v>1.032106212420145</v>
+        <v>1.031220131300833</v>
       </c>
       <c r="F17">
-        <v>1.041118806836905</v>
+        <v>1.040157779343463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05164887051831</v>
+        <v>1.050998394042222</v>
       </c>
       <c r="J17">
-        <v>1.038711322477648</v>
+        <v>1.037888790432961</v>
       </c>
       <c r="K17">
-        <v>1.047024380686106</v>
+        <v>1.045582701880009</v>
       </c>
       <c r="L17">
-        <v>1.045573785574843</v>
+        <v>1.044702040343256</v>
       </c>
       <c r="M17">
-        <v>1.05444234058542</v>
+        <v>1.053496519978884</v>
       </c>
       <c r="N17">
-        <v>1.016704888928889</v>
+        <v>1.017275233230307</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052777450738264</v>
+        <v>1.052029774896722</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044399732754663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043396912551615</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024403288365177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012273382015439</v>
+        <v>1.011403515452671</v>
       </c>
       <c r="D18">
-        <v>1.033888141091446</v>
+        <v>1.032404902247433</v>
       </c>
       <c r="E18">
-        <v>1.032477876271546</v>
+        <v>1.031576854144442</v>
       </c>
       <c r="F18">
-        <v>1.041329481008679</v>
+        <v>1.040354411031753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051698013431728</v>
+        <v>1.051038954486334</v>
       </c>
       <c r="J18">
-        <v>1.038880602057902</v>
+        <v>1.038042527726907</v>
       </c>
       <c r="K18">
-        <v>1.047146481583841</v>
+        <v>1.045686783899737</v>
       </c>
       <c r="L18">
-        <v>1.045758597692989</v>
+        <v>1.04487191586126</v>
       </c>
       <c r="M18">
-        <v>1.054471010296028</v>
+        <v>1.053511124961836</v>
       </c>
       <c r="N18">
-        <v>1.016740689385834</v>
+        <v>1.017260454627575</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052564857797338</v>
+        <v>1.051805908521226</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04447454997149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04345785610722</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024401208101649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012256874406598</v>
+        <v>1.011403506117842</v>
       </c>
       <c r="D19">
-        <v>1.033781570450309</v>
+        <v>1.032316477778102</v>
       </c>
       <c r="E19">
-        <v>1.03233120198151</v>
+        <v>1.031446065303782</v>
       </c>
       <c r="F19">
-        <v>1.041016820745684</v>
+        <v>1.040055615886074</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051580585108599</v>
+        <v>1.050932754458259</v>
       </c>
       <c r="J19">
-        <v>1.038732727320702</v>
+        <v>1.037910367188846</v>
       </c>
       <c r="K19">
-        <v>1.046980041421608</v>
+        <v>1.045538083831891</v>
       </c>
       <c r="L19">
-        <v>1.045552575109091</v>
+        <v>1.044681455784922</v>
       </c>
       <c r="M19">
-        <v>1.054102260609004</v>
+        <v>1.053155956221085</v>
       </c>
       <c r="N19">
-        <v>1.016663890082882</v>
+        <v>1.017194452024037</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051951580284611</v>
+        <v>1.051203129974756</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044363200310945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043359673795115</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024342768224871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010563013079755</v>
+        <v>1.00981310034363</v>
       </c>
       <c r="D20">
-        <v>1.032500874733804</v>
+        <v>1.031152283062146</v>
       </c>
       <c r="E20">
-        <v>1.030734327663426</v>
+        <v>1.029948875882041</v>
       </c>
       <c r="F20">
-        <v>1.039262769982525</v>
+        <v>1.038391548701601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050993759733946</v>
+        <v>1.050411366420201</v>
       </c>
       <c r="J20">
-        <v>1.037692734350322</v>
+        <v>1.036970914946406</v>
       </c>
       <c r="K20">
-        <v>1.045995335614075</v>
+        <v>1.044668615747943</v>
       </c>
       <c r="L20">
-        <v>1.044257453780234</v>
+        <v>1.043484787867573</v>
       </c>
       <c r="M20">
-        <v>1.052648661484481</v>
+        <v>1.051791326867663</v>
       </c>
       <c r="N20">
-        <v>1.016269264740365</v>
+        <v>1.016972890576901</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050280520038955</v>
+        <v>1.049602038646521</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043670867824291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042749207022437</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024122967639739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006521061582278</v>
+        <v>1.00602279834662</v>
       </c>
       <c r="D21">
-        <v>1.029826695617284</v>
+        <v>1.028737930396399</v>
       </c>
       <c r="E21">
-        <v>1.027459174870013</v>
+        <v>1.026911979978997</v>
       </c>
       <c r="F21">
-        <v>1.036269110960623</v>
+        <v>1.035608930524916</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050020764194729</v>
+        <v>1.049586357576834</v>
       </c>
       <c r="J21">
-        <v>1.035748647550491</v>
+        <v>1.035270849376915</v>
       </c>
       <c r="K21">
-        <v>1.044264199407998</v>
+        <v>1.043194568160266</v>
       </c>
       <c r="L21">
-        <v>1.041938352647782</v>
+        <v>1.041400825142722</v>
       </c>
       <c r="M21">
-        <v>1.050594459966932</v>
+        <v>1.049945689470415</v>
       </c>
       <c r="N21">
-        <v>1.015602710295787</v>
+        <v>1.016926088942594</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048614466896931</v>
+        <v>1.048101014065951</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042450104001249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041710537700218</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023829438200542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00395201462641</v>
+        <v>1.003612371636369</v>
       </c>
       <c r="D22">
-        <v>1.028135411375699</v>
+        <v>1.027210545020498</v>
       </c>
       <c r="E22">
-        <v>1.025394754196339</v>
+        <v>1.024997467665434</v>
       </c>
       <c r="F22">
-        <v>1.034398138285879</v>
+        <v>1.03387115613708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049401198913998</v>
+        <v>1.049060214226267</v>
       </c>
       <c r="J22">
-        <v>1.034519724368163</v>
+        <v>1.034194828689894</v>
       </c>
       <c r="K22">
-        <v>1.043169372747455</v>
+        <v>1.042261564914367</v>
       </c>
       <c r="L22">
-        <v>1.040479381837855</v>
+        <v>1.040089469231966</v>
       </c>
       <c r="M22">
-        <v>1.049317631976733</v>
+        <v>1.048800212285902</v>
       </c>
       <c r="N22">
-        <v>1.015182275216349</v>
+        <v>1.016891009375074</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047603953672834</v>
+        <v>1.04719445455035</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041662658126154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041036205375625</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023642678104824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005309441032447</v>
+        <v>1.004875109641806</v>
       </c>
       <c r="D23">
-        <v>1.029023134758257</v>
+        <v>1.028003458364118</v>
       </c>
       <c r="E23">
-        <v>1.02648331202287</v>
+        <v>1.02599701548712</v>
       </c>
       <c r="F23">
-        <v>1.035384183295728</v>
+        <v>1.034778903027482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049725227119652</v>
+        <v>1.049329337448059</v>
       </c>
       <c r="J23">
-        <v>1.035164975945495</v>
+        <v>1.034748960190887</v>
       </c>
       <c r="K23">
-        <v>1.043740736271609</v>
+        <v>1.042739395545943</v>
       </c>
       <c r="L23">
-        <v>1.041246672190374</v>
+        <v>1.040769170608536</v>
       </c>
       <c r="M23">
-        <v>1.049988458846914</v>
+        <v>1.049393884213727</v>
       </c>
       <c r="N23">
-        <v>1.015402104278561</v>
+        <v>1.016865090309703</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048134862807014</v>
+        <v>1.047664301616231</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042057091395045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041363566602561</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023736204105834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010577497593826</v>
+        <v>1.00982861731242</v>
       </c>
       <c r="D24">
-        <v>1.03248870234783</v>
+        <v>1.03114113862256</v>
       </c>
       <c r="E24">
-        <v>1.030725266655653</v>
+        <v>1.02994080912012</v>
       </c>
       <c r="F24">
-        <v>1.039229557471664</v>
+        <v>1.038359149126383</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050975746759218</v>
+        <v>1.050394144145144</v>
       </c>
       <c r="J24">
-        <v>1.03767436852918</v>
+        <v>1.036953502438975</v>
       </c>
       <c r="K24">
-        <v>1.04596833010863</v>
+        <v>1.044642594229488</v>
       </c>
       <c r="L24">
-        <v>1.044233473361576</v>
+        <v>1.043461769461449</v>
       </c>
       <c r="M24">
-        <v>1.052601085726123</v>
+        <v>1.051744534519614</v>
       </c>
       <c r="N24">
-        <v>1.016258530850259</v>
+        <v>1.016960964805279</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.05020255733227</v>
+        <v>1.049524663140608</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043624652647191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042701016682885</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024111967050154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016513406567153</v>
+        <v>1.01555534850873</v>
       </c>
       <c r="D25">
-        <v>1.036415678987698</v>
+        <v>1.034805005758867</v>
       </c>
       <c r="E25">
-        <v>1.035533934604372</v>
+        <v>1.034543839631011</v>
       </c>
       <c r="F25">
-        <v>1.043592947075153</v>
+        <v>1.042527949845271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052355962571395</v>
+        <v>1.05163728295214</v>
       </c>
       <c r="J25">
-        <v>1.040497528323229</v>
+        <v>1.039570318584623</v>
       </c>
       <c r="K25">
-        <v>1.048473816730766</v>
+        <v>1.046886018881883</v>
       </c>
       <c r="L25">
-        <v>1.047604584060066</v>
+        <v>1.046628570422664</v>
       </c>
       <c r="M25">
-        <v>1.055550233936313</v>
+        <v>1.054500090685522</v>
       </c>
       <c r="N25">
-        <v>1.017221842554961</v>
+        <v>1.017621746437575</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052536575896752</v>
+        <v>1.051705471044661</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045393293675273</v>
+        <v>1.044284067246972</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024558013311434</v>
       </c>
     </row>
   </sheetData>
